--- a/blog/Ranking top 31 minutos.xlsx
+++ b/blog/Ranking top 31 minutos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\2 - P. PROGRAM\web_development\vvga\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBD24B5-4F54-4F73-8673-87A68FE43E7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2ACBA-8047-4DD8-8667-02852D95D560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19755" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>http://www.31minutos.cl/codex/guia-de-canciones/</t>
   </si>
@@ -326,6 +328,41 @@
   </si>
   <si>
     <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1dBL9ou1or4" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Arrancamos esta segunda parte con la primera mención a una canción de la impecable Temporada 1. Es innegable que "Yo opino" es un ícono de su época. Es pegajosa, y el personaje de Joe Pino es famoso más allá de su faceta musical. Por muy interesante que sea, creo que la rareza y concepto detrás de este tema es una parodia a una referencia quizás demasiado "talla-interna" del equipo realizador. Eso opino.</t>
+  </si>
+  <si>
+    <t>Qué buen pop se sacan los Hermanos Guarenes. Me encanta la guitarra tipo slap-steel que va siguiendo la melodía de las voces. Suena playero, relajado, rico. Esta estética casera está totalmente en sintonía con el espíritu artesanal que 31 Minutos tenía en sus inicios. La letra está consciente de su sinsentido, y explotar esto de manera voluntaria lo encuentro admirable. Pop del bueno.</t>
+  </si>
+  <si>
+    <t>Me extenderé un poco más acá. Anteriormente había mencionado lo muy en desacuerdo que estoy con que se cuelen personajes del noticiero 31 Minutos dentro del ranking top. Esto es, porque está establecido que el ranking de Policarpo da a conocer los hits de personajes que son artistas 24/7 y que, por lo tanto, son ajenos al noticiero. Las canciones que violan este principio, por lo general, las siento mucho más flacas y forzadas que sus contrapartes.
+"Mr. Guantecillo", contradice lo anterior. Curiosamente, a diferencia de canciones que derivan de episodios (como "Ratoncitos" o "Boing boing boing"), la canción se hizo primero y el capítulo después. Lo que se sabe, es que Rodrigo Salinas armó este tema para homenajear al chofer de Aplaplac, al que llamaba "Guantecillo". De ahí, se cambiaron un par de aspectos para que fuese más apto para el programa, y terminó armándose el capítulo.
+La estética y música de este videoclip es la raja. Que existan computadores hermanos de Paine es de lo más pelacable que se siente en el programa, y la manito de infuencias como Daft Punk y Kraftwerk nuevamente salen a relucir.</t>
+  </si>
+  <si>
+    <t>Si "Tangananica-Tangananá" daban cátedra de buen pop, para mí, "La señora interesante" agarra la misma guitarra rítmica pero le chanta un ampli Marshall con una rica distorsión, logrando el mismo buen nivel pero con un poco más de rock. El personaje de Cucky es una parodia de una joven que bien pudo haber compuesto en su pieza, en su garage, a lo Nirvana en 1994. La experiencia final es redondita.</t>
+  </si>
+  <si>
+    <t>"Diente blanco, no te vayas" es simpleza y psicodelia. Esta canción rápidamente se convirtió en un himno, y a esta altura se la debe saber todo Chile (y quizás, hasta una buena parte de México). El concepto es genial, y la ejecución es impecable ¿Vieron que los metalófonos pueden tener un uso más allá que en la clase de música de un 5to básico?</t>
+  </si>
+  <si>
+    <t>Puta que es entrete de escuchar este tema. Es imposible dejarlo de fondo sin ponerle atención a la letra. Me gusta como todas las palabras van cal-zan-do muy pre-ci-sa-men-te en cada sílaba casi sin hacer pausas: le da un flow muy especial. Su carácter narrativo es muy de la Temporada 3, y acá está bien explotado. Destaco cuando la tocaron en el Festival de Viña y Álvaro Díaz se pone a gritar en el climax emocional de "Retrete Navarrete". Insisto, la weá chistosa.</t>
+  </si>
+  <si>
+    <t>Siento que las canciones de la Temporada 4 acá son de gusto personal, en especial porque estos temas claramente no cuentan con la popularidad y trascendencia de las primeras temporadas. Habiendo dicho eso, "Amurrao" me parece excelente. Creo que es la canción tipo "rap" mejor lograda. Ese bajo cremoso que hace el sintetizador es muy rico de escuchar. El video es alucinante, recreando con mucha fineza cómo se podría ver el auto de una familia clase media shilena yendo pa la playa. Empatizo totalmente con el joven Eustaquio, y con el martirio que significa para todo cabro chico estar una hora y media encerrado en un auto.</t>
+  </si>
+  <si>
+    <t>Frenético, chistoso, autóctono. Hay que destacar lo notable que era escuchar la palabra "raja" en horario prime en TVN por ahí por el 2004. Quién como tú, Juan Tástico, que acumulaste tantos timbres a tus cortos años que te pudiste retirar. El rin raja debiese ser deporte nacional.</t>
+  </si>
+  <si>
+    <t>Pegó en Latinoamérica</t>
+  </si>
+  <si>
+    <t>Empatando con "Yo opino", el N°20 se lo lleva el joven de espíritu, "Lolo", con "Lala". Acá la fórmula de repetir la palabra estaba fresquita. La batería electrónica Drum &amp; Bass le da un corte dinámico que, sumado al desenfreno de la moto "Otto Kraus" de Lolo, nos evoca una especie de persecusión psicodélica. Dura lo que tiene que durar, y no llega a ser chato. Puro goce.</t>
+  </si>
+  <si>
+    <t>Código</t>
   </si>
 </sst>
 </file>
@@ -792,23 +829,23 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" customWidth="1"/>
+    <col min="5" max="5" width="59.5546875" customWidth="1"/>
     <col min="7" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15">
+    <row r="1" spans="1:29" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -841,6 +878,9 @@
       </c>
       <c r="K1" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="99" customHeight="1">
@@ -851,8 +891,8 @@
         <v>12</v>
       </c>
       <c r="C2" s="36" t="str">
-        <f>_xlfn.CONCAT(A2," - ",B2)</f>
-        <v>Guácala - Carmencita</v>
+        <f>_xlfn.CONCAT("#",D2,". ",A2," - ",B2," [Temporada ",G2,"]")</f>
+        <v>#32. Guácala - Carmencita [Temporada 3]</v>
       </c>
       <c r="D2" s="11">
         <f t="shared" ref="D2:D32" si="0">D3+1</f>
@@ -880,7 +920,20 @@
       <c r="K2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="16" t="str">
+        <f t="shared" ref="L2:L12" si="2">CONCATENATE("&lt;p&gt;",E2,"
+&lt;br&gt;
+&lt;br&gt;Video: ",H2,"
+&lt;br&gt;Música: ",I2,"
+&lt;br&gt;Concepto: ",J2,"
+&lt;br&gt;Nota final: ",F2)</f>
+        <v>&lt;p&gt;La canción más flaca de todo 31 minutos tenía que venir de la temporada 3 (la más débil del programa, a mi gusto). "Guácala" sigue con la tradición lírica mono-palábrica inaugurada por "Lala", pero lo ejecuta con con mucha menos gracia. El video de "Guácala" dura apenas 1 minuto 03, y deja de ser chistoso rápidamente. Sólo le concedo unos puntitos por el recurso negro de terminar con una cabeza de chancho al plato. Ácido, pero atrevido.
+&lt;br&gt;
+&lt;br&gt;Video: 3
+&lt;br&gt;Música: 2
+&lt;br&gt;Concepto: 2
+&lt;br&gt;Nota final: 2,33333333333333</v>
+      </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
@@ -907,8 +960,8 @@
         <v>15</v>
       </c>
       <c r="C3" s="36" t="str">
-        <f>_xlfn.CONCAT(A3," - ",B3)</f>
-        <v>Ríe - Cucho Lambretta</v>
+        <f t="shared" ref="C3:C33" si="3">_xlfn.CONCAT("#",D3,". ",A3," - ",B3," [Temporada ",G3,"]")</f>
+        <v>#31. Ríe - Cucho Lambretta [Temporada 3]</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
@@ -936,7 +989,15 @@
       <c r="K3" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;Cualquier sátira que agarre pal hueveo a la Teletón es genial, pero tengo la convicción que 31 minutos viene haciendo eso desde el capítulo 1. En ese sentido, "Ríe" peca en ser poco novedoso. La figura de Cucho Lambretta evoca demasiado a otros personajes que ha tenido programa, y el tono añejo de su balada aburre en un mal sentido. Si bien la letra de la canción tiene sus buenos momentos, su tono excesivamente negro llega a ser flojo. Levántate papito.
+&lt;br&gt;
+&lt;br&gt;Video: 3
+&lt;br&gt;Música: 3
+&lt;br&gt;Concepto: 3
+&lt;br&gt;Nota final: 3</v>
+      </c>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -955,7 +1016,7 @@
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
     </row>
-    <row r="4" spans="1:29" ht="114.75">
+    <row r="4" spans="1:29" ht="118.8">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -963,8 +1024,8 @@
         <v>18</v>
       </c>
       <c r="C4" s="36" t="str">
-        <f t="shared" ref="C3:C33" si="2">_xlfn.CONCAT(A4," - ",B4)</f>
-        <v>Ratoncitos - Los ratoncitos</v>
+        <f t="shared" si="3"/>
+        <v>#30. Ratoncitos - Los ratoncitos [Temporada 3]</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -992,7 +1053,15 @@
       <c r="K4" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;Desde la temporada 1 queda establecido que el universo del ranking top es una dimensión aparte. Los artistas que Policarpo destaca son personajes "reales", ajenos al noticiero de 31 minutos. Por lo mismo, ni Tulio, Bodoque, ni Juanín tendrían mono que pintar en el ranking top. "Ratoncitos" profana ampliamente esta idea. Se introduce como parte de la trama un capítulo, y termina coronándose como el hit N°1 del episodio. Dicen que la carátula de "Ratoncitos" es una referencia a "The Man Machine" de Kraftwerk, pero yo no le pondría tanta ficha a este spinoff de Alvin y las ardillas xileno.
+&lt;br&gt;
+&lt;br&gt;Video: 3
+&lt;br&gt;Música: 4
+&lt;br&gt;Concepto: 4
+&lt;br&gt;Nota final: 3,66666666666667</v>
+      </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -1011,7 +1080,7 @@
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
     </row>
-    <row r="5" spans="1:29" ht="127.5">
+    <row r="5" spans="1:29" ht="118.8">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1019,8 +1088,8 @@
         <v>21</v>
       </c>
       <c r="C5" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Arwrarwrirwrarwro - Bombi</v>
+        <f t="shared" si="3"/>
+        <v>#29. Arwrarwrirwrarwro - Bombi [Temporada 4]</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
@@ -1046,7 +1115,15 @@
         <v>3</v>
       </c>
       <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="L5" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;"Arwarriratssdfarsahwro" me genera rechazo por motivos similares a "Ratoncitos". Se cuela en el ranking musical como parte un episodio particularmente raro: la irrupción de una pretenciosa invasión zombie. Hecho de menos el carácter más artesanal que tuvo en su momento 31m, prefiriendo usar elementos domésticos más comunes para introducir conflicto. El mayordomo "Bombi", y sus problemas, ilustran bien el espíritu de las nuevas temporadas. Muy bonita la calidad de los títeres y todo, pero ¿Por qué un zombie? ¿Por qué su canción es estilo calypso? ¿Por qué es portada del último disco? No entiendo ná.
+&lt;br&gt;
+&lt;br&gt;Video: 5
+&lt;br&gt;Música: 5
+&lt;br&gt;Concepto: 3
+&lt;br&gt;Nota final: 4,33333333333333</v>
+      </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1073,8 +1150,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Boing boing boing - Tío Horacio y sus queridos personajes</v>
+        <f t="shared" si="3"/>
+        <v>#28. Boing boing boing - Tío Horacio y sus queridos personajes [Temporada 2]</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
@@ -1100,7 +1177,15 @@
         <v>4</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="L6" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;El Tío Horacio es un personaje tremendo. Nadie habría visto venir que una parodia directa del Tío Horacio (y de, hasta cierto punto, Marcelo Cachureos) podía traer más caos a un programa de por sí especialmente caótico. Aunque tengo buenos recuerdos de sus mejores tallas, "Boing boing boing" me parece más un raspao de olla de esta original idea. Igual es un tema cortito, y esas cornetas de cumpleaños le dan harta onda. Así que EJEJEJEJE.
+&lt;br&gt;
+&lt;br&gt;Video: 5
+&lt;br&gt;Música: 4,7
+&lt;br&gt;Concepto: 4
+&lt;br&gt;Nota final: 4,56666666666667</v>
+      </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -1119,7 +1204,7 @@
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
     </row>
-    <row r="7" spans="1:29" ht="89.25">
+    <row r="7" spans="1:29" ht="92.4">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1127,8 +1212,8 @@
         <v>27</v>
       </c>
       <c r="C7" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Parque de diversiones - Milton Ludovico</v>
+        <f t="shared" si="3"/>
+        <v>#27. Parque de diversiones - Milton Ludovico [Temporada 3]</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
@@ -1156,7 +1241,15 @@
       <c r="K7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;Si hay algo que distingue a la temporada 3 es el carácter narrativo de sus canciones. "Parque de diversiones" se la juega por contar una historia que escala bien, pero se queda ahí nomás. No establece muchos lazos la sociedad real, abadonando el carácter satírico o más político que tiene el programa. Es un cuento de terror, contado por monos. La música no me parece especialmente destacable tampoco, asi que xau.
+&lt;br&gt;
+&lt;br&gt;Video: 5,1
+&lt;br&gt;Música: 5
+&lt;br&gt;Concepto: 4,5
+&lt;br&gt;Nota final: 4,86666666666667</v>
+      </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1183,8 +1276,8 @@
         <v>31</v>
       </c>
       <c r="C8" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>El huerfadrino - Percy Mamani</v>
+        <f t="shared" si="3"/>
+        <v>#26. El huerfadrino - Percy Mamani [Temporada 4]</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -1212,7 +1305,15 @@
       <c r="K8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;Ya, sí. Se entiende el concepto. Cuando lxs chilenxs era más católicxs, era común que los cabros chicos quedaran "huérfanos" de padrino. Por un lado, es muy del estilo de 31m abordar esta clase de temáticas. Pero por otro, en comparación con otros lugares comunes que el programa ha explotado, "El huerfadrino" me parece que es el más forzado. Su protagonista es niño-títere genérico, y el ritmo de la canción me parece chato. Más allá de la rima que vincula a Marlon Brando con Al Pacino (sublime), no creo que este tema le haya movido el piso a nadie.
+&lt;br&gt;
+&lt;br&gt;Video: 5
+&lt;br&gt;Música: 4
+&lt;br&gt;Concepto: 6
+&lt;br&gt;Nota final: 5</v>
+      </c>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -1239,8 +1340,8 @@
         <v>35</v>
       </c>
       <c r="C9" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Drácula, Calígula, Tarántula - Coágula Espátulo</v>
+        <f t="shared" si="3"/>
+        <v>#25. Drácula, Calígula, Tarántula - Coágula Espátulo [Temporada 4]</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
@@ -1266,7 +1367,15 @@
         <v>5</v>
       </c>
       <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="L9" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;Hay algunos elementos interesantes en este festín de palabras esdrújulas. Hasta donde sé, el programa no ha explorado mucho esta estética tradicionalmente "spooky", y creo que "Drácula, Calígula" lo aborda bien. La línea sinte del bajo tiene un sonido cremoso que dialoga bien con las melodías más tétricas. Ahora, ¿pega esto con la idea general de 31 minutos? Me parece que para nada, y que perfectamente podría calzar en otro programa de monos.
+&lt;br&gt;
+&lt;br&gt;Video: 5,6
+&lt;br&gt;Música: 4,5
+&lt;br&gt;Concepto: 5
+&lt;br&gt;Nota final: 5,03333333333333</v>
+      </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -1293,8 +1402,8 @@
         <v>38</v>
       </c>
       <c r="C10" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Papá, te quiero - Exequiel Tapia y los Tapia</v>
+        <f t="shared" si="3"/>
+        <v>#24. Papá, te quiero - Exequiel Tapia y los Tapia [Temporada 2]</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -1320,7 +1429,15 @@
         <v>5.7</v>
       </c>
       <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="L10" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;Ya sacándose el gustito más amargo por lo expuesto, a partir de acá se vienen puras canciones que me gustan. Papá te quiero es un tema que siempre está con la energía arriba, a pesar de su estructura más monótona y su letra repetitiva. La dinámica entre hermano y hermana aporta con buenas dosis de humor, y la puesta en escena con este mimo paternal de metro noventa es espectacular de ver.
+&lt;br&gt;
+&lt;br&gt;Video: 5,8
+&lt;br&gt;Música: 5,3
+&lt;br&gt;Concepto: 5,7
+&lt;br&gt;Nota final: 5,6</v>
+      </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -1347,8 +1464,8 @@
         <v>41</v>
       </c>
       <c r="C11" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Nunca me he sacado un 7 - Michael Astudillo Jr.</v>
+        <f t="shared" si="3"/>
+        <v>#23. Nunca me he sacado un 7 - Michael Astudillo Jr. [Temporada 2]</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -1374,7 +1491,15 @@
         <v>5.8</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="L11" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;¿Cuántas cumbias no bailaste por andar de rockerito? Pobre Michael Astudillo. Otra víctima de nuestro sistema educacional represivo, coludido con el clero, el gremio de la psiquiatría, el adultismo y el autoritarismo de su colegio. Un disparo directo a la tecnocracia, pero con caleta de dignidad. La idea de la canción queda súper clara desde el primer coro, asi que hay que puro disfrutarla ¡Muy mal! ¡Un UNO!
+&lt;br&gt;
+&lt;br&gt;Video: 5,5
+&lt;br&gt;Música: 5,6
+&lt;br&gt;Concepto: 5,8
+&lt;br&gt;Nota final: 5,63333333333333</v>
+      </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
@@ -1401,8 +1526,8 @@
         <v>44</v>
       </c>
       <c r="C12" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Mi castillo de blanca arena con vista al mar - Gary González</v>
+        <f t="shared" si="3"/>
+        <v>#22. Mi castillo de blanca arena con vista al mar - Gary González [Temporada 3]</v>
       </c>
       <c r="D12" s="20">
         <f t="shared" si="0"/>
@@ -1430,7 +1555,15 @@
       <c r="K12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;Despido esta primera parte de mi ranking con una de las pocas canciones de la temporada 3 que disfruto. El recurso de contar una historia está nuevamente presente y, en ese caso, aborda con efectividad la experiencia de los niños frente a la albañirería playera. Tamaña tarea. El montaje es bonito, y la música evoca un exquisito parecido con esta balada de The Smiths. Si llego a tener mucha plata, también quisiera que el arquitecto que diseñe mi casa sea un Jurel.
+&lt;br&gt;
+&lt;br&gt;Video: 5,7
+&lt;br&gt;Música: 5,8
+&lt;br&gt;Concepto: 5,5
+&lt;br&gt;Nota final: 5,66666666666667</v>
+      </c>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
@@ -1457,14 +1590,16 @@
         <v>48</v>
       </c>
       <c r="C13" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Yo opino - Joe Pino &amp; The Maniacodepresivos</v>
+        <f t="shared" si="3"/>
+        <v>#21. Yo opino - Joe Pino &amp; The Maniacodepresivos [Temporada 1]</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="29" t="s">
+        <v>98</v>
+      </c>
       <c r="F13" s="13">
         <f t="shared" si="1"/>
         <v>5.666666666666667</v>
@@ -1482,7 +1617,20 @@
         <v>5.8</v>
       </c>
       <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="L13" s="16" t="str">
+        <f>CONCATENATE("&lt;p&gt;",E13,"
+&lt;br&gt;
+&lt;br&gt;Video: ",H13,"
+&lt;br&gt;Música: ",I13,"
+&lt;br&gt;Concepto: ",J13,"
+&lt;br&gt;Nota final: ",F13)</f>
+        <v>&lt;p&gt;Arrancamos esta segunda parte con la primera mención a una canción de la impecable Temporada 1. Es innegable que "Yo opino" es un ícono de su época. Es pegajosa, y el personaje de Joe Pino es famoso más allá de su faceta musical. Por muy interesante que sea, creo que la rareza y concepto detrás de este tema es una parodia a una referencia quizás demasiado "talla-interna" del equipo realizador. Eso opino.
+&lt;br&gt;
+&lt;br&gt;Video: 5,5
+&lt;br&gt;Música: 5,7
+&lt;br&gt;Concepto: 5,8
+&lt;br&gt;Nota final: 5,66666666666667</v>
+      </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
@@ -1509,14 +1657,16 @@
         <v>50</v>
       </c>
       <c r="C14" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Lala - Lolo</v>
+        <f t="shared" si="3"/>
+        <v>#20. Lala - Lolo [Temporada 1]</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="F14" s="13">
         <f t="shared" si="1"/>
         <v>5.666666666666667</v>
@@ -1534,7 +1684,20 @@
         <v>6</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="L14" s="16" t="str">
+        <f t="shared" ref="L14:L33" si="4">CONCATENATE("&lt;p&gt;",E14,"
+&lt;br&gt;
+&lt;br&gt;Video: ",H14,"
+&lt;br&gt;Música: ",I14,"
+&lt;br&gt;Concepto: ",J14,"
+&lt;br&gt;Nota final: ",F14)</f>
+        <v>&lt;p&gt;Empatando con "Yo opino", el N°20 se lo lleva el joven de espíritu, "Lolo", con "Lala". Acá la fórmula de repetir la palabra estaba fresquita. La batería electrónica Drum &amp; Bass le da un corte dinámico que, sumado al desenfreno de la moto "Otto Kraus" de Lolo, nos evoca una especie de persecusión psicodélica. Dura lo que tiene que durar, y no llega a ser chato. Puro goce.
+&lt;br&gt;
+&lt;br&gt;Video: 5,5
+&lt;br&gt;Música: 5,5
+&lt;br&gt;Concepto: 6
+&lt;br&gt;Nota final: 5,66666666666667</v>
+      </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
@@ -1561,14 +1724,16 @@
         <v>52</v>
       </c>
       <c r="C15" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Tangananica-Tangananá - Hermanos Guarennes</v>
+        <f t="shared" si="3"/>
+        <v>#19. Tangananica-Tangananá - Hermanos Guarennes [Temporada 1]</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>99</v>
+      </c>
       <c r="F15" s="13">
         <f t="shared" si="1"/>
         <v>5.7666666666666666</v>
@@ -1586,7 +1751,15 @@
         <v>5</v>
       </c>
       <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;Qué buen pop se sacan los Hermanos Guarenes. Me encanta la guitarra tipo slap-steel que va siguiendo la melodía de las voces. Suena playero, relajado, rico. Esta estética casera está totalmente en sintonía con el espíritu artesanal que 31 Minutos tenía en sus inicios. La letra está consciente de su sinsentido, y explotar esto de manera voluntaria lo encuentro admirable. Pop del bueno.
+&lt;br&gt;
+&lt;br&gt;Video: 6
+&lt;br&gt;Música: 6,3
+&lt;br&gt;Concepto: 5
+&lt;br&gt;Nota final: 5,76666666666667</v>
+      </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -1613,14 +1786,16 @@
         <v>54</v>
       </c>
       <c r="C16" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Mister Guantecillo - Hermanos computadores de Paine</v>
+        <f t="shared" si="3"/>
+        <v>#18. Mister Guantecillo - Hermanos computadores de Paine [Temporada 3]</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="F16" s="13">
         <f t="shared" si="1"/>
         <v>5.8</v>
@@ -1640,7 +1815,17 @@
       <c r="K16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;Me extenderé un poco más acá. Anteriormente había mencionado lo muy en desacuerdo que estoy con que se cuelen personajes del noticiero 31 Minutos dentro del ranking top. Esto es, porque está establecido que el ranking de Policarpo da a conocer los hits de personajes que son artistas 24/7 y que, por lo tanto, son ajenos al noticiero. Las canciones que violan este principio, por lo general, las siento mucho más flacas y forzadas que sus contrapartes.
+"Mr. Guantecillo", contradice lo anterior. Curiosamente, a diferencia de canciones que derivan de episodios (como "Ratoncitos" o "Boing boing boing"), la canción se hizo primero y el capítulo después. Lo que se sabe, es que Rodrigo Salinas armó este tema para homenajear al chofer de Aplaplac, al que llamaba "Guantecillo". De ahí, se cambiaron un par de aspectos para que fuese más apto para el programa, y terminó armándose el capítulo.
+La estética y música de este videoclip es la raja. Que existan computadores hermanos de Paine es de lo más pelacable que se siente en el programa, y la manito de infuencias como Daft Punk y Kraftwerk nuevamente salen a relucir.
+&lt;br&gt;
+&lt;br&gt;Video: 6,5
+&lt;br&gt;Música: 6
+&lt;br&gt;Concepto: 4,9
+&lt;br&gt;Nota final: 5,8</v>
+      </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -1667,14 +1852,16 @@
         <v>57</v>
       </c>
       <c r="C17" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>La señora interesante - Cucky</v>
+        <f t="shared" si="3"/>
+        <v>#17. La señora interesante - Cucky [Temporada 2]</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="F17" s="13">
         <f t="shared" si="1"/>
         <v>5.8</v>
@@ -1692,7 +1879,15 @@
         <v>5.4</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="L17" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;Si "Tangananica-Tangananá" daban cátedra de buen pop, para mí, "La señora interesante" agarra la misma guitarra rítmica pero le chanta un ampli Marshall con una rica distorsión, logrando el mismo buen nivel pero con un poco más de rock. El personaje de Cucky es una parodia de una joven que bien pudo haber compuesto en su pieza, en su garage, a lo Nirvana en 1994. La experiencia final es redondita.
+&lt;br&gt;
+&lt;br&gt;Video: 6
+&lt;br&gt;Música: 6
+&lt;br&gt;Concepto: 5,4
+&lt;br&gt;Nota final: 5,8</v>
+      </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
@@ -1719,14 +1914,16 @@
         <v>59</v>
       </c>
       <c r="C18" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Diente blanco, no te vayas - John Quijada</v>
+        <f t="shared" si="3"/>
+        <v>#16. Diente blanco, no te vayas - John Quijada [Temporada 1]</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>5.833333333333333</v>
@@ -1744,7 +1941,15 @@
         <v>6.5</v>
       </c>
       <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="L18" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;"Diente blanco, no te vayas" es simpleza y psicodelia. Esta canción rápidamente se convirtió en un himno, y a esta altura se la debe saber todo Chile (y quizás, hasta una buena parte de México). El concepto es genial, y la ejecución es impecable ¿Vieron que los metalófonos pueden tener un uso más allá que en la clase de música de un 5to básico?
+&lt;br&gt;
+&lt;br&gt;Video: 5
+&lt;br&gt;Música: 6
+&lt;br&gt;Concepto: 6,5
+&lt;br&gt;Nota final: 5,83333333333333</v>
+      </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
@@ -1771,14 +1976,16 @@
         <v>61</v>
       </c>
       <c r="C19" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>La regla primordial - Retrete Navarrete y los bulliciosos</v>
+        <f t="shared" si="3"/>
+        <v>#15. La regla primordial - Retrete Navarrete y los bulliciosos [Temporada 3]</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="29" t="s">
+        <v>103</v>
+      </c>
       <c r="F19" s="13">
         <f t="shared" si="1"/>
         <v>5.8666666666666671</v>
@@ -1798,7 +2005,15 @@
       <c r="K19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;Puta que es entrete de escuchar este tema. Es imposible dejarlo de fondo sin ponerle atención a la letra. Me gusta como todas las palabras van cal-zan-do muy pre-ci-sa-men-te en cada sílaba casi sin hacer pausas: le da un flow muy especial. Su carácter narrativo es muy de la Temporada 3, y acá está bien explotado. Destaco cuando la tocaron en el Festival de Viña y Álvaro Díaz se pone a gritar en el climax emocional de "Retrete Navarrete". Insisto, la weá chistosa.
+&lt;br&gt;
+&lt;br&gt;Video: 6
+&lt;br&gt;Música: 5,8
+&lt;br&gt;Concepto: 5,8
+&lt;br&gt;Nota final: 5,86666666666667</v>
+      </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
@@ -1825,14 +2040,16 @@
         <v>64</v>
       </c>
       <c r="C20" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Amurrao - Eustaquio Renato</v>
+        <f t="shared" si="3"/>
+        <v>#14. Amurrao - Eustaquio Renato [Temporada 4]</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="F20" s="13">
         <f t="shared" si="1"/>
         <v>5.8999999999999995</v>
@@ -1850,7 +2067,15 @@
         <v>6</v>
       </c>
       <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="L20" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;Siento que las canciones de la Temporada 4 acá son de gusto personal, en especial porque estos temas claramente no cuentan con la popularidad y trascendencia de las primeras temporadas. Habiendo dicho eso, "Amurrao" me parece excelente. Creo que es la canción tipo "rap" mejor lograda. Ese bajo cremoso que hace el sintetizador es muy rico de escuchar. El video es alucinante, recreando con mucha fineza cómo se podría ver el auto de una familia clase media shilena yendo pa la playa. Empatizo totalmente con el joven Eustaquio, y con el martirio que significa para todo cabro chico estar una hora y media encerrado en un auto.
+&lt;br&gt;
+&lt;br&gt;Video: 6
+&lt;br&gt;Música: 5,7
+&lt;br&gt;Concepto: 6
+&lt;br&gt;Nota final: 5,9</v>
+      </c>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
@@ -1877,14 +2102,16 @@
         <v>66</v>
       </c>
       <c r="C21" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Rin Raja - Juan Tástico</v>
+        <f t="shared" si="3"/>
+        <v>#13. Rin Raja - Juan Tástico [Temporada 2]</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="F21" s="13">
         <f t="shared" si="1"/>
         <v>5.8999999999999995</v>
@@ -1902,7 +2129,15 @@
         <v>6</v>
       </c>
       <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="L21" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;Frenético, chistoso, autóctono. Hay que destacar lo notable que era escuchar la palabra "raja" en horario prime en TVN por ahí por el 2004. Quién como tú, Juan Tástico, que acumulaste tantos timbres a tus cortos años que te pudiste retirar. El rin raja debiese ser deporte nacional.
+&lt;br&gt;
+&lt;br&gt;Video: 5,7
+&lt;br&gt;Música: 6
+&lt;br&gt;Concepto: 6
+&lt;br&gt;Nota final: 5,9</v>
+      </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
@@ -1929,8 +2164,8 @@
         <v>68</v>
       </c>
       <c r="C22" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Severlá - Otto y los sarcófagos del ritmo</v>
+        <f t="shared" si="3"/>
+        <v>#12. Severlá - Otto y los sarcófagos del ritmo [Temporada 2]</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
@@ -1954,7 +2189,15 @@
         <v>5.6</v>
       </c>
       <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
+      <c r="L22" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 6,5
+&lt;br&gt;Música: 5,7
+&lt;br&gt;Concepto: 5,6
+&lt;br&gt;Nota final: 5,93333333333333</v>
+      </c>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
@@ -1981,14 +2224,16 @@
         <v>70</v>
       </c>
       <c r="C23" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Son pololos - La Corchetis</v>
+        <f t="shared" si="3"/>
+        <v>#11. Son pololos - La Corchetis [Temporada 4]</v>
       </c>
       <c r="D23" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="F23" s="22">
         <f t="shared" si="1"/>
         <v>5.9333333333333336</v>
@@ -2006,7 +2251,15 @@
         <v>6</v>
       </c>
       <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="L23" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;Pegó en Latinoamérica
+&lt;br&gt;
+&lt;br&gt;Video: 6
+&lt;br&gt;Música: 5,8
+&lt;br&gt;Concepto: 6
+&lt;br&gt;Nota final: 5,93333333333333</v>
+      </c>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
@@ -2033,8 +2286,8 @@
         <v>72</v>
       </c>
       <c r="C24" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Objeción denegada - Juan Pablo Sopa</v>
+        <f t="shared" si="3"/>
+        <v>#10. Objeción denegada - Juan Pablo Sopa [Temporada 2]</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
@@ -2058,7 +2311,15 @@
         <v>5.7</v>
       </c>
       <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="L24" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 6
+&lt;br&gt;Música: 6,2
+&lt;br&gt;Concepto: 5,7
+&lt;br&gt;Nota final: 5,96666666666667</v>
+      </c>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -2085,8 +2346,8 @@
         <v>74</v>
       </c>
       <c r="C25" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Mundo interior - Cápara Sonia</v>
+        <f t="shared" si="3"/>
+        <v>#9. Mundo interior - Cápara Sonia [Temporada 4]</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
@@ -2112,7 +2373,15 @@
       <c r="K25" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 6,5
+&lt;br&gt;Música: 6,3
+&lt;br&gt;Concepto: 5,8
+&lt;br&gt;Nota final: 6,05</v>
+      </c>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -2139,8 +2408,8 @@
         <v>78</v>
       </c>
       <c r="C26" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Mi muñeca me habló - Flor Bovina</v>
+        <f t="shared" si="3"/>
+        <v>#8. Mi muñeca me habló - Flor Bovina [Temporada 1]</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
@@ -2164,7 +2433,15 @@
         <v>6</v>
       </c>
       <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
+      <c r="L26" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 6
+&lt;br&gt;Música: 6,4
+&lt;br&gt;Concepto: 6
+&lt;br&gt;Nota final: 6,13333333333333</v>
+      </c>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
@@ -2191,8 +2468,8 @@
         <v>80</v>
       </c>
       <c r="C27" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Doggy Style - El perro Duque</v>
+        <f t="shared" si="3"/>
+        <v>#7. Doggy Style - El perro Duque [Temporada 2]</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
@@ -2216,7 +2493,15 @@
         <v>6</v>
       </c>
       <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="L27" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 6,3
+&lt;br&gt;Música: 6,2
+&lt;br&gt;Concepto: 6
+&lt;br&gt;Nota final: 6,16666666666667</v>
+      </c>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
@@ -2243,8 +2528,8 @@
         <v>82</v>
       </c>
       <c r="C28" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Me cortaron mal el pelo - Chascoberto</v>
+        <f t="shared" si="3"/>
+        <v>#6. Me cortaron mal el pelo - Chascoberto [Temporada 1]</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
@@ -2268,7 +2553,15 @@
         <v>6.7</v>
       </c>
       <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="L28" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 6
+&lt;br&gt;Música: 6,2
+&lt;br&gt;Concepto: 6,7
+&lt;br&gt;Nota final: 6,3</v>
+      </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
@@ -2295,8 +2588,8 @@
         <v>84</v>
       </c>
       <c r="C29" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Señora, devuélvame el balón, o si no, no sé lo que haré - Pepe Lota</v>
+        <f t="shared" si="3"/>
+        <v>#5. Señora, devuélvame el balón, o si no, no sé lo que haré - Pepe Lota [Temporada 1]</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
@@ -2320,7 +2613,15 @@
         <v>6.5</v>
       </c>
       <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="L29" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 6,5
+&lt;br&gt;Música: 6
+&lt;br&gt;Concepto: 6,5
+&lt;br&gt;Nota final: 6,33333333333333</v>
+      </c>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
@@ -2347,8 +2648,8 @@
         <v>86</v>
       </c>
       <c r="C30" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Bailan sin cesar - LLUEHHHB</v>
+        <f t="shared" si="3"/>
+        <v>#4. Bailan sin cesar - LLUEHHHB [Temporada 1]</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
@@ -2372,7 +2673,15 @@
         <v>6.5</v>
       </c>
       <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="L30" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 6,5
+&lt;br&gt;Música: 6,5
+&lt;br&gt;Concepto: 6,5
+&lt;br&gt;Nota final: 6,5</v>
+      </c>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
@@ -2399,8 +2708,8 @@
         <v>88</v>
       </c>
       <c r="C31" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>El dinosaurio Anacleto - Dinosaurio Roberto</v>
+        <f t="shared" si="3"/>
+        <v>#3. El dinosaurio Anacleto - Dinosaurio Roberto [Temporada 2]</v>
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
@@ -2424,7 +2733,15 @@
         <v>6</v>
       </c>
       <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="L31" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 7
+&lt;br&gt;Música: 7
+&lt;br&gt;Concepto: 6
+&lt;br&gt;Nota final: 6,66666666666667</v>
+      </c>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
@@ -2451,8 +2768,8 @@
         <v>90</v>
       </c>
       <c r="C32" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Mi equilibrio espiritual - Freddy Turbina</v>
+        <f t="shared" si="3"/>
+        <v>#2. Mi equilibrio espiritual - Freddy Turbina [Temporada 1]</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
@@ -2476,7 +2793,15 @@
         <v>7</v>
       </c>
       <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+      <c r="L32" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 7
+&lt;br&gt;Música: 6,5
+&lt;br&gt;Concepto: 7
+&lt;br&gt;Nota final: 6,83333333333333</v>
+      </c>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
@@ -2503,8 +2828,8 @@
         <v>92</v>
       </c>
       <c r="C33" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Mi mamá me lo teje todo - Lino y Lana</v>
+        <f t="shared" si="3"/>
+        <v>#1. Mi mamá me lo teje todo - Lino y Lana [Temporada 4]</v>
       </c>
       <c r="D33" s="31">
         <v>1</v>
@@ -2529,7 +2854,15 @@
       <c r="K33" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;p&gt;
+&lt;br&gt;
+&lt;br&gt;Video: 7
+&lt;br&gt;Música: 7
+&lt;br&gt;Concepto: 7
+&lt;br&gt;Nota final: 7</v>
+      </c>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
@@ -2548,7 +2881,7 @@
       <c r="AB33" s="16"/>
       <c r="AC33" s="16"/>
     </row>
-    <row r="34" spans="1:29" ht="12.75">
+    <row r="34" spans="1:29" ht="13.2">
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
@@ -2558,7 +2891,7 @@
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:29" ht="12.75">
+    <row r="35" spans="1:29" ht="13.2">
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
@@ -2568,7 +2901,7 @@
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:29" ht="12.75">
+    <row r="36" spans="1:29" ht="13.2">
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -2578,7 +2911,7 @@
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:29" ht="12.75">
+    <row r="37" spans="1:29" ht="13.2">
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -2588,7 +2921,7 @@
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:29" ht="12.75">
+    <row r="38" spans="1:29" ht="13.2">
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -2598,7 +2931,7 @@
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:29" ht="12.75">
+    <row r="39" spans="1:29" ht="13.2">
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -2608,7 +2941,7 @@
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:29" ht="12.75">
+    <row r="40" spans="1:29" ht="13.2">
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -2618,7 +2951,7 @@
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:29" ht="12.75">
+    <row r="41" spans="1:29" ht="13.2">
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -2628,7 +2961,7 @@
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:29" ht="12.75">
+    <row r="42" spans="1:29" ht="13.2">
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -2638,7 +2971,7 @@
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:29" ht="12.75">
+    <row r="43" spans="1:29" ht="13.2">
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -2648,7 +2981,7 @@
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:29" ht="12.75">
+    <row r="44" spans="1:29" ht="13.2">
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
@@ -2658,7 +2991,7 @@
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" spans="1:29" ht="12.75">
+    <row r="45" spans="1:29" ht="13.2">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -2668,7 +3001,7 @@
       <c r="I45" s="33"/>
       <c r="J45" s="33"/>
     </row>
-    <row r="46" spans="1:29" ht="12.75">
+    <row r="46" spans="1:29" ht="13.2">
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
@@ -2678,7 +3011,7 @@
       <c r="I46" s="33"/>
       <c r="J46" s="33"/>
     </row>
-    <row r="47" spans="1:29" ht="12.75">
+    <row r="47" spans="1:29" ht="13.2">
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
@@ -2688,7 +3021,7 @@
       <c r="I47" s="33"/>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="1:29" ht="12.75">
+    <row r="48" spans="1:29" ht="13.2">
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
@@ -2698,7 +3031,7 @@
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
     </row>
-    <row r="49" spans="2:10" ht="12.75">
+    <row r="49" spans="2:10" ht="13.2">
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
@@ -2708,7 +3041,7 @@
       <c r="I49" s="33"/>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="2:10" ht="12.75">
+    <row r="50" spans="2:10" ht="13.2">
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
@@ -2718,7 +3051,7 @@
       <c r="I50" s="33"/>
       <c r="J50" s="33"/>
     </row>
-    <row r="51" spans="2:10" ht="12.75">
+    <row r="51" spans="2:10" ht="13.2">
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
@@ -2728,7 +3061,7 @@
       <c r="I51" s="33"/>
       <c r="J51" s="33"/>
     </row>
-    <row r="52" spans="2:10" ht="12.75">
+    <row r="52" spans="2:10" ht="13.2">
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
@@ -2738,7 +3071,7 @@
       <c r="I52" s="33"/>
       <c r="J52" s="33"/>
     </row>
-    <row r="53" spans="2:10" ht="12.75">
+    <row r="53" spans="2:10" ht="13.2">
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
@@ -2748,7 +3081,7 @@
       <c r="I53" s="33"/>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="2:10" ht="12.75">
+    <row r="54" spans="2:10" ht="13.2">
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
@@ -2758,7 +3091,7 @@
       <c r="I54" s="33"/>
       <c r="J54" s="33"/>
     </row>
-    <row r="55" spans="2:10" ht="12.75">
+    <row r="55" spans="2:10" ht="13.2">
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
@@ -2768,7 +3101,7 @@
       <c r="I55" s="33"/>
       <c r="J55" s="33"/>
     </row>
-    <row r="56" spans="2:10" ht="12.75">
+    <row r="56" spans="2:10" ht="13.2">
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
@@ -2778,7 +3111,7 @@
       <c r="I56" s="33"/>
       <c r="J56" s="33"/>
     </row>
-    <row r="57" spans="2:10" ht="12.75">
+    <row r="57" spans="2:10" ht="13.2">
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
@@ -2788,7 +3121,7 @@
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75">
+    <row r="58" spans="2:10" ht="13.2">
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
@@ -2798,7 +3131,7 @@
       <c r="I58" s="33"/>
       <c r="J58" s="33"/>
     </row>
-    <row r="59" spans="2:10" ht="12.75">
+    <row r="59" spans="2:10" ht="13.2">
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
@@ -2808,7 +3141,7 @@
       <c r="I59" s="33"/>
       <c r="J59" s="33"/>
     </row>
-    <row r="60" spans="2:10" ht="12.75">
+    <row r="60" spans="2:10" ht="13.2">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
@@ -2818,7 +3151,7 @@
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
     </row>
-    <row r="61" spans="2:10" ht="12.75">
+    <row r="61" spans="2:10" ht="13.2">
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
@@ -2828,7 +3161,7 @@
       <c r="I61" s="33"/>
       <c r="J61" s="33"/>
     </row>
-    <row r="62" spans="2:10" ht="12.75">
+    <row r="62" spans="2:10" ht="13.2">
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
       <c r="D62" s="32"/>
@@ -2838,7 +3171,7 @@
       <c r="I62" s="33"/>
       <c r="J62" s="33"/>
     </row>
-    <row r="63" spans="2:10" ht="12.75">
+    <row r="63" spans="2:10" ht="13.2">
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
@@ -2848,7 +3181,7 @@
       <c r="I63" s="33"/>
       <c r="J63" s="33"/>
     </row>
-    <row r="64" spans="2:10" ht="12.75">
+    <row r="64" spans="2:10" ht="13.2">
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
       <c r="D64" s="32"/>
@@ -2858,7 +3191,7 @@
       <c r="I64" s="33"/>
       <c r="J64" s="33"/>
     </row>
-    <row r="65" spans="2:10" ht="12.75">
+    <row r="65" spans="2:10" ht="13.2">
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
@@ -2868,7 +3201,7 @@
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
     </row>
-    <row r="66" spans="2:10" ht="12.75">
+    <row r="66" spans="2:10" ht="13.2">
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
@@ -2878,7 +3211,7 @@
       <c r="I66" s="33"/>
       <c r="J66" s="33"/>
     </row>
-    <row r="67" spans="2:10" ht="12.75">
+    <row r="67" spans="2:10" ht="13.2">
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
       <c r="D67" s="32"/>
@@ -2888,7 +3221,7 @@
       <c r="I67" s="33"/>
       <c r="J67" s="33"/>
     </row>
-    <row r="68" spans="2:10" ht="12.75">
+    <row r="68" spans="2:10" ht="13.2">
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
@@ -2898,7 +3231,7 @@
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
     </row>
-    <row r="69" spans="2:10" ht="12.75">
+    <row r="69" spans="2:10" ht="13.2">
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="32"/>
@@ -2908,7 +3241,7 @@
       <c r="I69" s="33"/>
       <c r="J69" s="33"/>
     </row>
-    <row r="70" spans="2:10" ht="12.75">
+    <row r="70" spans="2:10" ht="13.2">
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
@@ -2918,7 +3251,7 @@
       <c r="I70" s="33"/>
       <c r="J70" s="33"/>
     </row>
-    <row r="71" spans="2:10" ht="12.75">
+    <row r="71" spans="2:10" ht="13.2">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
       <c r="D71" s="32"/>
@@ -2928,7 +3261,7 @@
       <c r="I71" s="33"/>
       <c r="J71" s="33"/>
     </row>
-    <row r="72" spans="2:10" ht="12.75">
+    <row r="72" spans="2:10" ht="13.2">
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
       <c r="D72" s="32"/>
@@ -2938,7 +3271,7 @@
       <c r="I72" s="33"/>
       <c r="J72" s="33"/>
     </row>
-    <row r="73" spans="2:10" ht="12.75">
+    <row r="73" spans="2:10" ht="13.2">
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
@@ -2948,7 +3281,7 @@
       <c r="I73" s="33"/>
       <c r="J73" s="33"/>
     </row>
-    <row r="74" spans="2:10" ht="12.75">
+    <row r="74" spans="2:10" ht="13.2">
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
       <c r="D74" s="32"/>
@@ -2958,7 +3291,7 @@
       <c r="I74" s="33"/>
       <c r="J74" s="33"/>
     </row>
-    <row r="75" spans="2:10" ht="12.75">
+    <row r="75" spans="2:10" ht="13.2">
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
       <c r="D75" s="32"/>
@@ -2968,7 +3301,7 @@
       <c r="I75" s="33"/>
       <c r="J75" s="33"/>
     </row>
-    <row r="76" spans="2:10" ht="12.75">
+    <row r="76" spans="2:10" ht="13.2">
       <c r="B76" s="32"/>
       <c r="C76" s="32"/>
       <c r="D76" s="32"/>
@@ -2978,7 +3311,7 @@
       <c r="I76" s="33"/>
       <c r="J76" s="33"/>
     </row>
-    <row r="77" spans="2:10" ht="12.75">
+    <row r="77" spans="2:10" ht="13.2">
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
       <c r="D77" s="32"/>
@@ -2988,7 +3321,7 @@
       <c r="I77" s="33"/>
       <c r="J77" s="33"/>
     </row>
-    <row r="78" spans="2:10" ht="12.75">
+    <row r="78" spans="2:10" ht="13.2">
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
       <c r="D78" s="32"/>
@@ -2998,7 +3331,7 @@
       <c r="I78" s="33"/>
       <c r="J78" s="33"/>
     </row>
-    <row r="79" spans="2:10" ht="12.75">
+    <row r="79" spans="2:10" ht="13.2">
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
       <c r="D79" s="32"/>
@@ -3008,7 +3341,7 @@
       <c r="I79" s="33"/>
       <c r="J79" s="33"/>
     </row>
-    <row r="80" spans="2:10" ht="12.75">
+    <row r="80" spans="2:10" ht="13.2">
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
       <c r="D80" s="32"/>
@@ -3018,7 +3351,7 @@
       <c r="I80" s="33"/>
       <c r="J80" s="33"/>
     </row>
-    <row r="81" spans="2:10" ht="12.75">
+    <row r="81" spans="2:10" ht="13.2">
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
       <c r="D81" s="32"/>
@@ -3028,7 +3361,7 @@
       <c r="I81" s="33"/>
       <c r="J81" s="33"/>
     </row>
-    <row r="82" spans="2:10" ht="12.75">
+    <row r="82" spans="2:10" ht="13.2">
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
       <c r="D82" s="32"/>
@@ -3038,7 +3371,7 @@
       <c r="I82" s="33"/>
       <c r="J82" s="33"/>
     </row>
-    <row r="83" spans="2:10" ht="12.75">
+    <row r="83" spans="2:10" ht="13.2">
       <c r="B83" s="32"/>
       <c r="C83" s="32"/>
       <c r="D83" s="32"/>
@@ -3048,7 +3381,7 @@
       <c r="I83" s="33"/>
       <c r="J83" s="33"/>
     </row>
-    <row r="84" spans="2:10" ht="12.75">
+    <row r="84" spans="2:10" ht="13.2">
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
       <c r="D84" s="32"/>
@@ -3058,7 +3391,7 @@
       <c r="I84" s="33"/>
       <c r="J84" s="33"/>
     </row>
-    <row r="85" spans="2:10" ht="12.75">
+    <row r="85" spans="2:10" ht="13.2">
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
       <c r="D85" s="32"/>
@@ -3068,7 +3401,7 @@
       <c r="I85" s="33"/>
       <c r="J85" s="33"/>
     </row>
-    <row r="86" spans="2:10" ht="12.75">
+    <row r="86" spans="2:10" ht="13.2">
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
@@ -3078,7 +3411,7 @@
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
     </row>
-    <row r="87" spans="2:10" ht="12.75">
+    <row r="87" spans="2:10" ht="13.2">
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
@@ -3088,7 +3421,7 @@
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
     </row>
-    <row r="88" spans="2:10" ht="12.75">
+    <row r="88" spans="2:10" ht="13.2">
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
@@ -3098,7 +3431,7 @@
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
     </row>
-    <row r="89" spans="2:10" ht="12.75">
+    <row r="89" spans="2:10" ht="13.2">
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
@@ -3108,7 +3441,7 @@
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
     </row>
-    <row r="90" spans="2:10" ht="12.75">
+    <row r="90" spans="2:10" ht="13.2">
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
@@ -3118,7 +3451,7 @@
       <c r="I90" s="33"/>
       <c r="J90" s="33"/>
     </row>
-    <row r="91" spans="2:10" ht="12.75">
+    <row r="91" spans="2:10" ht="13.2">
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
@@ -3128,7 +3461,7 @@
       <c r="I91" s="33"/>
       <c r="J91" s="33"/>
     </row>
-    <row r="92" spans="2:10" ht="12.75">
+    <row r="92" spans="2:10" ht="13.2">
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
@@ -3138,7 +3471,7 @@
       <c r="I92" s="33"/>
       <c r="J92" s="33"/>
     </row>
-    <row r="93" spans="2:10" ht="12.75">
+    <row r="93" spans="2:10" ht="13.2">
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
@@ -3148,7 +3481,7 @@
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
     </row>
-    <row r="94" spans="2:10" ht="12.75">
+    <row r="94" spans="2:10" ht="13.2">
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
@@ -3158,7 +3491,7 @@
       <c r="I94" s="33"/>
       <c r="J94" s="33"/>
     </row>
-    <row r="95" spans="2:10" ht="12.75">
+    <row r="95" spans="2:10" ht="13.2">
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
@@ -3168,7 +3501,7 @@
       <c r="I95" s="33"/>
       <c r="J95" s="33"/>
     </row>
-    <row r="96" spans="2:10" ht="12.75">
+    <row r="96" spans="2:10" ht="13.2">
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
       <c r="D96" s="32"/>
@@ -3178,7 +3511,7 @@
       <c r="I96" s="33"/>
       <c r="J96" s="33"/>
     </row>
-    <row r="97" spans="2:10" ht="12.75">
+    <row r="97" spans="2:10" ht="13.2">
       <c r="B97" s="32"/>
       <c r="C97" s="32"/>
       <c r="D97" s="32"/>
@@ -3188,7 +3521,7 @@
       <c r="I97" s="33"/>
       <c r="J97" s="33"/>
     </row>
-    <row r="98" spans="2:10" ht="12.75">
+    <row r="98" spans="2:10" ht="13.2">
       <c r="B98" s="32"/>
       <c r="C98" s="32"/>
       <c r="D98" s="32"/>
@@ -3198,7 +3531,7 @@
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
     </row>
-    <row r="99" spans="2:10" ht="12.75">
+    <row r="99" spans="2:10" ht="13.2">
       <c r="B99" s="32"/>
       <c r="C99" s="32"/>
       <c r="D99" s="32"/>
@@ -3208,7 +3541,7 @@
       <c r="I99" s="33"/>
       <c r="J99" s="33"/>
     </row>
-    <row r="100" spans="2:10" ht="12.75">
+    <row r="100" spans="2:10" ht="13.2">
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
       <c r="D100" s="32"/>
@@ -3218,7 +3551,7 @@
       <c r="I100" s="33"/>
       <c r="J100" s="33"/>
     </row>
-    <row r="101" spans="2:10" ht="12.75">
+    <row r="101" spans="2:10" ht="13.2">
       <c r="B101" s="32"/>
       <c r="C101" s="32"/>
       <c r="D101" s="32"/>
@@ -3228,7 +3561,7 @@
       <c r="I101" s="33"/>
       <c r="J101" s="33"/>
     </row>
-    <row r="102" spans="2:10" ht="12.75">
+    <row r="102" spans="2:10" ht="13.2">
       <c r="B102" s="32"/>
       <c r="C102" s="32"/>
       <c r="D102" s="32"/>
@@ -3238,7 +3571,7 @@
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
     </row>
-    <row r="103" spans="2:10" ht="12.75">
+    <row r="103" spans="2:10" ht="13.2">
       <c r="B103" s="32"/>
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
@@ -3248,7 +3581,7 @@
       <c r="I103" s="33"/>
       <c r="J103" s="33"/>
     </row>
-    <row r="104" spans="2:10" ht="12.75">
+    <row r="104" spans="2:10" ht="13.2">
       <c r="B104" s="32"/>
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
@@ -3258,7 +3591,7 @@
       <c r="I104" s="33"/>
       <c r="J104" s="33"/>
     </row>
-    <row r="105" spans="2:10" ht="12.75">
+    <row r="105" spans="2:10" ht="13.2">
       <c r="B105" s="32"/>
       <c r="C105" s="32"/>
       <c r="D105" s="32"/>
@@ -3268,7 +3601,7 @@
       <c r="I105" s="33"/>
       <c r="J105" s="33"/>
     </row>
-    <row r="106" spans="2:10" ht="12.75">
+    <row r="106" spans="2:10" ht="13.2">
       <c r="B106" s="32"/>
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
@@ -3278,7 +3611,7 @@
       <c r="I106" s="33"/>
       <c r="J106" s="33"/>
     </row>
-    <row r="107" spans="2:10" ht="12.75">
+    <row r="107" spans="2:10" ht="13.2">
       <c r="B107" s="32"/>
       <c r="C107" s="32"/>
       <c r="D107" s="32"/>
@@ -3288,7 +3621,7 @@
       <c r="I107" s="33"/>
       <c r="J107" s="33"/>
     </row>
-    <row r="108" spans="2:10" ht="12.75">
+    <row r="108" spans="2:10" ht="13.2">
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
       <c r="D108" s="32"/>
@@ -3298,7 +3631,7 @@
       <c r="I108" s="33"/>
       <c r="J108" s="33"/>
     </row>
-    <row r="109" spans="2:10" ht="12.75">
+    <row r="109" spans="2:10" ht="13.2">
       <c r="B109" s="32"/>
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
@@ -3308,7 +3641,7 @@
       <c r="I109" s="33"/>
       <c r="J109" s="33"/>
     </row>
-    <row r="110" spans="2:10" ht="12.75">
+    <row r="110" spans="2:10" ht="13.2">
       <c r="B110" s="32"/>
       <c r="C110" s="32"/>
       <c r="D110" s="32"/>
@@ -3318,7 +3651,7 @@
       <c r="I110" s="33"/>
       <c r="J110" s="33"/>
     </row>
-    <row r="111" spans="2:10" ht="12.75">
+    <row r="111" spans="2:10" ht="13.2">
       <c r="B111" s="32"/>
       <c r="C111" s="32"/>
       <c r="D111" s="32"/>
@@ -3328,7 +3661,7 @@
       <c r="I111" s="33"/>
       <c r="J111" s="33"/>
     </row>
-    <row r="112" spans="2:10" ht="12.75">
+    <row r="112" spans="2:10" ht="13.2">
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
@@ -3338,7 +3671,7 @@
       <c r="I112" s="33"/>
       <c r="J112" s="33"/>
     </row>
-    <row r="113" spans="2:10" ht="12.75">
+    <row r="113" spans="2:10" ht="13.2">
       <c r="B113" s="32"/>
       <c r="C113" s="32"/>
       <c r="D113" s="32"/>
@@ -3348,7 +3681,7 @@
       <c r="I113" s="33"/>
       <c r="J113" s="33"/>
     </row>
-    <row r="114" spans="2:10" ht="12.75">
+    <row r="114" spans="2:10" ht="13.2">
       <c r="B114" s="32"/>
       <c r="C114" s="32"/>
       <c r="D114" s="32"/>
@@ -3358,7 +3691,7 @@
       <c r="I114" s="33"/>
       <c r="J114" s="33"/>
     </row>
-    <row r="115" spans="2:10" ht="12.75">
+    <row r="115" spans="2:10" ht="13.2">
       <c r="B115" s="32"/>
       <c r="C115" s="32"/>
       <c r="D115" s="32"/>
@@ -3368,7 +3701,7 @@
       <c r="I115" s="33"/>
       <c r="J115" s="33"/>
     </row>
-    <row r="116" spans="2:10" ht="12.75">
+    <row r="116" spans="2:10" ht="13.2">
       <c r="B116" s="32"/>
       <c r="C116" s="32"/>
       <c r="D116" s="32"/>
@@ -3378,7 +3711,7 @@
       <c r="I116" s="33"/>
       <c r="J116" s="33"/>
     </row>
-    <row r="117" spans="2:10" ht="12.75">
+    <row r="117" spans="2:10" ht="13.2">
       <c r="B117" s="32"/>
       <c r="C117" s="32"/>
       <c r="D117" s="32"/>
@@ -3388,7 +3721,7 @@
       <c r="I117" s="33"/>
       <c r="J117" s="33"/>
     </row>
-    <row r="118" spans="2:10" ht="12.75">
+    <row r="118" spans="2:10" ht="13.2">
       <c r="B118" s="32"/>
       <c r="C118" s="32"/>
       <c r="D118" s="32"/>
@@ -3398,7 +3731,7 @@
       <c r="I118" s="33"/>
       <c r="J118" s="33"/>
     </row>
-    <row r="119" spans="2:10" ht="12.75">
+    <row r="119" spans="2:10" ht="13.2">
       <c r="B119" s="32"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -3408,7 +3741,7 @@
       <c r="I119" s="33"/>
       <c r="J119" s="33"/>
     </row>
-    <row r="120" spans="2:10" ht="12.75">
+    <row r="120" spans="2:10" ht="13.2">
       <c r="B120" s="32"/>
       <c r="C120" s="32"/>
       <c r="D120" s="32"/>
@@ -3418,7 +3751,7 @@
       <c r="I120" s="33"/>
       <c r="J120" s="33"/>
     </row>
-    <row r="121" spans="2:10" ht="12.75">
+    <row r="121" spans="2:10" ht="13.2">
       <c r="B121" s="32"/>
       <c r="C121" s="32"/>
       <c r="D121" s="32"/>
@@ -3428,7 +3761,7 @@
       <c r="I121" s="33"/>
       <c r="J121" s="33"/>
     </row>
-    <row r="122" spans="2:10" ht="12.75">
+    <row r="122" spans="2:10" ht="13.2">
       <c r="B122" s="32"/>
       <c r="C122" s="32"/>
       <c r="D122" s="32"/>
@@ -3438,7 +3771,7 @@
       <c r="I122" s="33"/>
       <c r="J122" s="33"/>
     </row>
-    <row r="123" spans="2:10" ht="12.75">
+    <row r="123" spans="2:10" ht="13.2">
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
@@ -3448,7 +3781,7 @@
       <c r="I123" s="33"/>
       <c r="J123" s="33"/>
     </row>
-    <row r="124" spans="2:10" ht="12.75">
+    <row r="124" spans="2:10" ht="13.2">
       <c r="B124" s="32"/>
       <c r="C124" s="32"/>
       <c r="D124" s="32"/>
@@ -3458,7 +3791,7 @@
       <c r="I124" s="33"/>
       <c r="J124" s="33"/>
     </row>
-    <row r="125" spans="2:10" ht="12.75">
+    <row r="125" spans="2:10" ht="13.2">
       <c r="B125" s="32"/>
       <c r="C125" s="32"/>
       <c r="D125" s="32"/>
@@ -3468,7 +3801,7 @@
       <c r="I125" s="33"/>
       <c r="J125" s="33"/>
     </row>
-    <row r="126" spans="2:10" ht="12.75">
+    <row r="126" spans="2:10" ht="13.2">
       <c r="B126" s="32"/>
       <c r="C126" s="32"/>
       <c r="D126" s="32"/>
@@ -3478,7 +3811,7 @@
       <c r="I126" s="33"/>
       <c r="J126" s="33"/>
     </row>
-    <row r="127" spans="2:10" ht="12.75">
+    <row r="127" spans="2:10" ht="13.2">
       <c r="B127" s="32"/>
       <c r="C127" s="32"/>
       <c r="D127" s="32"/>
@@ -3488,7 +3821,7 @@
       <c r="I127" s="33"/>
       <c r="J127" s="33"/>
     </row>
-    <row r="128" spans="2:10" ht="12.75">
+    <row r="128" spans="2:10" ht="13.2">
       <c r="B128" s="32"/>
       <c r="C128" s="32"/>
       <c r="D128" s="32"/>
@@ -3498,7 +3831,7 @@
       <c r="I128" s="33"/>
       <c r="J128" s="33"/>
     </row>
-    <row r="129" spans="2:10" ht="12.75">
+    <row r="129" spans="2:10" ht="13.2">
       <c r="B129" s="32"/>
       <c r="C129" s="32"/>
       <c r="D129" s="32"/>
@@ -3508,7 +3841,7 @@
       <c r="I129" s="33"/>
       <c r="J129" s="33"/>
     </row>
-    <row r="130" spans="2:10" ht="12.75">
+    <row r="130" spans="2:10" ht="13.2">
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
       <c r="D130" s="32"/>
@@ -3518,7 +3851,7 @@
       <c r="I130" s="33"/>
       <c r="J130" s="33"/>
     </row>
-    <row r="131" spans="2:10" ht="12.75">
+    <row r="131" spans="2:10" ht="13.2">
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
@@ -3528,7 +3861,7 @@
       <c r="I131" s="33"/>
       <c r="J131" s="33"/>
     </row>
-    <row r="132" spans="2:10" ht="12.75">
+    <row r="132" spans="2:10" ht="13.2">
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
       <c r="D132" s="32"/>
@@ -3538,7 +3871,7 @@
       <c r="I132" s="33"/>
       <c r="J132" s="33"/>
     </row>
-    <row r="133" spans="2:10" ht="12.75">
+    <row r="133" spans="2:10" ht="13.2">
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
       <c r="D133" s="32"/>
@@ -3548,7 +3881,7 @@
       <c r="I133" s="33"/>
       <c r="J133" s="33"/>
     </row>
-    <row r="134" spans="2:10" ht="12.75">
+    <row r="134" spans="2:10" ht="13.2">
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
       <c r="D134" s="32"/>
@@ -3558,7 +3891,7 @@
       <c r="I134" s="33"/>
       <c r="J134" s="33"/>
     </row>
-    <row r="135" spans="2:10" ht="12.75">
+    <row r="135" spans="2:10" ht="13.2">
       <c r="B135" s="32"/>
       <c r="C135" s="32"/>
       <c r="D135" s="32"/>
@@ -3568,7 +3901,7 @@
       <c r="I135" s="33"/>
       <c r="J135" s="33"/>
     </row>
-    <row r="136" spans="2:10" ht="12.75">
+    <row r="136" spans="2:10" ht="13.2">
       <c r="B136" s="32"/>
       <c r="C136" s="32"/>
       <c r="D136" s="32"/>
@@ -3578,7 +3911,7 @@
       <c r="I136" s="33"/>
       <c r="J136" s="33"/>
     </row>
-    <row r="137" spans="2:10" ht="12.75">
+    <row r="137" spans="2:10" ht="13.2">
       <c r="B137" s="32"/>
       <c r="C137" s="32"/>
       <c r="D137" s="32"/>
@@ -3588,7 +3921,7 @@
       <c r="I137" s="33"/>
       <c r="J137" s="33"/>
     </row>
-    <row r="138" spans="2:10" ht="12.75">
+    <row r="138" spans="2:10" ht="13.2">
       <c r="B138" s="32"/>
       <c r="C138" s="32"/>
       <c r="D138" s="32"/>
@@ -3598,7 +3931,7 @@
       <c r="I138" s="33"/>
       <c r="J138" s="33"/>
     </row>
-    <row r="139" spans="2:10" ht="12.75">
+    <row r="139" spans="2:10" ht="13.2">
       <c r="B139" s="32"/>
       <c r="C139" s="32"/>
       <c r="D139" s="32"/>
@@ -3608,7 +3941,7 @@
       <c r="I139" s="33"/>
       <c r="J139" s="33"/>
     </row>
-    <row r="140" spans="2:10" ht="12.75">
+    <row r="140" spans="2:10" ht="13.2">
       <c r="B140" s="32"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
@@ -3618,7 +3951,7 @@
       <c r="I140" s="33"/>
       <c r="J140" s="33"/>
     </row>
-    <row r="141" spans="2:10" ht="12.75">
+    <row r="141" spans="2:10" ht="13.2">
       <c r="B141" s="32"/>
       <c r="C141" s="32"/>
       <c r="D141" s="32"/>
@@ -3628,7 +3961,7 @@
       <c r="I141" s="33"/>
       <c r="J141" s="33"/>
     </row>
-    <row r="142" spans="2:10" ht="12.75">
+    <row r="142" spans="2:10" ht="13.2">
       <c r="B142" s="32"/>
       <c r="C142" s="32"/>
       <c r="D142" s="32"/>
@@ -3638,7 +3971,7 @@
       <c r="I142" s="33"/>
       <c r="J142" s="33"/>
     </row>
-    <row r="143" spans="2:10" ht="12.75">
+    <row r="143" spans="2:10" ht="13.2">
       <c r="B143" s="32"/>
       <c r="C143" s="32"/>
       <c r="D143" s="32"/>
@@ -3648,7 +3981,7 @@
       <c r="I143" s="33"/>
       <c r="J143" s="33"/>
     </row>
-    <row r="144" spans="2:10" ht="12.75">
+    <row r="144" spans="2:10" ht="13.2">
       <c r="B144" s="32"/>
       <c r="C144" s="32"/>
       <c r="D144" s="32"/>
@@ -3658,7 +3991,7 @@
       <c r="I144" s="33"/>
       <c r="J144" s="33"/>
     </row>
-    <row r="145" spans="2:10" ht="12.75">
+    <row r="145" spans="2:10" ht="13.2">
       <c r="B145" s="32"/>
       <c r="C145" s="32"/>
       <c r="D145" s="32"/>
@@ -3668,7 +4001,7 @@
       <c r="I145" s="33"/>
       <c r="J145" s="33"/>
     </row>
-    <row r="146" spans="2:10" ht="12.75">
+    <row r="146" spans="2:10" ht="13.2">
       <c r="B146" s="32"/>
       <c r="C146" s="32"/>
       <c r="D146" s="32"/>
@@ -3678,7 +4011,7 @@
       <c r="I146" s="33"/>
       <c r="J146" s="33"/>
     </row>
-    <row r="147" spans="2:10" ht="12.75">
+    <row r="147" spans="2:10" ht="13.2">
       <c r="B147" s="32"/>
       <c r="C147" s="32"/>
       <c r="D147" s="32"/>
@@ -3688,7 +4021,7 @@
       <c r="I147" s="33"/>
       <c r="J147" s="33"/>
     </row>
-    <row r="148" spans="2:10" ht="12.75">
+    <row r="148" spans="2:10" ht="13.2">
       <c r="B148" s="32"/>
       <c r="C148" s="32"/>
       <c r="D148" s="32"/>
@@ -3698,7 +4031,7 @@
       <c r="I148" s="33"/>
       <c r="J148" s="33"/>
     </row>
-    <row r="149" spans="2:10" ht="12.75">
+    <row r="149" spans="2:10" ht="13.2">
       <c r="B149" s="32"/>
       <c r="C149" s="32"/>
       <c r="D149" s="32"/>
@@ -3708,7 +4041,7 @@
       <c r="I149" s="33"/>
       <c r="J149" s="33"/>
     </row>
-    <row r="150" spans="2:10" ht="12.75">
+    <row r="150" spans="2:10" ht="13.2">
       <c r="B150" s="32"/>
       <c r="C150" s="32"/>
       <c r="D150" s="32"/>
@@ -3718,7 +4051,7 @@
       <c r="I150" s="33"/>
       <c r="J150" s="33"/>
     </row>
-    <row r="151" spans="2:10" ht="12.75">
+    <row r="151" spans="2:10" ht="13.2">
       <c r="B151" s="32"/>
       <c r="C151" s="32"/>
       <c r="D151" s="32"/>
@@ -3728,7 +4061,7 @@
       <c r="I151" s="33"/>
       <c r="J151" s="33"/>
     </row>
-    <row r="152" spans="2:10" ht="12.75">
+    <row r="152" spans="2:10" ht="13.2">
       <c r="B152" s="32"/>
       <c r="C152" s="32"/>
       <c r="D152" s="32"/>
@@ -3738,7 +4071,7 @@
       <c r="I152" s="33"/>
       <c r="J152" s="33"/>
     </row>
-    <row r="153" spans="2:10" ht="12.75">
+    <row r="153" spans="2:10" ht="13.2">
       <c r="B153" s="32"/>
       <c r="C153" s="32"/>
       <c r="D153" s="32"/>
@@ -3748,7 +4081,7 @@
       <c r="I153" s="33"/>
       <c r="J153" s="33"/>
     </row>
-    <row r="154" spans="2:10" ht="12.75">
+    <row r="154" spans="2:10" ht="13.2">
       <c r="B154" s="32"/>
       <c r="C154" s="32"/>
       <c r="D154" s="32"/>
@@ -3758,7 +4091,7 @@
       <c r="I154" s="33"/>
       <c r="J154" s="33"/>
     </row>
-    <row r="155" spans="2:10" ht="12.75">
+    <row r="155" spans="2:10" ht="13.2">
       <c r="B155" s="32"/>
       <c r="C155" s="32"/>
       <c r="D155" s="32"/>
@@ -3768,7 +4101,7 @@
       <c r="I155" s="33"/>
       <c r="J155" s="33"/>
     </row>
-    <row r="156" spans="2:10" ht="12.75">
+    <row r="156" spans="2:10" ht="13.2">
       <c r="B156" s="32"/>
       <c r="C156" s="32"/>
       <c r="D156" s="32"/>
@@ -3778,7 +4111,7 @@
       <c r="I156" s="33"/>
       <c r="J156" s="33"/>
     </row>
-    <row r="157" spans="2:10" ht="12.75">
+    <row r="157" spans="2:10" ht="13.2">
       <c r="B157" s="32"/>
       <c r="C157" s="32"/>
       <c r="D157" s="32"/>
@@ -3788,7 +4121,7 @@
       <c r="I157" s="33"/>
       <c r="J157" s="33"/>
     </row>
-    <row r="158" spans="2:10" ht="12.75">
+    <row r="158" spans="2:10" ht="13.2">
       <c r="B158" s="32"/>
       <c r="C158" s="32"/>
       <c r="D158" s="32"/>
@@ -3798,7 +4131,7 @@
       <c r="I158" s="33"/>
       <c r="J158" s="33"/>
     </row>
-    <row r="159" spans="2:10" ht="12.75">
+    <row r="159" spans="2:10" ht="13.2">
       <c r="B159" s="32"/>
       <c r="C159" s="32"/>
       <c r="D159" s="32"/>
@@ -3808,7 +4141,7 @@
       <c r="I159" s="33"/>
       <c r="J159" s="33"/>
     </row>
-    <row r="160" spans="2:10" ht="12.75">
+    <row r="160" spans="2:10" ht="13.2">
       <c r="B160" s="32"/>
       <c r="C160" s="32"/>
       <c r="D160" s="32"/>
@@ -3818,7 +4151,7 @@
       <c r="I160" s="33"/>
       <c r="J160" s="33"/>
     </row>
-    <row r="161" spans="2:10" ht="12.75">
+    <row r="161" spans="2:10" ht="13.2">
       <c r="B161" s="32"/>
       <c r="C161" s="32"/>
       <c r="D161" s="32"/>
@@ -3828,7 +4161,7 @@
       <c r="I161" s="33"/>
       <c r="J161" s="33"/>
     </row>
-    <row r="162" spans="2:10" ht="12.75">
+    <row r="162" spans="2:10" ht="13.2">
       <c r="B162" s="32"/>
       <c r="C162" s="32"/>
       <c r="D162" s="32"/>
@@ -3838,7 +4171,7 @@
       <c r="I162" s="33"/>
       <c r="J162" s="33"/>
     </row>
-    <row r="163" spans="2:10" ht="12.75">
+    <row r="163" spans="2:10" ht="13.2">
       <c r="B163" s="32"/>
       <c r="C163" s="32"/>
       <c r="D163" s="32"/>
@@ -3848,7 +4181,7 @@
       <c r="I163" s="33"/>
       <c r="J163" s="33"/>
     </row>
-    <row r="164" spans="2:10" ht="12.75">
+    <row r="164" spans="2:10" ht="13.2">
       <c r="B164" s="32"/>
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
@@ -3858,7 +4191,7 @@
       <c r="I164" s="33"/>
       <c r="J164" s="33"/>
     </row>
-    <row r="165" spans="2:10" ht="12.75">
+    <row r="165" spans="2:10" ht="13.2">
       <c r="B165" s="32"/>
       <c r="C165" s="32"/>
       <c r="D165" s="32"/>
@@ -3868,7 +4201,7 @@
       <c r="I165" s="33"/>
       <c r="J165" s="33"/>
     </row>
-    <row r="166" spans="2:10" ht="12.75">
+    <row r="166" spans="2:10" ht="13.2">
       <c r="B166" s="32"/>
       <c r="C166" s="32"/>
       <c r="D166" s="32"/>
@@ -3878,7 +4211,7 @@
       <c r="I166" s="33"/>
       <c r="J166" s="33"/>
     </row>
-    <row r="167" spans="2:10" ht="12.75">
+    <row r="167" spans="2:10" ht="13.2">
       <c r="B167" s="32"/>
       <c r="C167" s="32"/>
       <c r="D167" s="32"/>
@@ -3888,7 +4221,7 @@
       <c r="I167" s="33"/>
       <c r="J167" s="33"/>
     </row>
-    <row r="168" spans="2:10" ht="12.75">
+    <row r="168" spans="2:10" ht="13.2">
       <c r="B168" s="32"/>
       <c r="C168" s="32"/>
       <c r="D168" s="32"/>
@@ -3898,7 +4231,7 @@
       <c r="I168" s="33"/>
       <c r="J168" s="33"/>
     </row>
-    <row r="169" spans="2:10" ht="12.75">
+    <row r="169" spans="2:10" ht="13.2">
       <c r="B169" s="32"/>
       <c r="C169" s="32"/>
       <c r="D169" s="32"/>
@@ -3908,7 +4241,7 @@
       <c r="I169" s="33"/>
       <c r="J169" s="33"/>
     </row>
-    <row r="170" spans="2:10" ht="12.75">
+    <row r="170" spans="2:10" ht="13.2">
       <c r="B170" s="32"/>
       <c r="C170" s="32"/>
       <c r="D170" s="32"/>
@@ -3918,7 +4251,7 @@
       <c r="I170" s="33"/>
       <c r="J170" s="33"/>
     </row>
-    <row r="171" spans="2:10" ht="12.75">
+    <row r="171" spans="2:10" ht="13.2">
       <c r="B171" s="32"/>
       <c r="C171" s="32"/>
       <c r="D171" s="32"/>
@@ -3928,7 +4261,7 @@
       <c r="I171" s="33"/>
       <c r="J171" s="33"/>
     </row>
-    <row r="172" spans="2:10" ht="12.75">
+    <row r="172" spans="2:10" ht="13.2">
       <c r="B172" s="32"/>
       <c r="C172" s="32"/>
       <c r="D172" s="32"/>
@@ -3938,7 +4271,7 @@
       <c r="I172" s="33"/>
       <c r="J172" s="33"/>
     </row>
-    <row r="173" spans="2:10" ht="12.75">
+    <row r="173" spans="2:10" ht="13.2">
       <c r="B173" s="32"/>
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
@@ -3948,7 +4281,7 @@
       <c r="I173" s="33"/>
       <c r="J173" s="33"/>
     </row>
-    <row r="174" spans="2:10" ht="12.75">
+    <row r="174" spans="2:10" ht="13.2">
       <c r="B174" s="32"/>
       <c r="C174" s="32"/>
       <c r="D174" s="32"/>
@@ -3958,7 +4291,7 @@
       <c r="I174" s="33"/>
       <c r="J174" s="33"/>
     </row>
-    <row r="175" spans="2:10" ht="12.75">
+    <row r="175" spans="2:10" ht="13.2">
       <c r="B175" s="32"/>
       <c r="C175" s="32"/>
       <c r="D175" s="32"/>
@@ -3968,7 +4301,7 @@
       <c r="I175" s="33"/>
       <c r="J175" s="33"/>
     </row>
-    <row r="176" spans="2:10" ht="12.75">
+    <row r="176" spans="2:10" ht="13.2">
       <c r="B176" s="32"/>
       <c r="C176" s="32"/>
       <c r="D176" s="32"/>
@@ -3978,7 +4311,7 @@
       <c r="I176" s="33"/>
       <c r="J176" s="33"/>
     </row>
-    <row r="177" spans="2:10" ht="12.75">
+    <row r="177" spans="2:10" ht="13.2">
       <c r="B177" s="32"/>
       <c r="C177" s="32"/>
       <c r="D177" s="32"/>
@@ -3988,7 +4321,7 @@
       <c r="I177" s="33"/>
       <c r="J177" s="33"/>
     </row>
-    <row r="178" spans="2:10" ht="12.75">
+    <row r="178" spans="2:10" ht="13.2">
       <c r="B178" s="32"/>
       <c r="C178" s="32"/>
       <c r="D178" s="32"/>
@@ -3998,7 +4331,7 @@
       <c r="I178" s="33"/>
       <c r="J178" s="33"/>
     </row>
-    <row r="179" spans="2:10" ht="12.75">
+    <row r="179" spans="2:10" ht="13.2">
       <c r="B179" s="32"/>
       <c r="C179" s="32"/>
       <c r="D179" s="32"/>
@@ -4008,7 +4341,7 @@
       <c r="I179" s="33"/>
       <c r="J179" s="33"/>
     </row>
-    <row r="180" spans="2:10" ht="12.75">
+    <row r="180" spans="2:10" ht="13.2">
       <c r="B180" s="32"/>
       <c r="C180" s="32"/>
       <c r="D180" s="32"/>
@@ -4018,7 +4351,7 @@
       <c r="I180" s="33"/>
       <c r="J180" s="33"/>
     </row>
-    <row r="181" spans="2:10" ht="12.75">
+    <row r="181" spans="2:10" ht="13.2">
       <c r="B181" s="32"/>
       <c r="C181" s="32"/>
       <c r="D181" s="32"/>
@@ -4028,7 +4361,7 @@
       <c r="I181" s="33"/>
       <c r="J181" s="33"/>
     </row>
-    <row r="182" spans="2:10" ht="12.75">
+    <row r="182" spans="2:10" ht="13.2">
       <c r="B182" s="32"/>
       <c r="C182" s="32"/>
       <c r="D182" s="32"/>
@@ -4038,7 +4371,7 @@
       <c r="I182" s="33"/>
       <c r="J182" s="33"/>
     </row>
-    <row r="183" spans="2:10" ht="12.75">
+    <row r="183" spans="2:10" ht="13.2">
       <c r="B183" s="32"/>
       <c r="C183" s="32"/>
       <c r="D183" s="32"/>
@@ -4048,7 +4381,7 @@
       <c r="I183" s="33"/>
       <c r="J183" s="33"/>
     </row>
-    <row r="184" spans="2:10" ht="12.75">
+    <row r="184" spans="2:10" ht="13.2">
       <c r="B184" s="32"/>
       <c r="C184" s="32"/>
       <c r="D184" s="32"/>
@@ -4058,7 +4391,7 @@
       <c r="I184" s="33"/>
       <c r="J184" s="33"/>
     </row>
-    <row r="185" spans="2:10" ht="12.75">
+    <row r="185" spans="2:10" ht="13.2">
       <c r="B185" s="32"/>
       <c r="C185" s="32"/>
       <c r="D185" s="32"/>
@@ -4068,7 +4401,7 @@
       <c r="I185" s="33"/>
       <c r="J185" s="33"/>
     </row>
-    <row r="186" spans="2:10" ht="12.75">
+    <row r="186" spans="2:10" ht="13.2">
       <c r="B186" s="32"/>
       <c r="C186" s="32"/>
       <c r="D186" s="32"/>
@@ -4078,7 +4411,7 @@
       <c r="I186" s="33"/>
       <c r="J186" s="33"/>
     </row>
-    <row r="187" spans="2:10" ht="12.75">
+    <row r="187" spans="2:10" ht="13.2">
       <c r="B187" s="32"/>
       <c r="C187" s="32"/>
       <c r="D187" s="32"/>
@@ -4088,7 +4421,7 @@
       <c r="I187" s="33"/>
       <c r="J187" s="33"/>
     </row>
-    <row r="188" spans="2:10" ht="12.75">
+    <row r="188" spans="2:10" ht="13.2">
       <c r="B188" s="32"/>
       <c r="C188" s="32"/>
       <c r="D188" s="32"/>
@@ -4098,7 +4431,7 @@
       <c r="I188" s="33"/>
       <c r="J188" s="33"/>
     </row>
-    <row r="189" spans="2:10" ht="12.75">
+    <row r="189" spans="2:10" ht="13.2">
       <c r="B189" s="32"/>
       <c r="C189" s="32"/>
       <c r="D189" s="32"/>
@@ -4108,7 +4441,7 @@
       <c r="I189" s="33"/>
       <c r="J189" s="33"/>
     </row>
-    <row r="190" spans="2:10" ht="12.75">
+    <row r="190" spans="2:10" ht="13.2">
       <c r="B190" s="32"/>
       <c r="C190" s="32"/>
       <c r="D190" s="32"/>
@@ -4118,7 +4451,7 @@
       <c r="I190" s="33"/>
       <c r="J190" s="33"/>
     </row>
-    <row r="191" spans="2:10" ht="12.75">
+    <row r="191" spans="2:10" ht="13.2">
       <c r="B191" s="32"/>
       <c r="C191" s="32"/>
       <c r="D191" s="32"/>
@@ -4128,7 +4461,7 @@
       <c r="I191" s="33"/>
       <c r="J191" s="33"/>
     </row>
-    <row r="192" spans="2:10" ht="12.75">
+    <row r="192" spans="2:10" ht="13.2">
       <c r="B192" s="32"/>
       <c r="C192" s="32"/>
       <c r="D192" s="32"/>
@@ -4138,7 +4471,7 @@
       <c r="I192" s="33"/>
       <c r="J192" s="33"/>
     </row>
-    <row r="193" spans="2:10" ht="12.75">
+    <row r="193" spans="2:10" ht="13.2">
       <c r="B193" s="32"/>
       <c r="C193" s="32"/>
       <c r="D193" s="32"/>
@@ -4148,7 +4481,7 @@
       <c r="I193" s="33"/>
       <c r="J193" s="33"/>
     </row>
-    <row r="194" spans="2:10" ht="12.75">
+    <row r="194" spans="2:10" ht="13.2">
       <c r="B194" s="32"/>
       <c r="C194" s="32"/>
       <c r="D194" s="32"/>
@@ -4158,7 +4491,7 @@
       <c r="I194" s="33"/>
       <c r="J194" s="33"/>
     </row>
-    <row r="195" spans="2:10" ht="12.75">
+    <row r="195" spans="2:10" ht="13.2">
       <c r="B195" s="32"/>
       <c r="C195" s="32"/>
       <c r="D195" s="32"/>
@@ -4168,7 +4501,7 @@
       <c r="I195" s="33"/>
       <c r="J195" s="33"/>
     </row>
-    <row r="196" spans="2:10" ht="12.75">
+    <row r="196" spans="2:10" ht="13.2">
       <c r="B196" s="32"/>
       <c r="C196" s="32"/>
       <c r="D196" s="32"/>
@@ -4178,7 +4511,7 @@
       <c r="I196" s="33"/>
       <c r="J196" s="33"/>
     </row>
-    <row r="197" spans="2:10" ht="12.75">
+    <row r="197" spans="2:10" ht="13.2">
       <c r="B197" s="32"/>
       <c r="C197" s="32"/>
       <c r="D197" s="32"/>
@@ -4188,7 +4521,7 @@
       <c r="I197" s="33"/>
       <c r="J197" s="33"/>
     </row>
-    <row r="198" spans="2:10" ht="12.75">
+    <row r="198" spans="2:10" ht="13.2">
       <c r="B198" s="32"/>
       <c r="C198" s="32"/>
       <c r="D198" s="32"/>
@@ -4198,7 +4531,7 @@
       <c r="I198" s="33"/>
       <c r="J198" s="33"/>
     </row>
-    <row r="199" spans="2:10" ht="12.75">
+    <row r="199" spans="2:10" ht="13.2">
       <c r="B199" s="32"/>
       <c r="C199" s="32"/>
       <c r="D199" s="32"/>
@@ -4208,7 +4541,7 @@
       <c r="I199" s="33"/>
       <c r="J199" s="33"/>
     </row>
-    <row r="200" spans="2:10" ht="12.75">
+    <row r="200" spans="2:10" ht="13.2">
       <c r="B200" s="32"/>
       <c r="C200" s="32"/>
       <c r="D200" s="32"/>
@@ -4218,7 +4551,7 @@
       <c r="I200" s="33"/>
       <c r="J200" s="33"/>
     </row>
-    <row r="201" spans="2:10" ht="12.75">
+    <row r="201" spans="2:10" ht="13.2">
       <c r="B201" s="32"/>
       <c r="C201" s="32"/>
       <c r="D201" s="32"/>
@@ -4228,7 +4561,7 @@
       <c r="I201" s="33"/>
       <c r="J201" s="33"/>
     </row>
-    <row r="202" spans="2:10" ht="12.75">
+    <row r="202" spans="2:10" ht="13.2">
       <c r="B202" s="32"/>
       <c r="C202" s="32"/>
       <c r="D202" s="32"/>
@@ -4238,7 +4571,7 @@
       <c r="I202" s="33"/>
       <c r="J202" s="33"/>
     </row>
-    <row r="203" spans="2:10" ht="12.75">
+    <row r="203" spans="2:10" ht="13.2">
       <c r="B203" s="32"/>
       <c r="C203" s="32"/>
       <c r="D203" s="32"/>
@@ -4248,7 +4581,7 @@
       <c r="I203" s="33"/>
       <c r="J203" s="33"/>
     </row>
-    <row r="204" spans="2:10" ht="12.75">
+    <row r="204" spans="2:10" ht="13.2">
       <c r="B204" s="32"/>
       <c r="C204" s="32"/>
       <c r="D204" s="32"/>
@@ -4258,7 +4591,7 @@
       <c r="I204" s="33"/>
       <c r="J204" s="33"/>
     </row>
-    <row r="205" spans="2:10" ht="12.75">
+    <row r="205" spans="2:10" ht="13.2">
       <c r="B205" s="32"/>
       <c r="C205" s="32"/>
       <c r="D205" s="32"/>
@@ -4268,7 +4601,7 @@
       <c r="I205" s="33"/>
       <c r="J205" s="33"/>
     </row>
-    <row r="206" spans="2:10" ht="12.75">
+    <row r="206" spans="2:10" ht="13.2">
       <c r="B206" s="32"/>
       <c r="C206" s="32"/>
       <c r="D206" s="32"/>
@@ -4278,7 +4611,7 @@
       <c r="I206" s="33"/>
       <c r="J206" s="33"/>
     </row>
-    <row r="207" spans="2:10" ht="12.75">
+    <row r="207" spans="2:10" ht="13.2">
       <c r="B207" s="32"/>
       <c r="C207" s="32"/>
       <c r="D207" s="32"/>
@@ -4288,7 +4621,7 @@
       <c r="I207" s="33"/>
       <c r="J207" s="33"/>
     </row>
-    <row r="208" spans="2:10" ht="12.75">
+    <row r="208" spans="2:10" ht="13.2">
       <c r="B208" s="32"/>
       <c r="C208" s="32"/>
       <c r="D208" s="32"/>
@@ -4298,7 +4631,7 @@
       <c r="I208" s="33"/>
       <c r="J208" s="33"/>
     </row>
-    <row r="209" spans="2:10" ht="12.75">
+    <row r="209" spans="2:10" ht="13.2">
       <c r="B209" s="32"/>
       <c r="C209" s="32"/>
       <c r="D209" s="32"/>
@@ -4308,7 +4641,7 @@
       <c r="I209" s="33"/>
       <c r="J209" s="33"/>
     </row>
-    <row r="210" spans="2:10" ht="12.75">
+    <row r="210" spans="2:10" ht="13.2">
       <c r="B210" s="32"/>
       <c r="C210" s="32"/>
       <c r="D210" s="32"/>
@@ -4318,7 +4651,7 @@
       <c r="I210" s="33"/>
       <c r="J210" s="33"/>
     </row>
-    <row r="211" spans="2:10" ht="12.75">
+    <row r="211" spans="2:10" ht="13.2">
       <c r="B211" s="32"/>
       <c r="C211" s="32"/>
       <c r="D211" s="32"/>
@@ -4328,7 +4661,7 @@
       <c r="I211" s="33"/>
       <c r="J211" s="33"/>
     </row>
-    <row r="212" spans="2:10" ht="12.75">
+    <row r="212" spans="2:10" ht="13.2">
       <c r="B212" s="32"/>
       <c r="C212" s="32"/>
       <c r="D212" s="32"/>
@@ -4338,7 +4671,7 @@
       <c r="I212" s="33"/>
       <c r="J212" s="33"/>
     </row>
-    <row r="213" spans="2:10" ht="12.75">
+    <row r="213" spans="2:10" ht="13.2">
       <c r="B213" s="32"/>
       <c r="C213" s="32"/>
       <c r="D213" s="32"/>
@@ -4348,7 +4681,7 @@
       <c r="I213" s="33"/>
       <c r="J213" s="33"/>
     </row>
-    <row r="214" spans="2:10" ht="12.75">
+    <row r="214" spans="2:10" ht="13.2">
       <c r="B214" s="32"/>
       <c r="C214" s="32"/>
       <c r="D214" s="32"/>
@@ -4358,7 +4691,7 @@
       <c r="I214" s="33"/>
       <c r="J214" s="33"/>
     </row>
-    <row r="215" spans="2:10" ht="12.75">
+    <row r="215" spans="2:10" ht="13.2">
       <c r="B215" s="32"/>
       <c r="C215" s="32"/>
       <c r="D215" s="32"/>
@@ -4368,7 +4701,7 @@
       <c r="I215" s="33"/>
       <c r="J215" s="33"/>
     </row>
-    <row r="216" spans="2:10" ht="12.75">
+    <row r="216" spans="2:10" ht="13.2">
       <c r="B216" s="32"/>
       <c r="C216" s="32"/>
       <c r="D216" s="32"/>
@@ -4378,7 +4711,7 @@
       <c r="I216" s="33"/>
       <c r="J216" s="33"/>
     </row>
-    <row r="217" spans="2:10" ht="12.75">
+    <row r="217" spans="2:10" ht="13.2">
       <c r="B217" s="32"/>
       <c r="C217" s="32"/>
       <c r="D217" s="32"/>
@@ -4388,7 +4721,7 @@
       <c r="I217" s="33"/>
       <c r="J217" s="33"/>
     </row>
-    <row r="218" spans="2:10" ht="12.75">
+    <row r="218" spans="2:10" ht="13.2">
       <c r="B218" s="32"/>
       <c r="C218" s="32"/>
       <c r="D218" s="32"/>
@@ -4398,7 +4731,7 @@
       <c r="I218" s="33"/>
       <c r="J218" s="33"/>
     </row>
-    <row r="219" spans="2:10" ht="12.75">
+    <row r="219" spans="2:10" ht="13.2">
       <c r="B219" s="32"/>
       <c r="C219" s="32"/>
       <c r="D219" s="32"/>
@@ -4408,7 +4741,7 @@
       <c r="I219" s="33"/>
       <c r="J219" s="33"/>
     </row>
-    <row r="220" spans="2:10" ht="12.75">
+    <row r="220" spans="2:10" ht="13.2">
       <c r="B220" s="32"/>
       <c r="C220" s="32"/>
       <c r="D220" s="32"/>
@@ -4418,7 +4751,7 @@
       <c r="I220" s="33"/>
       <c r="J220" s="33"/>
     </row>
-    <row r="221" spans="2:10" ht="12.75">
+    <row r="221" spans="2:10" ht="13.2">
       <c r="B221" s="32"/>
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
@@ -4428,7 +4761,7 @@
       <c r="I221" s="33"/>
       <c r="J221" s="33"/>
     </row>
-    <row r="222" spans="2:10" ht="12.75">
+    <row r="222" spans="2:10" ht="13.2">
       <c r="B222" s="32"/>
       <c r="C222" s="32"/>
       <c r="D222" s="32"/>
@@ -4438,7 +4771,7 @@
       <c r="I222" s="33"/>
       <c r="J222" s="33"/>
     </row>
-    <row r="223" spans="2:10" ht="12.75">
+    <row r="223" spans="2:10" ht="13.2">
       <c r="B223" s="32"/>
       <c r="C223" s="32"/>
       <c r="D223" s="32"/>
@@ -4448,7 +4781,7 @@
       <c r="I223" s="33"/>
       <c r="J223" s="33"/>
     </row>
-    <row r="224" spans="2:10" ht="12.75">
+    <row r="224" spans="2:10" ht="13.2">
       <c r="B224" s="32"/>
       <c r="C224" s="32"/>
       <c r="D224" s="32"/>
@@ -4458,7 +4791,7 @@
       <c r="I224" s="33"/>
       <c r="J224" s="33"/>
     </row>
-    <row r="225" spans="2:10" ht="12.75">
+    <row r="225" spans="2:10" ht="13.2">
       <c r="B225" s="32"/>
       <c r="C225" s="32"/>
       <c r="D225" s="32"/>
@@ -4468,7 +4801,7 @@
       <c r="I225" s="33"/>
       <c r="J225" s="33"/>
     </row>
-    <row r="226" spans="2:10" ht="12.75">
+    <row r="226" spans="2:10" ht="13.2">
       <c r="B226" s="32"/>
       <c r="C226" s="32"/>
       <c r="D226" s="32"/>
@@ -4478,7 +4811,7 @@
       <c r="I226" s="33"/>
       <c r="J226" s="33"/>
     </row>
-    <row r="227" spans="2:10" ht="12.75">
+    <row r="227" spans="2:10" ht="13.2">
       <c r="B227" s="32"/>
       <c r="C227" s="32"/>
       <c r="D227" s="32"/>
@@ -4488,7 +4821,7 @@
       <c r="I227" s="33"/>
       <c r="J227" s="33"/>
     </row>
-    <row r="228" spans="2:10" ht="12.75">
+    <row r="228" spans="2:10" ht="13.2">
       <c r="B228" s="32"/>
       <c r="C228" s="32"/>
       <c r="D228" s="32"/>
@@ -4498,7 +4831,7 @@
       <c r="I228" s="33"/>
       <c r="J228" s="33"/>
     </row>
-    <row r="229" spans="2:10" ht="12.75">
+    <row r="229" spans="2:10" ht="13.2">
       <c r="B229" s="32"/>
       <c r="C229" s="32"/>
       <c r="D229" s="32"/>
@@ -4508,7 +4841,7 @@
       <c r="I229" s="33"/>
       <c r="J229" s="33"/>
     </row>
-    <row r="230" spans="2:10" ht="12.75">
+    <row r="230" spans="2:10" ht="13.2">
       <c r="B230" s="32"/>
       <c r="C230" s="32"/>
       <c r="D230" s="32"/>
@@ -4518,7 +4851,7 @@
       <c r="I230" s="33"/>
       <c r="J230" s="33"/>
     </row>
-    <row r="231" spans="2:10" ht="12.75">
+    <row r="231" spans="2:10" ht="13.2">
       <c r="B231" s="32"/>
       <c r="C231" s="32"/>
       <c r="D231" s="32"/>
@@ -4528,7 +4861,7 @@
       <c r="I231" s="33"/>
       <c r="J231" s="33"/>
     </row>
-    <row r="232" spans="2:10" ht="12.75">
+    <row r="232" spans="2:10" ht="13.2">
       <c r="B232" s="32"/>
       <c r="C232" s="32"/>
       <c r="D232" s="32"/>
@@ -4538,7 +4871,7 @@
       <c r="I232" s="33"/>
       <c r="J232" s="33"/>
     </row>
-    <row r="233" spans="2:10" ht="12.75">
+    <row r="233" spans="2:10" ht="13.2">
       <c r="B233" s="32"/>
       <c r="C233" s="32"/>
       <c r="D233" s="32"/>
@@ -4548,7 +4881,7 @@
       <c r="I233" s="33"/>
       <c r="J233" s="33"/>
     </row>
-    <row r="234" spans="2:10" ht="12.75">
+    <row r="234" spans="2:10" ht="13.2">
       <c r="B234" s="32"/>
       <c r="C234" s="32"/>
       <c r="D234" s="32"/>
@@ -4558,7 +4891,7 @@
       <c r="I234" s="33"/>
       <c r="J234" s="33"/>
     </row>
-    <row r="235" spans="2:10" ht="12.75">
+    <row r="235" spans="2:10" ht="13.2">
       <c r="B235" s="32"/>
       <c r="C235" s="32"/>
       <c r="D235" s="32"/>
@@ -4568,7 +4901,7 @@
       <c r="I235" s="33"/>
       <c r="J235" s="33"/>
     </row>
-    <row r="236" spans="2:10" ht="12.75">
+    <row r="236" spans="2:10" ht="13.2">
       <c r="B236" s="32"/>
       <c r="C236" s="32"/>
       <c r="D236" s="32"/>
@@ -4578,7 +4911,7 @@
       <c r="I236" s="33"/>
       <c r="J236" s="33"/>
     </row>
-    <row r="237" spans="2:10" ht="12.75">
+    <row r="237" spans="2:10" ht="13.2">
       <c r="B237" s="32"/>
       <c r="C237" s="32"/>
       <c r="D237" s="32"/>
@@ -4588,7 +4921,7 @@
       <c r="I237" s="33"/>
       <c r="J237" s="33"/>
     </row>
-    <row r="238" spans="2:10" ht="12.75">
+    <row r="238" spans="2:10" ht="13.2">
       <c r="B238" s="32"/>
       <c r="C238" s="32"/>
       <c r="D238" s="32"/>
@@ -4598,7 +4931,7 @@
       <c r="I238" s="33"/>
       <c r="J238" s="33"/>
     </row>
-    <row r="239" spans="2:10" ht="12.75">
+    <row r="239" spans="2:10" ht="13.2">
       <c r="B239" s="32"/>
       <c r="C239" s="32"/>
       <c r="D239" s="32"/>
@@ -4608,7 +4941,7 @@
       <c r="I239" s="33"/>
       <c r="J239" s="33"/>
     </row>
-    <row r="240" spans="2:10" ht="12.75">
+    <row r="240" spans="2:10" ht="13.2">
       <c r="B240" s="32"/>
       <c r="C240" s="32"/>
       <c r="D240" s="32"/>
@@ -4618,7 +4951,7 @@
       <c r="I240" s="33"/>
       <c r="J240" s="33"/>
     </row>
-    <row r="241" spans="2:10" ht="12.75">
+    <row r="241" spans="2:10" ht="13.2">
       <c r="B241" s="32"/>
       <c r="C241" s="32"/>
       <c r="D241" s="32"/>
@@ -4628,7 +4961,7 @@
       <c r="I241" s="33"/>
       <c r="J241" s="33"/>
     </row>
-    <row r="242" spans="2:10" ht="12.75">
+    <row r="242" spans="2:10" ht="13.2">
       <c r="B242" s="32"/>
       <c r="C242" s="32"/>
       <c r="D242" s="32"/>
@@ -4638,7 +4971,7 @@
       <c r="I242" s="33"/>
       <c r="J242" s="33"/>
     </row>
-    <row r="243" spans="2:10" ht="12.75">
+    <row r="243" spans="2:10" ht="13.2">
       <c r="B243" s="32"/>
       <c r="C243" s="32"/>
       <c r="D243" s="32"/>
@@ -4648,7 +4981,7 @@
       <c r="I243" s="33"/>
       <c r="J243" s="33"/>
     </row>
-    <row r="244" spans="2:10" ht="12.75">
+    <row r="244" spans="2:10" ht="13.2">
       <c r="B244" s="32"/>
       <c r="C244" s="32"/>
       <c r="D244" s="32"/>
@@ -4658,7 +4991,7 @@
       <c r="I244" s="33"/>
       <c r="J244" s="33"/>
     </row>
-    <row r="245" spans="2:10" ht="12.75">
+    <row r="245" spans="2:10" ht="13.2">
       <c r="B245" s="32"/>
       <c r="C245" s="32"/>
       <c r="D245" s="32"/>
@@ -4668,7 +5001,7 @@
       <c r="I245" s="33"/>
       <c r="J245" s="33"/>
     </row>
-    <row r="246" spans="2:10" ht="12.75">
+    <row r="246" spans="2:10" ht="13.2">
       <c r="B246" s="32"/>
       <c r="C246" s="32"/>
       <c r="D246" s="32"/>
@@ -4678,7 +5011,7 @@
       <c r="I246" s="33"/>
       <c r="J246" s="33"/>
     </row>
-    <row r="247" spans="2:10" ht="12.75">
+    <row r="247" spans="2:10" ht="13.2">
       <c r="B247" s="32"/>
       <c r="C247" s="32"/>
       <c r="D247" s="32"/>
@@ -4688,7 +5021,7 @@
       <c r="I247" s="33"/>
       <c r="J247" s="33"/>
     </row>
-    <row r="248" spans="2:10" ht="12.75">
+    <row r="248" spans="2:10" ht="13.2">
       <c r="B248" s="32"/>
       <c r="C248" s="32"/>
       <c r="D248" s="32"/>
@@ -4698,7 +5031,7 @@
       <c r="I248" s="33"/>
       <c r="J248" s="33"/>
     </row>
-    <row r="249" spans="2:10" ht="12.75">
+    <row r="249" spans="2:10" ht="13.2">
       <c r="B249" s="32"/>
       <c r="C249" s="32"/>
       <c r="D249" s="32"/>
@@ -4708,7 +5041,7 @@
       <c r="I249" s="33"/>
       <c r="J249" s="33"/>
     </row>
-    <row r="250" spans="2:10" ht="12.75">
+    <row r="250" spans="2:10" ht="13.2">
       <c r="B250" s="32"/>
       <c r="C250" s="32"/>
       <c r="D250" s="32"/>
@@ -4718,7 +5051,7 @@
       <c r="I250" s="33"/>
       <c r="J250" s="33"/>
     </row>
-    <row r="251" spans="2:10" ht="12.75">
+    <row r="251" spans="2:10" ht="13.2">
       <c r="B251" s="32"/>
       <c r="C251" s="32"/>
       <c r="D251" s="32"/>
@@ -4728,7 +5061,7 @@
       <c r="I251" s="33"/>
       <c r="J251" s="33"/>
     </row>
-    <row r="252" spans="2:10" ht="12.75">
+    <row r="252" spans="2:10" ht="13.2">
       <c r="B252" s="32"/>
       <c r="C252" s="32"/>
       <c r="D252" s="32"/>
@@ -4738,7 +5071,7 @@
       <c r="I252" s="33"/>
       <c r="J252" s="33"/>
     </row>
-    <row r="253" spans="2:10" ht="12.75">
+    <row r="253" spans="2:10" ht="13.2">
       <c r="B253" s="32"/>
       <c r="C253" s="32"/>
       <c r="D253" s="32"/>
@@ -4748,7 +5081,7 @@
       <c r="I253" s="33"/>
       <c r="J253" s="33"/>
     </row>
-    <row r="254" spans="2:10" ht="12.75">
+    <row r="254" spans="2:10" ht="13.2">
       <c r="B254" s="32"/>
       <c r="C254" s="32"/>
       <c r="D254" s="32"/>
@@ -4758,7 +5091,7 @@
       <c r="I254" s="33"/>
       <c r="J254" s="33"/>
     </row>
-    <row r="255" spans="2:10" ht="12.75">
+    <row r="255" spans="2:10" ht="13.2">
       <c r="B255" s="32"/>
       <c r="C255" s="32"/>
       <c r="D255" s="32"/>
@@ -4768,7 +5101,7 @@
       <c r="I255" s="33"/>
       <c r="J255" s="33"/>
     </row>
-    <row r="256" spans="2:10" ht="12.75">
+    <row r="256" spans="2:10" ht="13.2">
       <c r="B256" s="32"/>
       <c r="C256" s="32"/>
       <c r="D256" s="32"/>
@@ -4778,7 +5111,7 @@
       <c r="I256" s="33"/>
       <c r="J256" s="33"/>
     </row>
-    <row r="257" spans="2:10" ht="12.75">
+    <row r="257" spans="2:10" ht="13.2">
       <c r="B257" s="32"/>
       <c r="C257" s="32"/>
       <c r="D257" s="32"/>
@@ -4788,7 +5121,7 @@
       <c r="I257" s="33"/>
       <c r="J257" s="33"/>
     </row>
-    <row r="258" spans="2:10" ht="12.75">
+    <row r="258" spans="2:10" ht="13.2">
       <c r="B258" s="32"/>
       <c r="C258" s="32"/>
       <c r="D258" s="32"/>
@@ -4798,7 +5131,7 @@
       <c r="I258" s="33"/>
       <c r="J258" s="33"/>
     </row>
-    <row r="259" spans="2:10" ht="12.75">
+    <row r="259" spans="2:10" ht="13.2">
       <c r="B259" s="32"/>
       <c r="C259" s="32"/>
       <c r="D259" s="32"/>
@@ -4808,7 +5141,7 @@
       <c r="I259" s="33"/>
       <c r="J259" s="33"/>
     </row>
-    <row r="260" spans="2:10" ht="12.75">
+    <row r="260" spans="2:10" ht="13.2">
       <c r="B260" s="32"/>
       <c r="C260" s="32"/>
       <c r="D260" s="32"/>
@@ -4818,7 +5151,7 @@
       <c r="I260" s="33"/>
       <c r="J260" s="33"/>
     </row>
-    <row r="261" spans="2:10" ht="12.75">
+    <row r="261" spans="2:10" ht="13.2">
       <c r="B261" s="32"/>
       <c r="C261" s="32"/>
       <c r="D261" s="32"/>
@@ -4828,7 +5161,7 @@
       <c r="I261" s="33"/>
       <c r="J261" s="33"/>
     </row>
-    <row r="262" spans="2:10" ht="12.75">
+    <row r="262" spans="2:10" ht="13.2">
       <c r="B262" s="32"/>
       <c r="C262" s="32"/>
       <c r="D262" s="32"/>
@@ -4838,7 +5171,7 @@
       <c r="I262" s="33"/>
       <c r="J262" s="33"/>
     </row>
-    <row r="263" spans="2:10" ht="12.75">
+    <row r="263" spans="2:10" ht="13.2">
       <c r="B263" s="32"/>
       <c r="C263" s="32"/>
       <c r="D263" s="32"/>
@@ -4848,7 +5181,7 @@
       <c r="I263" s="33"/>
       <c r="J263" s="33"/>
     </row>
-    <row r="264" spans="2:10" ht="12.75">
+    <row r="264" spans="2:10" ht="13.2">
       <c r="B264" s="32"/>
       <c r="C264" s="32"/>
       <c r="D264" s="32"/>
@@ -4858,7 +5191,7 @@
       <c r="I264" s="33"/>
       <c r="J264" s="33"/>
     </row>
-    <row r="265" spans="2:10" ht="12.75">
+    <row r="265" spans="2:10" ht="13.2">
       <c r="B265" s="32"/>
       <c r="C265" s="32"/>
       <c r="D265" s="32"/>
@@ -4868,7 +5201,7 @@
       <c r="I265" s="33"/>
       <c r="J265" s="33"/>
     </row>
-    <row r="266" spans="2:10" ht="12.75">
+    <row r="266" spans="2:10" ht="13.2">
       <c r="B266" s="32"/>
       <c r="C266" s="32"/>
       <c r="D266" s="32"/>
@@ -4878,7 +5211,7 @@
       <c r="I266" s="33"/>
       <c r="J266" s="33"/>
     </row>
-    <row r="267" spans="2:10" ht="12.75">
+    <row r="267" spans="2:10" ht="13.2">
       <c r="B267" s="32"/>
       <c r="C267" s="32"/>
       <c r="D267" s="32"/>
@@ -4888,7 +5221,7 @@
       <c r="I267" s="33"/>
       <c r="J267" s="33"/>
     </row>
-    <row r="268" spans="2:10" ht="12.75">
+    <row r="268" spans="2:10" ht="13.2">
       <c r="B268" s="32"/>
       <c r="C268" s="32"/>
       <c r="D268" s="32"/>
@@ -4898,7 +5231,7 @@
       <c r="I268" s="33"/>
       <c r="J268" s="33"/>
     </row>
-    <row r="269" spans="2:10" ht="12.75">
+    <row r="269" spans="2:10" ht="13.2">
       <c r="B269" s="32"/>
       <c r="C269" s="32"/>
       <c r="D269" s="32"/>
@@ -4908,7 +5241,7 @@
       <c r="I269" s="33"/>
       <c r="J269" s="33"/>
     </row>
-    <row r="270" spans="2:10" ht="12.75">
+    <row r="270" spans="2:10" ht="13.2">
       <c r="B270" s="32"/>
       <c r="C270" s="32"/>
       <c r="D270" s="32"/>
@@ -4918,7 +5251,7 @@
       <c r="I270" s="33"/>
       <c r="J270" s="33"/>
     </row>
-    <row r="271" spans="2:10" ht="12.75">
+    <row r="271" spans="2:10" ht="13.2">
       <c r="B271" s="32"/>
       <c r="C271" s="32"/>
       <c r="D271" s="32"/>
@@ -4928,7 +5261,7 @@
       <c r="I271" s="33"/>
       <c r="J271" s="33"/>
     </row>
-    <row r="272" spans="2:10" ht="12.75">
+    <row r="272" spans="2:10" ht="13.2">
       <c r="B272" s="32"/>
       <c r="C272" s="32"/>
       <c r="D272" s="32"/>
@@ -4938,7 +5271,7 @@
       <c r="I272" s="33"/>
       <c r="J272" s="33"/>
     </row>
-    <row r="273" spans="2:10" ht="12.75">
+    <row r="273" spans="2:10" ht="13.2">
       <c r="B273" s="32"/>
       <c r="C273" s="32"/>
       <c r="D273" s="32"/>
@@ -4948,7 +5281,7 @@
       <c r="I273" s="33"/>
       <c r="J273" s="33"/>
     </row>
-    <row r="274" spans="2:10" ht="12.75">
+    <row r="274" spans="2:10" ht="13.2">
       <c r="B274" s="32"/>
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
@@ -4958,7 +5291,7 @@
       <c r="I274" s="33"/>
       <c r="J274" s="33"/>
     </row>
-    <row r="275" spans="2:10" ht="12.75">
+    <row r="275" spans="2:10" ht="13.2">
       <c r="B275" s="32"/>
       <c r="C275" s="32"/>
       <c r="D275" s="32"/>
@@ -4968,7 +5301,7 @@
       <c r="I275" s="33"/>
       <c r="J275" s="33"/>
     </row>
-    <row r="276" spans="2:10" ht="12.75">
+    <row r="276" spans="2:10" ht="13.2">
       <c r="B276" s="32"/>
       <c r="C276" s="32"/>
       <c r="D276" s="32"/>
@@ -4978,7 +5311,7 @@
       <c r="I276" s="33"/>
       <c r="J276" s="33"/>
     </row>
-    <row r="277" spans="2:10" ht="12.75">
+    <row r="277" spans="2:10" ht="13.2">
       <c r="B277" s="32"/>
       <c r="C277" s="32"/>
       <c r="D277" s="32"/>
@@ -4988,7 +5321,7 @@
       <c r="I277" s="33"/>
       <c r="J277" s="33"/>
     </row>
-    <row r="278" spans="2:10" ht="12.75">
+    <row r="278" spans="2:10" ht="13.2">
       <c r="B278" s="32"/>
       <c r="C278" s="32"/>
       <c r="D278" s="32"/>
@@ -4998,7 +5331,7 @@
       <c r="I278" s="33"/>
       <c r="J278" s="33"/>
     </row>
-    <row r="279" spans="2:10" ht="12.75">
+    <row r="279" spans="2:10" ht="13.2">
       <c r="B279" s="32"/>
       <c r="C279" s="32"/>
       <c r="D279" s="32"/>
@@ -5008,7 +5341,7 @@
       <c r="I279" s="33"/>
       <c r="J279" s="33"/>
     </row>
-    <row r="280" spans="2:10" ht="12.75">
+    <row r="280" spans="2:10" ht="13.2">
       <c r="B280" s="32"/>
       <c r="C280" s="32"/>
       <c r="D280" s="32"/>
@@ -5018,7 +5351,7 @@
       <c r="I280" s="33"/>
       <c r="J280" s="33"/>
     </row>
-    <row r="281" spans="2:10" ht="12.75">
+    <row r="281" spans="2:10" ht="13.2">
       <c r="B281" s="32"/>
       <c r="C281" s="32"/>
       <c r="D281" s="32"/>
@@ -5028,7 +5361,7 @@
       <c r="I281" s="33"/>
       <c r="J281" s="33"/>
     </row>
-    <row r="282" spans="2:10" ht="12.75">
+    <row r="282" spans="2:10" ht="13.2">
       <c r="B282" s="32"/>
       <c r="C282" s="32"/>
       <c r="D282" s="32"/>
@@ -5038,7 +5371,7 @@
       <c r="I282" s="33"/>
       <c r="J282" s="33"/>
     </row>
-    <row r="283" spans="2:10" ht="12.75">
+    <row r="283" spans="2:10" ht="13.2">
       <c r="B283" s="32"/>
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
@@ -5048,7 +5381,7 @@
       <c r="I283" s="33"/>
       <c r="J283" s="33"/>
     </row>
-    <row r="284" spans="2:10" ht="12.75">
+    <row r="284" spans="2:10" ht="13.2">
       <c r="B284" s="32"/>
       <c r="C284" s="32"/>
       <c r="D284" s="32"/>
@@ -5058,7 +5391,7 @@
       <c r="I284" s="33"/>
       <c r="J284" s="33"/>
     </row>
-    <row r="285" spans="2:10" ht="12.75">
+    <row r="285" spans="2:10" ht="13.2">
       <c r="B285" s="32"/>
       <c r="C285" s="32"/>
       <c r="D285" s="32"/>
@@ -5068,7 +5401,7 @@
       <c r="I285" s="33"/>
       <c r="J285" s="33"/>
     </row>
-    <row r="286" spans="2:10" ht="12.75">
+    <row r="286" spans="2:10" ht="13.2">
       <c r="B286" s="32"/>
       <c r="C286" s="32"/>
       <c r="D286" s="32"/>
@@ -5078,7 +5411,7 @@
       <c r="I286" s="33"/>
       <c r="J286" s="33"/>
     </row>
-    <row r="287" spans="2:10" ht="12.75">
+    <row r="287" spans="2:10" ht="13.2">
       <c r="B287" s="32"/>
       <c r="C287" s="32"/>
       <c r="D287" s="32"/>
@@ -5088,7 +5421,7 @@
       <c r="I287" s="33"/>
       <c r="J287" s="33"/>
     </row>
-    <row r="288" spans="2:10" ht="12.75">
+    <row r="288" spans="2:10" ht="13.2">
       <c r="B288" s="32"/>
       <c r="C288" s="32"/>
       <c r="D288" s="32"/>
@@ -5098,7 +5431,7 @@
       <c r="I288" s="33"/>
       <c r="J288" s="33"/>
     </row>
-    <row r="289" spans="2:10" ht="12.75">
+    <row r="289" spans="2:10" ht="13.2">
       <c r="B289" s="32"/>
       <c r="C289" s="32"/>
       <c r="D289" s="32"/>
@@ -5108,7 +5441,7 @@
       <c r="I289" s="33"/>
       <c r="J289" s="33"/>
     </row>
-    <row r="290" spans="2:10" ht="12.75">
+    <row r="290" spans="2:10" ht="13.2">
       <c r="B290" s="32"/>
       <c r="C290" s="32"/>
       <c r="D290" s="32"/>
@@ -5118,7 +5451,7 @@
       <c r="I290" s="33"/>
       <c r="J290" s="33"/>
     </row>
-    <row r="291" spans="2:10" ht="12.75">
+    <row r="291" spans="2:10" ht="13.2">
       <c r="B291" s="32"/>
       <c r="C291" s="32"/>
       <c r="D291" s="32"/>
@@ -5128,7 +5461,7 @@
       <c r="I291" s="33"/>
       <c r="J291" s="33"/>
     </row>
-    <row r="292" spans="2:10" ht="12.75">
+    <row r="292" spans="2:10" ht="13.2">
       <c r="B292" s="32"/>
       <c r="C292" s="32"/>
       <c r="D292" s="32"/>
@@ -5138,7 +5471,7 @@
       <c r="I292" s="33"/>
       <c r="J292" s="33"/>
     </row>
-    <row r="293" spans="2:10" ht="12.75">
+    <row r="293" spans="2:10" ht="13.2">
       <c r="B293" s="32"/>
       <c r="C293" s="32"/>
       <c r="D293" s="32"/>
@@ -5148,7 +5481,7 @@
       <c r="I293" s="33"/>
       <c r="J293" s="33"/>
     </row>
-    <row r="294" spans="2:10" ht="12.75">
+    <row r="294" spans="2:10" ht="13.2">
       <c r="B294" s="32"/>
       <c r="C294" s="32"/>
       <c r="D294" s="32"/>
@@ -5158,7 +5491,7 @@
       <c r="I294" s="33"/>
       <c r="J294" s="33"/>
     </row>
-    <row r="295" spans="2:10" ht="12.75">
+    <row r="295" spans="2:10" ht="13.2">
       <c r="B295" s="32"/>
       <c r="C295" s="32"/>
       <c r="D295" s="32"/>
@@ -5168,7 +5501,7 @@
       <c r="I295" s="33"/>
       <c r="J295" s="33"/>
     </row>
-    <row r="296" spans="2:10" ht="12.75">
+    <row r="296" spans="2:10" ht="13.2">
       <c r="B296" s="32"/>
       <c r="C296" s="32"/>
       <c r="D296" s="32"/>
@@ -5178,7 +5511,7 @@
       <c r="I296" s="33"/>
       <c r="J296" s="33"/>
     </row>
-    <row r="297" spans="2:10" ht="12.75">
+    <row r="297" spans="2:10" ht="13.2">
       <c r="B297" s="32"/>
       <c r="C297" s="32"/>
       <c r="D297" s="32"/>
@@ -5188,7 +5521,7 @@
       <c r="I297" s="33"/>
       <c r="J297" s="33"/>
     </row>
-    <row r="298" spans="2:10" ht="12.75">
+    <row r="298" spans="2:10" ht="13.2">
       <c r="B298" s="32"/>
       <c r="C298" s="32"/>
       <c r="D298" s="32"/>
@@ -5198,7 +5531,7 @@
       <c r="I298" s="33"/>
       <c r="J298" s="33"/>
     </row>
-    <row r="299" spans="2:10" ht="12.75">
+    <row r="299" spans="2:10" ht="13.2">
       <c r="B299" s="32"/>
       <c r="C299" s="32"/>
       <c r="D299" s="32"/>
@@ -5208,7 +5541,7 @@
       <c r="I299" s="33"/>
       <c r="J299" s="33"/>
     </row>
-    <row r="300" spans="2:10" ht="12.75">
+    <row r="300" spans="2:10" ht="13.2">
       <c r="B300" s="32"/>
       <c r="C300" s="32"/>
       <c r="D300" s="32"/>
@@ -5218,7 +5551,7 @@
       <c r="I300" s="33"/>
       <c r="J300" s="33"/>
     </row>
-    <row r="301" spans="2:10" ht="12.75">
+    <row r="301" spans="2:10" ht="13.2">
       <c r="B301" s="32"/>
       <c r="C301" s="32"/>
       <c r="D301" s="32"/>
@@ -5228,7 +5561,7 @@
       <c r="I301" s="33"/>
       <c r="J301" s="33"/>
     </row>
-    <row r="302" spans="2:10" ht="12.75">
+    <row r="302" spans="2:10" ht="13.2">
       <c r="B302" s="32"/>
       <c r="C302" s="32"/>
       <c r="D302" s="32"/>
@@ -5238,7 +5571,7 @@
       <c r="I302" s="33"/>
       <c r="J302" s="33"/>
     </row>
-    <row r="303" spans="2:10" ht="12.75">
+    <row r="303" spans="2:10" ht="13.2">
       <c r="B303" s="32"/>
       <c r="C303" s="32"/>
       <c r="D303" s="32"/>
@@ -5248,7 +5581,7 @@
       <c r="I303" s="33"/>
       <c r="J303" s="33"/>
     </row>
-    <row r="304" spans="2:10" ht="12.75">
+    <row r="304" spans="2:10" ht="13.2">
       <c r="B304" s="32"/>
       <c r="C304" s="32"/>
       <c r="D304" s="32"/>
@@ -5258,7 +5591,7 @@
       <c r="I304" s="33"/>
       <c r="J304" s="33"/>
     </row>
-    <row r="305" spans="2:10" ht="12.75">
+    <row r="305" spans="2:10" ht="13.2">
       <c r="B305" s="32"/>
       <c r="C305" s="32"/>
       <c r="D305" s="32"/>
@@ -5268,7 +5601,7 @@
       <c r="I305" s="33"/>
       <c r="J305" s="33"/>
     </row>
-    <row r="306" spans="2:10" ht="12.75">
+    <row r="306" spans="2:10" ht="13.2">
       <c r="B306" s="32"/>
       <c r="C306" s="32"/>
       <c r="D306" s="32"/>
@@ -5278,7 +5611,7 @@
       <c r="I306" s="33"/>
       <c r="J306" s="33"/>
     </row>
-    <row r="307" spans="2:10" ht="12.75">
+    <row r="307" spans="2:10" ht="13.2">
       <c r="B307" s="32"/>
       <c r="C307" s="32"/>
       <c r="D307" s="32"/>
@@ -5288,7 +5621,7 @@
       <c r="I307" s="33"/>
       <c r="J307" s="33"/>
     </row>
-    <row r="308" spans="2:10" ht="12.75">
+    <row r="308" spans="2:10" ht="13.2">
       <c r="B308" s="32"/>
       <c r="C308" s="32"/>
       <c r="D308" s="32"/>
@@ -5298,7 +5631,7 @@
       <c r="I308" s="33"/>
       <c r="J308" s="33"/>
     </row>
-    <row r="309" spans="2:10" ht="12.75">
+    <row r="309" spans="2:10" ht="13.2">
       <c r="B309" s="32"/>
       <c r="C309" s="32"/>
       <c r="D309" s="32"/>
@@ -5308,7 +5641,7 @@
       <c r="I309" s="33"/>
       <c r="J309" s="33"/>
     </row>
-    <row r="310" spans="2:10" ht="12.75">
+    <row r="310" spans="2:10" ht="13.2">
       <c r="B310" s="32"/>
       <c r="C310" s="32"/>
       <c r="D310" s="32"/>
@@ -5318,7 +5651,7 @@
       <c r="I310" s="33"/>
       <c r="J310" s="33"/>
     </row>
-    <row r="311" spans="2:10" ht="12.75">
+    <row r="311" spans="2:10" ht="13.2">
       <c r="B311" s="32"/>
       <c r="C311" s="32"/>
       <c r="D311" s="32"/>
@@ -5328,7 +5661,7 @@
       <c r="I311" s="33"/>
       <c r="J311" s="33"/>
     </row>
-    <row r="312" spans="2:10" ht="12.75">
+    <row r="312" spans="2:10" ht="13.2">
       <c r="B312" s="32"/>
       <c r="C312" s="32"/>
       <c r="D312" s="32"/>
@@ -5338,7 +5671,7 @@
       <c r="I312" s="33"/>
       <c r="J312" s="33"/>
     </row>
-    <row r="313" spans="2:10" ht="12.75">
+    <row r="313" spans="2:10" ht="13.2">
       <c r="B313" s="32"/>
       <c r="C313" s="32"/>
       <c r="D313" s="32"/>
@@ -5348,7 +5681,7 @@
       <c r="I313" s="33"/>
       <c r="J313" s="33"/>
     </row>
-    <row r="314" spans="2:10" ht="12.75">
+    <row r="314" spans="2:10" ht="13.2">
       <c r="B314" s="32"/>
       <c r="C314" s="32"/>
       <c r="D314" s="32"/>
@@ -5358,7 +5691,7 @@
       <c r="I314" s="33"/>
       <c r="J314" s="33"/>
     </row>
-    <row r="315" spans="2:10" ht="12.75">
+    <row r="315" spans="2:10" ht="13.2">
       <c r="B315" s="32"/>
       <c r="C315" s="32"/>
       <c r="D315" s="32"/>
@@ -5368,7 +5701,7 @@
       <c r="I315" s="33"/>
       <c r="J315" s="33"/>
     </row>
-    <row r="316" spans="2:10" ht="12.75">
+    <row r="316" spans="2:10" ht="13.2">
       <c r="B316" s="32"/>
       <c r="C316" s="32"/>
       <c r="D316" s="32"/>
@@ -5378,7 +5711,7 @@
       <c r="I316" s="33"/>
       <c r="J316" s="33"/>
     </row>
-    <row r="317" spans="2:10" ht="12.75">
+    <row r="317" spans="2:10" ht="13.2">
       <c r="B317" s="32"/>
       <c r="C317" s="32"/>
       <c r="D317" s="32"/>
@@ -5388,7 +5721,7 @@
       <c r="I317" s="33"/>
       <c r="J317" s="33"/>
     </row>
-    <row r="318" spans="2:10" ht="12.75">
+    <row r="318" spans="2:10" ht="13.2">
       <c r="B318" s="32"/>
       <c r="C318" s="32"/>
       <c r="D318" s="32"/>
@@ -5398,7 +5731,7 @@
       <c r="I318" s="33"/>
       <c r="J318" s="33"/>
     </row>
-    <row r="319" spans="2:10" ht="12.75">
+    <row r="319" spans="2:10" ht="13.2">
       <c r="B319" s="32"/>
       <c r="C319" s="32"/>
       <c r="D319" s="32"/>
@@ -5408,7 +5741,7 @@
       <c r="I319" s="33"/>
       <c r="J319" s="33"/>
     </row>
-    <row r="320" spans="2:10" ht="12.75">
+    <row r="320" spans="2:10" ht="13.2">
       <c r="B320" s="32"/>
       <c r="C320" s="32"/>
       <c r="D320" s="32"/>
@@ -5418,7 +5751,7 @@
       <c r="I320" s="33"/>
       <c r="J320" s="33"/>
     </row>
-    <row r="321" spans="2:10" ht="12.75">
+    <row r="321" spans="2:10" ht="13.2">
       <c r="B321" s="32"/>
       <c r="C321" s="32"/>
       <c r="D321" s="32"/>
@@ -5428,7 +5761,7 @@
       <c r="I321" s="33"/>
       <c r="J321" s="33"/>
     </row>
-    <row r="322" spans="2:10" ht="12.75">
+    <row r="322" spans="2:10" ht="13.2">
       <c r="B322" s="32"/>
       <c r="C322" s="32"/>
       <c r="D322" s="32"/>
@@ -5438,7 +5771,7 @@
       <c r="I322" s="33"/>
       <c r="J322" s="33"/>
     </row>
-    <row r="323" spans="2:10" ht="12.75">
+    <row r="323" spans="2:10" ht="13.2">
       <c r="B323" s="32"/>
       <c r="C323" s="32"/>
       <c r="D323" s="32"/>
@@ -5448,7 +5781,7 @@
       <c r="I323" s="33"/>
       <c r="J323" s="33"/>
     </row>
-    <row r="324" spans="2:10" ht="12.75">
+    <row r="324" spans="2:10" ht="13.2">
       <c r="B324" s="32"/>
       <c r="C324" s="32"/>
       <c r="D324" s="32"/>
@@ -5458,7 +5791,7 @@
       <c r="I324" s="33"/>
       <c r="J324" s="33"/>
     </row>
-    <row r="325" spans="2:10" ht="12.75">
+    <row r="325" spans="2:10" ht="13.2">
       <c r="B325" s="32"/>
       <c r="C325" s="32"/>
       <c r="D325" s="32"/>
@@ -5468,7 +5801,7 @@
       <c r="I325" s="33"/>
       <c r="J325" s="33"/>
     </row>
-    <row r="326" spans="2:10" ht="12.75">
+    <row r="326" spans="2:10" ht="13.2">
       <c r="B326" s="32"/>
       <c r="C326" s="32"/>
       <c r="D326" s="32"/>
@@ -5478,7 +5811,7 @@
       <c r="I326" s="33"/>
       <c r="J326" s="33"/>
     </row>
-    <row r="327" spans="2:10" ht="12.75">
+    <row r="327" spans="2:10" ht="13.2">
       <c r="B327" s="32"/>
       <c r="C327" s="32"/>
       <c r="D327" s="32"/>
@@ -5488,7 +5821,7 @@
       <c r="I327" s="33"/>
       <c r="J327" s="33"/>
     </row>
-    <row r="328" spans="2:10" ht="12.75">
+    <row r="328" spans="2:10" ht="13.2">
       <c r="B328" s="32"/>
       <c r="C328" s="32"/>
       <c r="D328" s="32"/>
@@ -5498,7 +5831,7 @@
       <c r="I328" s="33"/>
       <c r="J328" s="33"/>
     </row>
-    <row r="329" spans="2:10" ht="12.75">
+    <row r="329" spans="2:10" ht="13.2">
       <c r="B329" s="32"/>
       <c r="C329" s="32"/>
       <c r="D329" s="32"/>
@@ -5508,7 +5841,7 @@
       <c r="I329" s="33"/>
       <c r="J329" s="33"/>
     </row>
-    <row r="330" spans="2:10" ht="12.75">
+    <row r="330" spans="2:10" ht="13.2">
       <c r="B330" s="32"/>
       <c r="C330" s="32"/>
       <c r="D330" s="32"/>
@@ -5518,7 +5851,7 @@
       <c r="I330" s="33"/>
       <c r="J330" s="33"/>
     </row>
-    <row r="331" spans="2:10" ht="12.75">
+    <row r="331" spans="2:10" ht="13.2">
       <c r="B331" s="32"/>
       <c r="C331" s="32"/>
       <c r="D331" s="32"/>
@@ -5528,7 +5861,7 @@
       <c r="I331" s="33"/>
       <c r="J331" s="33"/>
     </row>
-    <row r="332" spans="2:10" ht="12.75">
+    <row r="332" spans="2:10" ht="13.2">
       <c r="B332" s="32"/>
       <c r="C332" s="32"/>
       <c r="D332" s="32"/>
@@ -5538,7 +5871,7 @@
       <c r="I332" s="33"/>
       <c r="J332" s="33"/>
     </row>
-    <row r="333" spans="2:10" ht="12.75">
+    <row r="333" spans="2:10" ht="13.2">
       <c r="B333" s="32"/>
       <c r="C333" s="32"/>
       <c r="D333" s="32"/>
@@ -5548,7 +5881,7 @@
       <c r="I333" s="33"/>
       <c r="J333" s="33"/>
     </row>
-    <row r="334" spans="2:10" ht="12.75">
+    <row r="334" spans="2:10" ht="13.2">
       <c r="B334" s="32"/>
       <c r="C334" s="32"/>
       <c r="D334" s="32"/>
@@ -5558,7 +5891,7 @@
       <c r="I334" s="33"/>
       <c r="J334" s="33"/>
     </row>
-    <row r="335" spans="2:10" ht="12.75">
+    <row r="335" spans="2:10" ht="13.2">
       <c r="B335" s="32"/>
       <c r="C335" s="32"/>
       <c r="D335" s="32"/>
@@ -5568,7 +5901,7 @@
       <c r="I335" s="33"/>
       <c r="J335" s="33"/>
     </row>
-    <row r="336" spans="2:10" ht="12.75">
+    <row r="336" spans="2:10" ht="13.2">
       <c r="B336" s="32"/>
       <c r="C336" s="32"/>
       <c r="D336" s="32"/>
@@ -5578,7 +5911,7 @@
       <c r="I336" s="33"/>
       <c r="J336" s="33"/>
     </row>
-    <row r="337" spans="2:10" ht="12.75">
+    <row r="337" spans="2:10" ht="13.2">
       <c r="B337" s="32"/>
       <c r="C337" s="32"/>
       <c r="D337" s="32"/>
@@ -5588,7 +5921,7 @@
       <c r="I337" s="33"/>
       <c r="J337" s="33"/>
     </row>
-    <row r="338" spans="2:10" ht="12.75">
+    <row r="338" spans="2:10" ht="13.2">
       <c r="B338" s="32"/>
       <c r="C338" s="32"/>
       <c r="D338" s="32"/>
@@ -5598,7 +5931,7 @@
       <c r="I338" s="33"/>
       <c r="J338" s="33"/>
     </row>
-    <row r="339" spans="2:10" ht="12.75">
+    <row r="339" spans="2:10" ht="13.2">
       <c r="B339" s="32"/>
       <c r="C339" s="32"/>
       <c r="D339" s="32"/>
@@ -5608,7 +5941,7 @@
       <c r="I339" s="33"/>
       <c r="J339" s="33"/>
     </row>
-    <row r="340" spans="2:10" ht="12.75">
+    <row r="340" spans="2:10" ht="13.2">
       <c r="B340" s="32"/>
       <c r="C340" s="32"/>
       <c r="D340" s="32"/>
@@ -5618,7 +5951,7 @@
       <c r="I340" s="33"/>
       <c r="J340" s="33"/>
     </row>
-    <row r="341" spans="2:10" ht="12.75">
+    <row r="341" spans="2:10" ht="13.2">
       <c r="B341" s="32"/>
       <c r="C341" s="32"/>
       <c r="D341" s="32"/>
@@ -5628,7 +5961,7 @@
       <c r="I341" s="33"/>
       <c r="J341" s="33"/>
     </row>
-    <row r="342" spans="2:10" ht="12.75">
+    <row r="342" spans="2:10" ht="13.2">
       <c r="B342" s="32"/>
       <c r="C342" s="32"/>
       <c r="D342" s="32"/>
@@ -5638,7 +5971,7 @@
       <c r="I342" s="33"/>
       <c r="J342" s="33"/>
     </row>
-    <row r="343" spans="2:10" ht="12.75">
+    <row r="343" spans="2:10" ht="13.2">
       <c r="B343" s="32"/>
       <c r="C343" s="32"/>
       <c r="D343" s="32"/>
@@ -5648,7 +5981,7 @@
       <c r="I343" s="33"/>
       <c r="J343" s="33"/>
     </row>
-    <row r="344" spans="2:10" ht="12.75">
+    <row r="344" spans="2:10" ht="13.2">
       <c r="B344" s="32"/>
       <c r="C344" s="32"/>
       <c r="D344" s="32"/>
@@ -5658,7 +5991,7 @@
       <c r="I344" s="33"/>
       <c r="J344" s="33"/>
     </row>
-    <row r="345" spans="2:10" ht="12.75">
+    <row r="345" spans="2:10" ht="13.2">
       <c r="B345" s="32"/>
       <c r="C345" s="32"/>
       <c r="D345" s="32"/>
@@ -5668,7 +6001,7 @@
       <c r="I345" s="33"/>
       <c r="J345" s="33"/>
     </row>
-    <row r="346" spans="2:10" ht="12.75">
+    <row r="346" spans="2:10" ht="13.2">
       <c r="B346" s="32"/>
       <c r="C346" s="32"/>
       <c r="D346" s="32"/>
@@ -5678,7 +6011,7 @@
       <c r="I346" s="33"/>
       <c r="J346" s="33"/>
     </row>
-    <row r="347" spans="2:10" ht="12.75">
+    <row r="347" spans="2:10" ht="13.2">
       <c r="B347" s="32"/>
       <c r="C347" s="32"/>
       <c r="D347" s="32"/>
@@ -5688,7 +6021,7 @@
       <c r="I347" s="33"/>
       <c r="J347" s="33"/>
     </row>
-    <row r="348" spans="2:10" ht="12.75">
+    <row r="348" spans="2:10" ht="13.2">
       <c r="B348" s="32"/>
       <c r="C348" s="32"/>
       <c r="D348" s="32"/>
@@ -5698,7 +6031,7 @@
       <c r="I348" s="33"/>
       <c r="J348" s="33"/>
     </row>
-    <row r="349" spans="2:10" ht="12.75">
+    <row r="349" spans="2:10" ht="13.2">
       <c r="B349" s="32"/>
       <c r="C349" s="32"/>
       <c r="D349" s="32"/>
@@ -5708,7 +6041,7 @@
       <c r="I349" s="33"/>
       <c r="J349" s="33"/>
     </row>
-    <row r="350" spans="2:10" ht="12.75">
+    <row r="350" spans="2:10" ht="13.2">
       <c r="B350" s="32"/>
       <c r="C350" s="32"/>
       <c r="D350" s="32"/>
@@ -5718,7 +6051,7 @@
       <c r="I350" s="33"/>
       <c r="J350" s="33"/>
     </row>
-    <row r="351" spans="2:10" ht="12.75">
+    <row r="351" spans="2:10" ht="13.2">
       <c r="B351" s="32"/>
       <c r="C351" s="32"/>
       <c r="D351" s="32"/>
@@ -5728,7 +6061,7 @@
       <c r="I351" s="33"/>
       <c r="J351" s="33"/>
     </row>
-    <row r="352" spans="2:10" ht="12.75">
+    <row r="352" spans="2:10" ht="13.2">
       <c r="B352" s="32"/>
       <c r="C352" s="32"/>
       <c r="D352" s="32"/>
@@ -5738,7 +6071,7 @@
       <c r="I352" s="33"/>
       <c r="J352" s="33"/>
     </row>
-    <row r="353" spans="2:10" ht="12.75">
+    <row r="353" spans="2:10" ht="13.2">
       <c r="B353" s="32"/>
       <c r="C353" s="32"/>
       <c r="D353" s="32"/>
@@ -5748,7 +6081,7 @@
       <c r="I353" s="33"/>
       <c r="J353" s="33"/>
     </row>
-    <row r="354" spans="2:10" ht="12.75">
+    <row r="354" spans="2:10" ht="13.2">
       <c r="B354" s="32"/>
       <c r="C354" s="32"/>
       <c r="D354" s="32"/>
@@ -5758,7 +6091,7 @@
       <c r="I354" s="33"/>
       <c r="J354" s="33"/>
     </row>
-    <row r="355" spans="2:10" ht="12.75">
+    <row r="355" spans="2:10" ht="13.2">
       <c r="B355" s="32"/>
       <c r="C355" s="32"/>
       <c r="D355" s="32"/>
@@ -5768,7 +6101,7 @@
       <c r="I355" s="33"/>
       <c r="J355" s="33"/>
     </row>
-    <row r="356" spans="2:10" ht="12.75">
+    <row r="356" spans="2:10" ht="13.2">
       <c r="B356" s="32"/>
       <c r="C356" s="32"/>
       <c r="D356" s="32"/>
@@ -5778,7 +6111,7 @@
       <c r="I356" s="33"/>
       <c r="J356" s="33"/>
     </row>
-    <row r="357" spans="2:10" ht="12.75">
+    <row r="357" spans="2:10" ht="13.2">
       <c r="B357" s="32"/>
       <c r="C357" s="32"/>
       <c r="D357" s="32"/>
@@ -5788,7 +6121,7 @@
       <c r="I357" s="33"/>
       <c r="J357" s="33"/>
     </row>
-    <row r="358" spans="2:10" ht="12.75">
+    <row r="358" spans="2:10" ht="13.2">
       <c r="B358" s="32"/>
       <c r="C358" s="32"/>
       <c r="D358" s="32"/>
@@ -5798,7 +6131,7 @@
       <c r="I358" s="33"/>
       <c r="J358" s="33"/>
     </row>
-    <row r="359" spans="2:10" ht="12.75">
+    <row r="359" spans="2:10" ht="13.2">
       <c r="B359" s="32"/>
       <c r="C359" s="32"/>
       <c r="D359" s="32"/>
@@ -5808,7 +6141,7 @@
       <c r="I359" s="33"/>
       <c r="J359" s="33"/>
     </row>
-    <row r="360" spans="2:10" ht="12.75">
+    <row r="360" spans="2:10" ht="13.2">
       <c r="B360" s="32"/>
       <c r="C360" s="32"/>
       <c r="D360" s="32"/>
@@ -5818,7 +6151,7 @@
       <c r="I360" s="33"/>
       <c r="J360" s="33"/>
     </row>
-    <row r="361" spans="2:10" ht="12.75">
+    <row r="361" spans="2:10" ht="13.2">
       <c r="B361" s="32"/>
       <c r="C361" s="32"/>
       <c r="D361" s="32"/>
@@ -5828,7 +6161,7 @@
       <c r="I361" s="33"/>
       <c r="J361" s="33"/>
     </row>
-    <row r="362" spans="2:10" ht="12.75">
+    <row r="362" spans="2:10" ht="13.2">
       <c r="B362" s="32"/>
       <c r="C362" s="32"/>
       <c r="D362" s="32"/>
@@ -5838,7 +6171,7 @@
       <c r="I362" s="33"/>
       <c r="J362" s="33"/>
     </row>
-    <row r="363" spans="2:10" ht="12.75">
+    <row r="363" spans="2:10" ht="13.2">
       <c r="B363" s="32"/>
       <c r="C363" s="32"/>
       <c r="D363" s="32"/>
@@ -5848,7 +6181,7 @@
       <c r="I363" s="33"/>
       <c r="J363" s="33"/>
     </row>
-    <row r="364" spans="2:10" ht="12.75">
+    <row r="364" spans="2:10" ht="13.2">
       <c r="B364" s="32"/>
       <c r="C364" s="32"/>
       <c r="D364" s="32"/>
@@ -5858,7 +6191,7 @@
       <c r="I364" s="33"/>
       <c r="J364" s="33"/>
     </row>
-    <row r="365" spans="2:10" ht="12.75">
+    <row r="365" spans="2:10" ht="13.2">
       <c r="B365" s="32"/>
       <c r="C365" s="32"/>
       <c r="D365" s="32"/>
@@ -5868,7 +6201,7 @@
       <c r="I365" s="33"/>
       <c r="J365" s="33"/>
     </row>
-    <row r="366" spans="2:10" ht="12.75">
+    <row r="366" spans="2:10" ht="13.2">
       <c r="B366" s="32"/>
       <c r="C366" s="32"/>
       <c r="D366" s="32"/>
@@ -5878,7 +6211,7 @@
       <c r="I366" s="33"/>
       <c r="J366" s="33"/>
     </row>
-    <row r="367" spans="2:10" ht="12.75">
+    <row r="367" spans="2:10" ht="13.2">
       <c r="B367" s="32"/>
       <c r="C367" s="32"/>
       <c r="D367" s="32"/>
@@ -5888,7 +6221,7 @@
       <c r="I367" s="33"/>
       <c r="J367" s="33"/>
     </row>
-    <row r="368" spans="2:10" ht="12.75">
+    <row r="368" spans="2:10" ht="13.2">
       <c r="B368" s="32"/>
       <c r="C368" s="32"/>
       <c r="D368" s="32"/>
@@ -5898,7 +6231,7 @@
       <c r="I368" s="33"/>
       <c r="J368" s="33"/>
     </row>
-    <row r="369" spans="2:10" ht="12.75">
+    <row r="369" spans="2:10" ht="13.2">
       <c r="B369" s="32"/>
       <c r="C369" s="32"/>
       <c r="D369" s="32"/>
@@ -5908,7 +6241,7 @@
       <c r="I369" s="33"/>
       <c r="J369" s="33"/>
     </row>
-    <row r="370" spans="2:10" ht="12.75">
+    <row r="370" spans="2:10" ht="13.2">
       <c r="B370" s="32"/>
       <c r="C370" s="32"/>
       <c r="D370" s="32"/>
@@ -5918,7 +6251,7 @@
       <c r="I370" s="33"/>
       <c r="J370" s="33"/>
     </row>
-    <row r="371" spans="2:10" ht="12.75">
+    <row r="371" spans="2:10" ht="13.2">
       <c r="B371" s="32"/>
       <c r="C371" s="32"/>
       <c r="D371" s="32"/>
@@ -5928,7 +6261,7 @@
       <c r="I371" s="33"/>
       <c r="J371" s="33"/>
     </row>
-    <row r="372" spans="2:10" ht="12.75">
+    <row r="372" spans="2:10" ht="13.2">
       <c r="B372" s="32"/>
       <c r="C372" s="32"/>
       <c r="D372" s="32"/>
@@ -5938,7 +6271,7 @@
       <c r="I372" s="33"/>
       <c r="J372" s="33"/>
     </row>
-    <row r="373" spans="2:10" ht="12.75">
+    <row r="373" spans="2:10" ht="13.2">
       <c r="B373" s="32"/>
       <c r="C373" s="32"/>
       <c r="D373" s="32"/>
@@ -5948,7 +6281,7 @@
       <c r="I373" s="33"/>
       <c r="J373" s="33"/>
     </row>
-    <row r="374" spans="2:10" ht="12.75">
+    <row r="374" spans="2:10" ht="13.2">
       <c r="B374" s="32"/>
       <c r="C374" s="32"/>
       <c r="D374" s="32"/>
@@ -5958,7 +6291,7 @@
       <c r="I374" s="33"/>
       <c r="J374" s="33"/>
     </row>
-    <row r="375" spans="2:10" ht="12.75">
+    <row r="375" spans="2:10" ht="13.2">
       <c r="B375" s="32"/>
       <c r="C375" s="32"/>
       <c r="D375" s="32"/>
@@ -5968,7 +6301,7 @@
       <c r="I375" s="33"/>
       <c r="J375" s="33"/>
     </row>
-    <row r="376" spans="2:10" ht="12.75">
+    <row r="376" spans="2:10" ht="13.2">
       <c r="B376" s="32"/>
       <c r="C376" s="32"/>
       <c r="D376" s="32"/>
@@ -5978,7 +6311,7 @@
       <c r="I376" s="33"/>
       <c r="J376" s="33"/>
     </row>
-    <row r="377" spans="2:10" ht="12.75">
+    <row r="377" spans="2:10" ht="13.2">
       <c r="B377" s="32"/>
       <c r="C377" s="32"/>
       <c r="D377" s="32"/>
@@ -5988,7 +6321,7 @@
       <c r="I377" s="33"/>
       <c r="J377" s="33"/>
     </row>
-    <row r="378" spans="2:10" ht="12.75">
+    <row r="378" spans="2:10" ht="13.2">
       <c r="B378" s="32"/>
       <c r="C378" s="32"/>
       <c r="D378" s="32"/>
@@ -5998,7 +6331,7 @@
       <c r="I378" s="33"/>
       <c r="J378" s="33"/>
     </row>
-    <row r="379" spans="2:10" ht="12.75">
+    <row r="379" spans="2:10" ht="13.2">
       <c r="B379" s="32"/>
       <c r="C379" s="32"/>
       <c r="D379" s="32"/>
@@ -6008,7 +6341,7 @@
       <c r="I379" s="33"/>
       <c r="J379" s="33"/>
     </row>
-    <row r="380" spans="2:10" ht="12.75">
+    <row r="380" spans="2:10" ht="13.2">
       <c r="B380" s="32"/>
       <c r="C380" s="32"/>
       <c r="D380" s="32"/>
@@ -6018,7 +6351,7 @@
       <c r="I380" s="33"/>
       <c r="J380" s="33"/>
     </row>
-    <row r="381" spans="2:10" ht="12.75">
+    <row r="381" spans="2:10" ht="13.2">
       <c r="B381" s="32"/>
       <c r="C381" s="32"/>
       <c r="D381" s="32"/>
@@ -6028,7 +6361,7 @@
       <c r="I381" s="33"/>
       <c r="J381" s="33"/>
     </row>
-    <row r="382" spans="2:10" ht="12.75">
+    <row r="382" spans="2:10" ht="13.2">
       <c r="B382" s="32"/>
       <c r="C382" s="32"/>
       <c r="D382" s="32"/>
@@ -6038,7 +6371,7 @@
       <c r="I382" s="33"/>
       <c r="J382" s="33"/>
     </row>
-    <row r="383" spans="2:10" ht="12.75">
+    <row r="383" spans="2:10" ht="13.2">
       <c r="B383" s="32"/>
       <c r="C383" s="32"/>
       <c r="D383" s="32"/>
@@ -6048,7 +6381,7 @@
       <c r="I383" s="33"/>
       <c r="J383" s="33"/>
     </row>
-    <row r="384" spans="2:10" ht="12.75">
+    <row r="384" spans="2:10" ht="13.2">
       <c r="B384" s="32"/>
       <c r="C384" s="32"/>
       <c r="D384" s="32"/>
@@ -6058,7 +6391,7 @@
       <c r="I384" s="33"/>
       <c r="J384" s="33"/>
     </row>
-    <row r="385" spans="2:10" ht="12.75">
+    <row r="385" spans="2:10" ht="13.2">
       <c r="B385" s="32"/>
       <c r="C385" s="32"/>
       <c r="D385" s="32"/>
@@ -6068,7 +6401,7 @@
       <c r="I385" s="33"/>
       <c r="J385" s="33"/>
     </row>
-    <row r="386" spans="2:10" ht="12.75">
+    <row r="386" spans="2:10" ht="13.2">
       <c r="B386" s="32"/>
       <c r="C386" s="32"/>
       <c r="D386" s="32"/>
@@ -6078,7 +6411,7 @@
       <c r="I386" s="33"/>
       <c r="J386" s="33"/>
     </row>
-    <row r="387" spans="2:10" ht="12.75">
+    <row r="387" spans="2:10" ht="13.2">
       <c r="B387" s="32"/>
       <c r="C387" s="32"/>
       <c r="D387" s="32"/>
@@ -6088,7 +6421,7 @@
       <c r="I387" s="33"/>
       <c r="J387" s="33"/>
     </row>
-    <row r="388" spans="2:10" ht="12.75">
+    <row r="388" spans="2:10" ht="13.2">
       <c r="B388" s="32"/>
       <c r="C388" s="32"/>
       <c r="D388" s="32"/>
@@ -6098,7 +6431,7 @@
       <c r="I388" s="33"/>
       <c r="J388" s="33"/>
     </row>
-    <row r="389" spans="2:10" ht="12.75">
+    <row r="389" spans="2:10" ht="13.2">
       <c r="B389" s="32"/>
       <c r="C389" s="32"/>
       <c r="D389" s="32"/>
@@ -6108,7 +6441,7 @@
       <c r="I389" s="33"/>
       <c r="J389" s="33"/>
     </row>
-    <row r="390" spans="2:10" ht="12.75">
+    <row r="390" spans="2:10" ht="13.2">
       <c r="B390" s="32"/>
       <c r="C390" s="32"/>
       <c r="D390" s="32"/>
@@ -6118,7 +6451,7 @@
       <c r="I390" s="33"/>
       <c r="J390" s="33"/>
     </row>
-    <row r="391" spans="2:10" ht="12.75">
+    <row r="391" spans="2:10" ht="13.2">
       <c r="B391" s="32"/>
       <c r="C391" s="32"/>
       <c r="D391" s="32"/>
@@ -6128,7 +6461,7 @@
       <c r="I391" s="33"/>
       <c r="J391" s="33"/>
     </row>
-    <row r="392" spans="2:10" ht="12.75">
+    <row r="392" spans="2:10" ht="13.2">
       <c r="B392" s="32"/>
       <c r="C392" s="32"/>
       <c r="D392" s="32"/>
@@ -6138,7 +6471,7 @@
       <c r="I392" s="33"/>
       <c r="J392" s="33"/>
     </row>
-    <row r="393" spans="2:10" ht="12.75">
+    <row r="393" spans="2:10" ht="13.2">
       <c r="B393" s="32"/>
       <c r="C393" s="32"/>
       <c r="D393" s="32"/>
@@ -6148,7 +6481,7 @@
       <c r="I393" s="33"/>
       <c r="J393" s="33"/>
     </row>
-    <row r="394" spans="2:10" ht="12.75">
+    <row r="394" spans="2:10" ht="13.2">
       <c r="B394" s="32"/>
       <c r="C394" s="32"/>
       <c r="D394" s="32"/>
@@ -6158,7 +6491,7 @@
       <c r="I394" s="33"/>
       <c r="J394" s="33"/>
     </row>
-    <row r="395" spans="2:10" ht="12.75">
+    <row r="395" spans="2:10" ht="13.2">
       <c r="B395" s="32"/>
       <c r="C395" s="32"/>
       <c r="D395" s="32"/>
@@ -6168,7 +6501,7 @@
       <c r="I395" s="33"/>
       <c r="J395" s="33"/>
     </row>
-    <row r="396" spans="2:10" ht="12.75">
+    <row r="396" spans="2:10" ht="13.2">
       <c r="B396" s="32"/>
       <c r="C396" s="32"/>
       <c r="D396" s="32"/>
@@ -6178,7 +6511,7 @@
       <c r="I396" s="33"/>
       <c r="J396" s="33"/>
     </row>
-    <row r="397" spans="2:10" ht="12.75">
+    <row r="397" spans="2:10" ht="13.2">
       <c r="B397" s="32"/>
       <c r="C397" s="32"/>
       <c r="D397" s="32"/>
@@ -6188,7 +6521,7 @@
       <c r="I397" s="33"/>
       <c r="J397" s="33"/>
     </row>
-    <row r="398" spans="2:10" ht="12.75">
+    <row r="398" spans="2:10" ht="13.2">
       <c r="B398" s="32"/>
       <c r="C398" s="32"/>
       <c r="D398" s="32"/>
@@ -6198,7 +6531,7 @@
       <c r="I398" s="33"/>
       <c r="J398" s="33"/>
     </row>
-    <row r="399" spans="2:10" ht="12.75">
+    <row r="399" spans="2:10" ht="13.2">
       <c r="B399" s="32"/>
       <c r="C399" s="32"/>
       <c r="D399" s="32"/>
@@ -6208,7 +6541,7 @@
       <c r="I399" s="33"/>
       <c r="J399" s="33"/>
     </row>
-    <row r="400" spans="2:10" ht="12.75">
+    <row r="400" spans="2:10" ht="13.2">
       <c r="B400" s="32"/>
       <c r="C400" s="32"/>
       <c r="D400" s="32"/>
@@ -6218,7 +6551,7 @@
       <c r="I400" s="33"/>
       <c r="J400" s="33"/>
     </row>
-    <row r="401" spans="2:10" ht="12.75">
+    <row r="401" spans="2:10" ht="13.2">
       <c r="B401" s="32"/>
       <c r="C401" s="32"/>
       <c r="D401" s="32"/>
@@ -6228,7 +6561,7 @@
       <c r="I401" s="33"/>
       <c r="J401" s="33"/>
     </row>
-    <row r="402" spans="2:10" ht="12.75">
+    <row r="402" spans="2:10" ht="13.2">
       <c r="B402" s="32"/>
       <c r="C402" s="32"/>
       <c r="D402" s="32"/>
@@ -6238,7 +6571,7 @@
       <c r="I402" s="33"/>
       <c r="J402" s="33"/>
     </row>
-    <row r="403" spans="2:10" ht="12.75">
+    <row r="403" spans="2:10" ht="13.2">
       <c r="B403" s="32"/>
       <c r="C403" s="32"/>
       <c r="D403" s="32"/>
@@ -6248,7 +6581,7 @@
       <c r="I403" s="33"/>
       <c r="J403" s="33"/>
     </row>
-    <row r="404" spans="2:10" ht="12.75">
+    <row r="404" spans="2:10" ht="13.2">
       <c r="B404" s="32"/>
       <c r="C404" s="32"/>
       <c r="D404" s="32"/>
@@ -6258,7 +6591,7 @@
       <c r="I404" s="33"/>
       <c r="J404" s="33"/>
     </row>
-    <row r="405" spans="2:10" ht="12.75">
+    <row r="405" spans="2:10" ht="13.2">
       <c r="B405" s="32"/>
       <c r="C405" s="32"/>
       <c r="D405" s="32"/>
@@ -6268,7 +6601,7 @@
       <c r="I405" s="33"/>
       <c r="J405" s="33"/>
     </row>
-    <row r="406" spans="2:10" ht="12.75">
+    <row r="406" spans="2:10" ht="13.2">
       <c r="B406" s="32"/>
       <c r="C406" s="32"/>
       <c r="D406" s="32"/>
@@ -6278,7 +6611,7 @@
       <c r="I406" s="33"/>
       <c r="J406" s="33"/>
     </row>
-    <row r="407" spans="2:10" ht="12.75">
+    <row r="407" spans="2:10" ht="13.2">
       <c r="B407" s="32"/>
       <c r="C407" s="32"/>
       <c r="D407" s="32"/>
@@ -6288,7 +6621,7 @@
       <c r="I407" s="33"/>
       <c r="J407" s="33"/>
     </row>
-    <row r="408" spans="2:10" ht="12.75">
+    <row r="408" spans="2:10" ht="13.2">
       <c r="B408" s="32"/>
       <c r="C408" s="32"/>
       <c r="D408" s="32"/>
@@ -6298,7 +6631,7 @@
       <c r="I408" s="33"/>
       <c r="J408" s="33"/>
     </row>
-    <row r="409" spans="2:10" ht="12.75">
+    <row r="409" spans="2:10" ht="13.2">
       <c r="B409" s="32"/>
       <c r="C409" s="32"/>
       <c r="D409" s="32"/>
@@ -6308,7 +6641,7 @@
       <c r="I409" s="33"/>
       <c r="J409" s="33"/>
     </row>
-    <row r="410" spans="2:10" ht="12.75">
+    <row r="410" spans="2:10" ht="13.2">
       <c r="B410" s="32"/>
       <c r="C410" s="32"/>
       <c r="D410" s="32"/>
@@ -6318,7 +6651,7 @@
       <c r="I410" s="33"/>
       <c r="J410" s="33"/>
     </row>
-    <row r="411" spans="2:10" ht="12.75">
+    <row r="411" spans="2:10" ht="13.2">
       <c r="B411" s="32"/>
       <c r="C411" s="32"/>
       <c r="D411" s="32"/>
@@ -6328,7 +6661,7 @@
       <c r="I411" s="33"/>
       <c r="J411" s="33"/>
     </row>
-    <row r="412" spans="2:10" ht="12.75">
+    <row r="412" spans="2:10" ht="13.2">
       <c r="B412" s="32"/>
       <c r="C412" s="32"/>
       <c r="D412" s="32"/>
@@ -6338,7 +6671,7 @@
       <c r="I412" s="33"/>
       <c r="J412" s="33"/>
     </row>
-    <row r="413" spans="2:10" ht="12.75">
+    <row r="413" spans="2:10" ht="13.2">
       <c r="B413" s="32"/>
       <c r="C413" s="32"/>
       <c r="D413" s="32"/>
@@ -6348,7 +6681,7 @@
       <c r="I413" s="33"/>
       <c r="J413" s="33"/>
     </row>
-    <row r="414" spans="2:10" ht="12.75">
+    <row r="414" spans="2:10" ht="13.2">
       <c r="B414" s="32"/>
       <c r="C414" s="32"/>
       <c r="D414" s="32"/>
@@ -6358,7 +6691,7 @@
       <c r="I414" s="33"/>
       <c r="J414" s="33"/>
     </row>
-    <row r="415" spans="2:10" ht="12.75">
+    <row r="415" spans="2:10" ht="13.2">
       <c r="B415" s="32"/>
       <c r="C415" s="32"/>
       <c r="D415" s="32"/>
@@ -6368,7 +6701,7 @@
       <c r="I415" s="33"/>
       <c r="J415" s="33"/>
     </row>
-    <row r="416" spans="2:10" ht="12.75">
+    <row r="416" spans="2:10" ht="13.2">
       <c r="B416" s="32"/>
       <c r="C416" s="32"/>
       <c r="D416" s="32"/>
@@ -6378,7 +6711,7 @@
       <c r="I416" s="33"/>
       <c r="J416" s="33"/>
     </row>
-    <row r="417" spans="2:10" ht="12.75">
+    <row r="417" spans="2:10" ht="13.2">
       <c r="B417" s="32"/>
       <c r="C417" s="32"/>
       <c r="D417" s="32"/>
@@ -6388,7 +6721,7 @@
       <c r="I417" s="33"/>
       <c r="J417" s="33"/>
     </row>
-    <row r="418" spans="2:10" ht="12.75">
+    <row r="418" spans="2:10" ht="13.2">
       <c r="B418" s="32"/>
       <c r="C418" s="32"/>
       <c r="D418" s="32"/>
@@ -6398,7 +6731,7 @@
       <c r="I418" s="33"/>
       <c r="J418" s="33"/>
     </row>
-    <row r="419" spans="2:10" ht="12.75">
+    <row r="419" spans="2:10" ht="13.2">
       <c r="B419" s="32"/>
       <c r="C419" s="32"/>
       <c r="D419" s="32"/>
@@ -6408,7 +6741,7 @@
       <c r="I419" s="33"/>
       <c r="J419" s="33"/>
     </row>
-    <row r="420" spans="2:10" ht="12.75">
+    <row r="420" spans="2:10" ht="13.2">
       <c r="B420" s="32"/>
       <c r="C420" s="32"/>
       <c r="D420" s="32"/>
@@ -6418,7 +6751,7 @@
       <c r="I420" s="33"/>
       <c r="J420" s="33"/>
     </row>
-    <row r="421" spans="2:10" ht="12.75">
+    <row r="421" spans="2:10" ht="13.2">
       <c r="B421" s="32"/>
       <c r="C421" s="32"/>
       <c r="D421" s="32"/>
@@ -6428,7 +6761,7 @@
       <c r="I421" s="33"/>
       <c r="J421" s="33"/>
     </row>
-    <row r="422" spans="2:10" ht="12.75">
+    <row r="422" spans="2:10" ht="13.2">
       <c r="B422" s="32"/>
       <c r="C422" s="32"/>
       <c r="D422" s="32"/>
@@ -6438,7 +6771,7 @@
       <c r="I422" s="33"/>
       <c r="J422" s="33"/>
     </row>
-    <row r="423" spans="2:10" ht="12.75">
+    <row r="423" spans="2:10" ht="13.2">
       <c r="B423" s="32"/>
       <c r="C423" s="32"/>
       <c r="D423" s="32"/>
@@ -6448,7 +6781,7 @@
       <c r="I423" s="33"/>
       <c r="J423" s="33"/>
     </row>
-    <row r="424" spans="2:10" ht="12.75">
+    <row r="424" spans="2:10" ht="13.2">
       <c r="B424" s="32"/>
       <c r="C424" s="32"/>
       <c r="D424" s="32"/>
@@ -6458,7 +6791,7 @@
       <c r="I424" s="33"/>
       <c r="J424" s="33"/>
     </row>
-    <row r="425" spans="2:10" ht="12.75">
+    <row r="425" spans="2:10" ht="13.2">
       <c r="B425" s="32"/>
       <c r="C425" s="32"/>
       <c r="D425" s="32"/>
@@ -6468,7 +6801,7 @@
       <c r="I425" s="33"/>
       <c r="J425" s="33"/>
     </row>
-    <row r="426" spans="2:10" ht="12.75">
+    <row r="426" spans="2:10" ht="13.2">
       <c r="B426" s="32"/>
       <c r="C426" s="32"/>
       <c r="D426" s="32"/>
@@ -6478,7 +6811,7 @@
       <c r="I426" s="33"/>
       <c r="J426" s="33"/>
     </row>
-    <row r="427" spans="2:10" ht="12.75">
+    <row r="427" spans="2:10" ht="13.2">
       <c r="B427" s="32"/>
       <c r="C427" s="32"/>
       <c r="D427" s="32"/>
@@ -6488,7 +6821,7 @@
       <c r="I427" s="33"/>
       <c r="J427" s="33"/>
     </row>
-    <row r="428" spans="2:10" ht="12.75">
+    <row r="428" spans="2:10" ht="13.2">
       <c r="B428" s="32"/>
       <c r="C428" s="32"/>
       <c r="D428" s="32"/>
@@ -6498,7 +6831,7 @@
       <c r="I428" s="33"/>
       <c r="J428" s="33"/>
     </row>
-    <row r="429" spans="2:10" ht="12.75">
+    <row r="429" spans="2:10" ht="13.2">
       <c r="B429" s="32"/>
       <c r="C429" s="32"/>
       <c r="D429" s="32"/>
@@ -6508,7 +6841,7 @@
       <c r="I429" s="33"/>
       <c r="J429" s="33"/>
     </row>
-    <row r="430" spans="2:10" ht="12.75">
+    <row r="430" spans="2:10" ht="13.2">
       <c r="B430" s="32"/>
       <c r="C430" s="32"/>
       <c r="D430" s="32"/>
@@ -6518,7 +6851,7 @@
       <c r="I430" s="33"/>
       <c r="J430" s="33"/>
     </row>
-    <row r="431" spans="2:10" ht="12.75">
+    <row r="431" spans="2:10" ht="13.2">
       <c r="B431" s="32"/>
       <c r="C431" s="32"/>
       <c r="D431" s="32"/>
@@ -6528,7 +6861,7 @@
       <c r="I431" s="33"/>
       <c r="J431" s="33"/>
     </row>
-    <row r="432" spans="2:10" ht="12.75">
+    <row r="432" spans="2:10" ht="13.2">
       <c r="B432" s="32"/>
       <c r="C432" s="32"/>
       <c r="D432" s="32"/>
@@ -6538,7 +6871,7 @@
       <c r="I432" s="33"/>
       <c r="J432" s="33"/>
     </row>
-    <row r="433" spans="2:10" ht="12.75">
+    <row r="433" spans="2:10" ht="13.2">
       <c r="B433" s="32"/>
       <c r="C433" s="32"/>
       <c r="D433" s="32"/>
@@ -6548,7 +6881,7 @@
       <c r="I433" s="33"/>
       <c r="J433" s="33"/>
     </row>
-    <row r="434" spans="2:10" ht="12.75">
+    <row r="434" spans="2:10" ht="13.2">
       <c r="B434" s="32"/>
       <c r="C434" s="32"/>
       <c r="D434" s="32"/>
@@ -6558,7 +6891,7 @@
       <c r="I434" s="33"/>
       <c r="J434" s="33"/>
     </row>
-    <row r="435" spans="2:10" ht="12.75">
+    <row r="435" spans="2:10" ht="13.2">
       <c r="B435" s="32"/>
       <c r="C435" s="32"/>
       <c r="D435" s="32"/>
@@ -6568,7 +6901,7 @@
       <c r="I435" s="33"/>
       <c r="J435" s="33"/>
     </row>
-    <row r="436" spans="2:10" ht="12.75">
+    <row r="436" spans="2:10" ht="13.2">
       <c r="B436" s="32"/>
       <c r="C436" s="32"/>
       <c r="D436" s="32"/>
@@ -6578,7 +6911,7 @@
       <c r="I436" s="33"/>
       <c r="J436" s="33"/>
     </row>
-    <row r="437" spans="2:10" ht="12.75">
+    <row r="437" spans="2:10" ht="13.2">
       <c r="B437" s="32"/>
       <c r="C437" s="32"/>
       <c r="D437" s="32"/>
@@ -6588,7 +6921,7 @@
       <c r="I437" s="33"/>
       <c r="J437" s="33"/>
     </row>
-    <row r="438" spans="2:10" ht="12.75">
+    <row r="438" spans="2:10" ht="13.2">
       <c r="B438" s="32"/>
       <c r="C438" s="32"/>
       <c r="D438" s="32"/>
@@ -6598,7 +6931,7 @@
       <c r="I438" s="33"/>
       <c r="J438" s="33"/>
     </row>
-    <row r="439" spans="2:10" ht="12.75">
+    <row r="439" spans="2:10" ht="13.2">
       <c r="B439" s="32"/>
       <c r="C439" s="32"/>
       <c r="D439" s="32"/>
@@ -6608,7 +6941,7 @@
       <c r="I439" s="33"/>
       <c r="J439" s="33"/>
     </row>
-    <row r="440" spans="2:10" ht="12.75">
+    <row r="440" spans="2:10" ht="13.2">
       <c r="B440" s="32"/>
       <c r="C440" s="32"/>
       <c r="D440" s="32"/>
@@ -6618,7 +6951,7 @@
       <c r="I440" s="33"/>
       <c r="J440" s="33"/>
     </row>
-    <row r="441" spans="2:10" ht="12.75">
+    <row r="441" spans="2:10" ht="13.2">
       <c r="B441" s="32"/>
       <c r="C441" s="32"/>
       <c r="D441" s="32"/>
@@ -6628,7 +6961,7 @@
       <c r="I441" s="33"/>
       <c r="J441" s="33"/>
     </row>
-    <row r="442" spans="2:10" ht="12.75">
+    <row r="442" spans="2:10" ht="13.2">
       <c r="B442" s="32"/>
       <c r="C442" s="32"/>
       <c r="D442" s="32"/>
@@ -6638,7 +6971,7 @@
       <c r="I442" s="33"/>
       <c r="J442" s="33"/>
     </row>
-    <row r="443" spans="2:10" ht="12.75">
+    <row r="443" spans="2:10" ht="13.2">
       <c r="B443" s="32"/>
       <c r="C443" s="32"/>
       <c r="D443" s="32"/>
@@ -6648,7 +6981,7 @@
       <c r="I443" s="33"/>
       <c r="J443" s="33"/>
     </row>
-    <row r="444" spans="2:10" ht="12.75">
+    <row r="444" spans="2:10" ht="13.2">
       <c r="B444" s="32"/>
       <c r="C444" s="32"/>
       <c r="D444" s="32"/>
@@ -6658,7 +6991,7 @@
       <c r="I444" s="33"/>
       <c r="J444" s="33"/>
     </row>
-    <row r="445" spans="2:10" ht="12.75">
+    <row r="445" spans="2:10" ht="13.2">
       <c r="B445" s="32"/>
       <c r="C445" s="32"/>
       <c r="D445" s="32"/>
@@ -6668,7 +7001,7 @@
       <c r="I445" s="33"/>
       <c r="J445" s="33"/>
     </row>
-    <row r="446" spans="2:10" ht="12.75">
+    <row r="446" spans="2:10" ht="13.2">
       <c r="B446" s="32"/>
       <c r="C446" s="32"/>
       <c r="D446" s="32"/>
@@ -6678,7 +7011,7 @@
       <c r="I446" s="33"/>
       <c r="J446" s="33"/>
     </row>
-    <row r="447" spans="2:10" ht="12.75">
+    <row r="447" spans="2:10" ht="13.2">
       <c r="B447" s="32"/>
       <c r="C447" s="32"/>
       <c r="D447" s="32"/>
@@ -6688,7 +7021,7 @@
       <c r="I447" s="33"/>
       <c r="J447" s="33"/>
     </row>
-    <row r="448" spans="2:10" ht="12.75">
+    <row r="448" spans="2:10" ht="13.2">
       <c r="B448" s="32"/>
       <c r="C448" s="32"/>
       <c r="D448" s="32"/>
@@ -6698,7 +7031,7 @@
       <c r="I448" s="33"/>
       <c r="J448" s="33"/>
     </row>
-    <row r="449" spans="2:10" ht="12.75">
+    <row r="449" spans="2:10" ht="13.2">
       <c r="B449" s="32"/>
       <c r="C449" s="32"/>
       <c r="D449" s="32"/>
@@ -6708,7 +7041,7 @@
       <c r="I449" s="33"/>
       <c r="J449" s="33"/>
     </row>
-    <row r="450" spans="2:10" ht="12.75">
+    <row r="450" spans="2:10" ht="13.2">
       <c r="B450" s="32"/>
       <c r="C450" s="32"/>
       <c r="D450" s="32"/>
@@ -6718,7 +7051,7 @@
       <c r="I450" s="33"/>
       <c r="J450" s="33"/>
     </row>
-    <row r="451" spans="2:10" ht="12.75">
+    <row r="451" spans="2:10" ht="13.2">
       <c r="B451" s="32"/>
       <c r="C451" s="32"/>
       <c r="D451" s="32"/>
@@ -6728,7 +7061,7 @@
       <c r="I451" s="33"/>
       <c r="J451" s="33"/>
     </row>
-    <row r="452" spans="2:10" ht="12.75">
+    <row r="452" spans="2:10" ht="13.2">
       <c r="B452" s="32"/>
       <c r="C452" s="32"/>
       <c r="D452" s="32"/>
@@ -6738,7 +7071,7 @@
       <c r="I452" s="33"/>
       <c r="J452" s="33"/>
     </row>
-    <row r="453" spans="2:10" ht="12.75">
+    <row r="453" spans="2:10" ht="13.2">
       <c r="B453" s="32"/>
       <c r="C453" s="32"/>
       <c r="D453" s="32"/>
@@ -6748,7 +7081,7 @@
       <c r="I453" s="33"/>
       <c r="J453" s="33"/>
     </row>
-    <row r="454" spans="2:10" ht="12.75">
+    <row r="454" spans="2:10" ht="13.2">
       <c r="B454" s="32"/>
       <c r="C454" s="32"/>
       <c r="D454" s="32"/>
@@ -6758,7 +7091,7 @@
       <c r="I454" s="33"/>
       <c r="J454" s="33"/>
     </row>
-    <row r="455" spans="2:10" ht="12.75">
+    <row r="455" spans="2:10" ht="13.2">
       <c r="B455" s="32"/>
       <c r="C455" s="32"/>
       <c r="D455" s="32"/>
@@ -6768,7 +7101,7 @@
       <c r="I455" s="33"/>
       <c r="J455" s="33"/>
     </row>
-    <row r="456" spans="2:10" ht="12.75">
+    <row r="456" spans="2:10" ht="13.2">
       <c r="B456" s="32"/>
       <c r="C456" s="32"/>
       <c r="D456" s="32"/>
@@ -6778,7 +7111,7 @@
       <c r="I456" s="33"/>
       <c r="J456" s="33"/>
     </row>
-    <row r="457" spans="2:10" ht="12.75">
+    <row r="457" spans="2:10" ht="13.2">
       <c r="B457" s="32"/>
       <c r="C457" s="32"/>
       <c r="D457" s="32"/>
@@ -6788,7 +7121,7 @@
       <c r="I457" s="33"/>
       <c r="J457" s="33"/>
     </row>
-    <row r="458" spans="2:10" ht="12.75">
+    <row r="458" spans="2:10" ht="13.2">
       <c r="B458" s="32"/>
       <c r="C458" s="32"/>
       <c r="D458" s="32"/>
@@ -6798,7 +7131,7 @@
       <c r="I458" s="33"/>
       <c r="J458" s="33"/>
     </row>
-    <row r="459" spans="2:10" ht="12.75">
+    <row r="459" spans="2:10" ht="13.2">
       <c r="B459" s="32"/>
       <c r="C459" s="32"/>
       <c r="D459" s="32"/>
@@ -6808,7 +7141,7 @@
       <c r="I459" s="33"/>
       <c r="J459" s="33"/>
     </row>
-    <row r="460" spans="2:10" ht="12.75">
+    <row r="460" spans="2:10" ht="13.2">
       <c r="B460" s="32"/>
       <c r="C460" s="32"/>
       <c r="D460" s="32"/>
@@ -6818,7 +7151,7 @@
       <c r="I460" s="33"/>
       <c r="J460" s="33"/>
     </row>
-    <row r="461" spans="2:10" ht="12.75">
+    <row r="461" spans="2:10" ht="13.2">
       <c r="B461" s="32"/>
       <c r="C461" s="32"/>
       <c r="D461" s="32"/>
@@ -6828,7 +7161,7 @@
       <c r="I461" s="33"/>
       <c r="J461" s="33"/>
     </row>
-    <row r="462" spans="2:10" ht="12.75">
+    <row r="462" spans="2:10" ht="13.2">
       <c r="B462" s="32"/>
       <c r="C462" s="32"/>
       <c r="D462" s="32"/>
@@ -6838,7 +7171,7 @@
       <c r="I462" s="33"/>
       <c r="J462" s="33"/>
     </row>
-    <row r="463" spans="2:10" ht="12.75">
+    <row r="463" spans="2:10" ht="13.2">
       <c r="B463" s="32"/>
       <c r="C463" s="32"/>
       <c r="D463" s="32"/>
@@ -6848,7 +7181,7 @@
       <c r="I463" s="33"/>
       <c r="J463" s="33"/>
     </row>
-    <row r="464" spans="2:10" ht="12.75">
+    <row r="464" spans="2:10" ht="13.2">
       <c r="B464" s="32"/>
       <c r="C464" s="32"/>
       <c r="D464" s="32"/>
@@ -6858,7 +7191,7 @@
       <c r="I464" s="33"/>
       <c r="J464" s="33"/>
     </row>
-    <row r="465" spans="2:10" ht="12.75">
+    <row r="465" spans="2:10" ht="13.2">
       <c r="B465" s="32"/>
       <c r="C465" s="32"/>
       <c r="D465" s="32"/>
@@ -6868,7 +7201,7 @@
       <c r="I465" s="33"/>
       <c r="J465" s="33"/>
     </row>
-    <row r="466" spans="2:10" ht="12.75">
+    <row r="466" spans="2:10" ht="13.2">
       <c r="B466" s="32"/>
       <c r="C466" s="32"/>
       <c r="D466" s="32"/>
@@ -6878,7 +7211,7 @@
       <c r="I466" s="33"/>
       <c r="J466" s="33"/>
     </row>
-    <row r="467" spans="2:10" ht="12.75">
+    <row r="467" spans="2:10" ht="13.2">
       <c r="B467" s="32"/>
       <c r="C467" s="32"/>
       <c r="D467" s="32"/>
@@ -6888,7 +7221,7 @@
       <c r="I467" s="33"/>
       <c r="J467" s="33"/>
     </row>
-    <row r="468" spans="2:10" ht="12.75">
+    <row r="468" spans="2:10" ht="13.2">
       <c r="B468" s="32"/>
       <c r="C468" s="32"/>
       <c r="D468" s="32"/>
@@ -6898,7 +7231,7 @@
       <c r="I468" s="33"/>
       <c r="J468" s="33"/>
     </row>
-    <row r="469" spans="2:10" ht="12.75">
+    <row r="469" spans="2:10" ht="13.2">
       <c r="B469" s="32"/>
       <c r="C469" s="32"/>
       <c r="D469" s="32"/>
@@ -6908,7 +7241,7 @@
       <c r="I469" s="33"/>
       <c r="J469" s="33"/>
     </row>
-    <row r="470" spans="2:10" ht="12.75">
+    <row r="470" spans="2:10" ht="13.2">
       <c r="B470" s="32"/>
       <c r="C470" s="32"/>
       <c r="D470" s="32"/>
@@ -6918,7 +7251,7 @@
       <c r="I470" s="33"/>
       <c r="J470" s="33"/>
     </row>
-    <row r="471" spans="2:10" ht="12.75">
+    <row r="471" spans="2:10" ht="13.2">
       <c r="B471" s="32"/>
       <c r="C471" s="32"/>
       <c r="D471" s="32"/>
@@ -6928,7 +7261,7 @@
       <c r="I471" s="33"/>
       <c r="J471" s="33"/>
     </row>
-    <row r="472" spans="2:10" ht="12.75">
+    <row r="472" spans="2:10" ht="13.2">
       <c r="B472" s="32"/>
       <c r="C472" s="32"/>
       <c r="D472" s="32"/>
@@ -6938,7 +7271,7 @@
       <c r="I472" s="33"/>
       <c r="J472" s="33"/>
     </row>
-    <row r="473" spans="2:10" ht="12.75">
+    <row r="473" spans="2:10" ht="13.2">
       <c r="B473" s="32"/>
       <c r="C473" s="32"/>
       <c r="D473" s="32"/>
@@ -6948,7 +7281,7 @@
       <c r="I473" s="33"/>
       <c r="J473" s="33"/>
     </row>
-    <row r="474" spans="2:10" ht="12.75">
+    <row r="474" spans="2:10" ht="13.2">
       <c r="B474" s="32"/>
       <c r="C474" s="32"/>
       <c r="D474" s="32"/>
@@ -6958,7 +7291,7 @@
       <c r="I474" s="33"/>
       <c r="J474" s="33"/>
     </row>
-    <row r="475" spans="2:10" ht="12.75">
+    <row r="475" spans="2:10" ht="13.2">
       <c r="B475" s="32"/>
       <c r="C475" s="32"/>
       <c r="D475" s="32"/>
@@ -6968,7 +7301,7 @@
       <c r="I475" s="33"/>
       <c r="J475" s="33"/>
     </row>
-    <row r="476" spans="2:10" ht="12.75">
+    <row r="476" spans="2:10" ht="13.2">
       <c r="B476" s="32"/>
       <c r="C476" s="32"/>
       <c r="D476" s="32"/>
@@ -6978,7 +7311,7 @@
       <c r="I476" s="33"/>
       <c r="J476" s="33"/>
     </row>
-    <row r="477" spans="2:10" ht="12.75">
+    <row r="477" spans="2:10" ht="13.2">
       <c r="B477" s="32"/>
       <c r="C477" s="32"/>
       <c r="D477" s="32"/>
@@ -6988,7 +7321,7 @@
       <c r="I477" s="33"/>
       <c r="J477" s="33"/>
     </row>
-    <row r="478" spans="2:10" ht="12.75">
+    <row r="478" spans="2:10" ht="13.2">
       <c r="B478" s="32"/>
       <c r="C478" s="32"/>
       <c r="D478" s="32"/>
@@ -6998,7 +7331,7 @@
       <c r="I478" s="33"/>
       <c r="J478" s="33"/>
     </row>
-    <row r="479" spans="2:10" ht="12.75">
+    <row r="479" spans="2:10" ht="13.2">
       <c r="B479" s="32"/>
       <c r="C479" s="32"/>
       <c r="D479" s="32"/>
@@ -7008,7 +7341,7 @@
       <c r="I479" s="33"/>
       <c r="J479" s="33"/>
     </row>
-    <row r="480" spans="2:10" ht="12.75">
+    <row r="480" spans="2:10" ht="13.2">
       <c r="B480" s="32"/>
       <c r="C480" s="32"/>
       <c r="D480" s="32"/>
@@ -7018,7 +7351,7 @@
       <c r="I480" s="33"/>
       <c r="J480" s="33"/>
     </row>
-    <row r="481" spans="2:10" ht="12.75">
+    <row r="481" spans="2:10" ht="13.2">
       <c r="B481" s="32"/>
       <c r="C481" s="32"/>
       <c r="D481" s="32"/>
@@ -7028,7 +7361,7 @@
       <c r="I481" s="33"/>
       <c r="J481" s="33"/>
     </row>
-    <row r="482" spans="2:10" ht="12.75">
+    <row r="482" spans="2:10" ht="13.2">
       <c r="B482" s="32"/>
       <c r="C482" s="32"/>
       <c r="D482" s="32"/>
@@ -7038,7 +7371,7 @@
       <c r="I482" s="33"/>
       <c r="J482" s="33"/>
     </row>
-    <row r="483" spans="2:10" ht="12.75">
+    <row r="483" spans="2:10" ht="13.2">
       <c r="B483" s="32"/>
       <c r="C483" s="32"/>
       <c r="D483" s="32"/>
@@ -7048,7 +7381,7 @@
       <c r="I483" s="33"/>
       <c r="J483" s="33"/>
     </row>
-    <row r="484" spans="2:10" ht="12.75">
+    <row r="484" spans="2:10" ht="13.2">
       <c r="B484" s="32"/>
       <c r="C484" s="32"/>
       <c r="D484" s="32"/>
@@ -7058,7 +7391,7 @@
       <c r="I484" s="33"/>
       <c r="J484" s="33"/>
     </row>
-    <row r="485" spans="2:10" ht="12.75">
+    <row r="485" spans="2:10" ht="13.2">
       <c r="B485" s="32"/>
       <c r="C485" s="32"/>
       <c r="D485" s="32"/>
@@ -7068,7 +7401,7 @@
       <c r="I485" s="33"/>
       <c r="J485" s="33"/>
     </row>
-    <row r="486" spans="2:10" ht="12.75">
+    <row r="486" spans="2:10" ht="13.2">
       <c r="B486" s="32"/>
       <c r="C486" s="32"/>
       <c r="D486" s="32"/>
@@ -7078,7 +7411,7 @@
       <c r="I486" s="33"/>
       <c r="J486" s="33"/>
     </row>
-    <row r="487" spans="2:10" ht="12.75">
+    <row r="487" spans="2:10" ht="13.2">
       <c r="B487" s="32"/>
       <c r="C487" s="32"/>
       <c r="D487" s="32"/>
@@ -7088,7 +7421,7 @@
       <c r="I487" s="33"/>
       <c r="J487" s="33"/>
     </row>
-    <row r="488" spans="2:10" ht="12.75">
+    <row r="488" spans="2:10" ht="13.2">
       <c r="B488" s="32"/>
       <c r="C488" s="32"/>
       <c r="D488" s="32"/>
@@ -7098,7 +7431,7 @@
       <c r="I488" s="33"/>
       <c r="J488" s="33"/>
     </row>
-    <row r="489" spans="2:10" ht="12.75">
+    <row r="489" spans="2:10" ht="13.2">
       <c r="B489" s="32"/>
       <c r="C489" s="32"/>
       <c r="D489" s="32"/>
@@ -7108,7 +7441,7 @@
       <c r="I489" s="33"/>
       <c r="J489" s="33"/>
     </row>
-    <row r="490" spans="2:10" ht="12.75">
+    <row r="490" spans="2:10" ht="13.2">
       <c r="B490" s="32"/>
       <c r="C490" s="32"/>
       <c r="D490" s="32"/>
@@ -7118,7 +7451,7 @@
       <c r="I490" s="33"/>
       <c r="J490" s="33"/>
     </row>
-    <row r="491" spans="2:10" ht="12.75">
+    <row r="491" spans="2:10" ht="13.2">
       <c r="B491" s="32"/>
       <c r="C491" s="32"/>
       <c r="D491" s="32"/>
@@ -7128,7 +7461,7 @@
       <c r="I491" s="33"/>
       <c r="J491" s="33"/>
     </row>
-    <row r="492" spans="2:10" ht="12.75">
+    <row r="492" spans="2:10" ht="13.2">
       <c r="B492" s="32"/>
       <c r="C492" s="32"/>
       <c r="D492" s="32"/>
@@ -7138,7 +7471,7 @@
       <c r="I492" s="33"/>
       <c r="J492" s="33"/>
     </row>
-    <row r="493" spans="2:10" ht="12.75">
+    <row r="493" spans="2:10" ht="13.2">
       <c r="B493" s="32"/>
       <c r="C493" s="32"/>
       <c r="D493" s="32"/>
@@ -7148,7 +7481,7 @@
       <c r="I493" s="33"/>
       <c r="J493" s="33"/>
     </row>
-    <row r="494" spans="2:10" ht="12.75">
+    <row r="494" spans="2:10" ht="13.2">
       <c r="B494" s="32"/>
       <c r="C494" s="32"/>
       <c r="D494" s="32"/>
@@ -7158,7 +7491,7 @@
       <c r="I494" s="33"/>
       <c r="J494" s="33"/>
     </row>
-    <row r="495" spans="2:10" ht="12.75">
+    <row r="495" spans="2:10" ht="13.2">
       <c r="B495" s="32"/>
       <c r="C495" s="32"/>
       <c r="D495" s="32"/>
@@ -7168,7 +7501,7 @@
       <c r="I495" s="33"/>
       <c r="J495" s="33"/>
     </row>
-    <row r="496" spans="2:10" ht="12.75">
+    <row r="496" spans="2:10" ht="13.2">
       <c r="B496" s="32"/>
       <c r="C496" s="32"/>
       <c r="D496" s="32"/>
@@ -7178,7 +7511,7 @@
       <c r="I496" s="33"/>
       <c r="J496" s="33"/>
     </row>
-    <row r="497" spans="2:10" ht="12.75">
+    <row r="497" spans="2:10" ht="13.2">
       <c r="B497" s="32"/>
       <c r="C497" s="32"/>
       <c r="D497" s="32"/>
@@ -7188,7 +7521,7 @@
       <c r="I497" s="33"/>
       <c r="J497" s="33"/>
     </row>
-    <row r="498" spans="2:10" ht="12.75">
+    <row r="498" spans="2:10" ht="13.2">
       <c r="B498" s="32"/>
       <c r="C498" s="32"/>
       <c r="D498" s="32"/>
@@ -7198,7 +7531,7 @@
       <c r="I498" s="33"/>
       <c r="J498" s="33"/>
     </row>
-    <row r="499" spans="2:10" ht="12.75">
+    <row r="499" spans="2:10" ht="13.2">
       <c r="B499" s="32"/>
       <c r="C499" s="32"/>
       <c r="D499" s="32"/>
@@ -7208,7 +7541,7 @@
       <c r="I499" s="33"/>
       <c r="J499" s="33"/>
     </row>
-    <row r="500" spans="2:10" ht="12.75">
+    <row r="500" spans="2:10" ht="13.2">
       <c r="B500" s="32"/>
       <c r="C500" s="32"/>
       <c r="D500" s="32"/>
@@ -7218,7 +7551,7 @@
       <c r="I500" s="33"/>
       <c r="J500" s="33"/>
     </row>
-    <row r="501" spans="2:10" ht="12.75">
+    <row r="501" spans="2:10" ht="13.2">
       <c r="B501" s="32"/>
       <c r="C501" s="32"/>
       <c r="D501" s="32"/>
@@ -7228,7 +7561,7 @@
       <c r="I501" s="33"/>
       <c r="J501" s="33"/>
     </row>
-    <row r="502" spans="2:10" ht="12.75">
+    <row r="502" spans="2:10" ht="13.2">
       <c r="B502" s="32"/>
       <c r="C502" s="32"/>
       <c r="D502" s="32"/>
@@ -7238,7 +7571,7 @@
       <c r="I502" s="33"/>
       <c r="J502" s="33"/>
     </row>
-    <row r="503" spans="2:10" ht="12.75">
+    <row r="503" spans="2:10" ht="13.2">
       <c r="B503" s="32"/>
       <c r="C503" s="32"/>
       <c r="D503" s="32"/>
@@ -7248,7 +7581,7 @@
       <c r="I503" s="33"/>
       <c r="J503" s="33"/>
     </row>
-    <row r="504" spans="2:10" ht="12.75">
+    <row r="504" spans="2:10" ht="13.2">
       <c r="B504" s="32"/>
       <c r="C504" s="32"/>
       <c r="D504" s="32"/>
@@ -7258,7 +7591,7 @@
       <c r="I504" s="33"/>
       <c r="J504" s="33"/>
     </row>
-    <row r="505" spans="2:10" ht="12.75">
+    <row r="505" spans="2:10" ht="13.2">
       <c r="B505" s="32"/>
       <c r="C505" s="32"/>
       <c r="D505" s="32"/>
@@ -7268,7 +7601,7 @@
       <c r="I505" s="33"/>
       <c r="J505" s="33"/>
     </row>
-    <row r="506" spans="2:10" ht="12.75">
+    <row r="506" spans="2:10" ht="13.2">
       <c r="B506" s="32"/>
       <c r="C506" s="32"/>
       <c r="D506" s="32"/>
@@ -7278,7 +7611,7 @@
       <c r="I506" s="33"/>
       <c r="J506" s="33"/>
     </row>
-    <row r="507" spans="2:10" ht="12.75">
+    <row r="507" spans="2:10" ht="13.2">
       <c r="B507" s="32"/>
       <c r="C507" s="32"/>
       <c r="D507" s="32"/>
@@ -7288,7 +7621,7 @@
       <c r="I507" s="33"/>
       <c r="J507" s="33"/>
     </row>
-    <row r="508" spans="2:10" ht="12.75">
+    <row r="508" spans="2:10" ht="13.2">
       <c r="B508" s="32"/>
       <c r="C508" s="32"/>
       <c r="D508" s="32"/>
@@ -7298,7 +7631,7 @@
       <c r="I508" s="33"/>
       <c r="J508" s="33"/>
     </row>
-    <row r="509" spans="2:10" ht="12.75">
+    <row r="509" spans="2:10" ht="13.2">
       <c r="B509" s="32"/>
       <c r="C509" s="32"/>
       <c r="D509" s="32"/>
@@ -7308,7 +7641,7 @@
       <c r="I509" s="33"/>
       <c r="J509" s="33"/>
     </row>
-    <row r="510" spans="2:10" ht="12.75">
+    <row r="510" spans="2:10" ht="13.2">
       <c r="B510" s="32"/>
       <c r="C510" s="32"/>
       <c r="D510" s="32"/>
@@ -7318,7 +7651,7 @@
       <c r="I510" s="33"/>
       <c r="J510" s="33"/>
     </row>
-    <row r="511" spans="2:10" ht="12.75">
+    <row r="511" spans="2:10" ht="13.2">
       <c r="B511" s="32"/>
       <c r="C511" s="32"/>
       <c r="D511" s="32"/>
@@ -7328,7 +7661,7 @@
       <c r="I511" s="33"/>
       <c r="J511" s="33"/>
     </row>
-    <row r="512" spans="2:10" ht="12.75">
+    <row r="512" spans="2:10" ht="13.2">
       <c r="B512" s="32"/>
       <c r="C512" s="32"/>
       <c r="D512" s="32"/>
@@ -7338,7 +7671,7 @@
       <c r="I512" s="33"/>
       <c r="J512" s="33"/>
     </row>
-    <row r="513" spans="2:10" ht="12.75">
+    <row r="513" spans="2:10" ht="13.2">
       <c r="B513" s="32"/>
       <c r="C513" s="32"/>
       <c r="D513" s="32"/>
@@ -7348,7 +7681,7 @@
       <c r="I513" s="33"/>
       <c r="J513" s="33"/>
     </row>
-    <row r="514" spans="2:10" ht="12.75">
+    <row r="514" spans="2:10" ht="13.2">
       <c r="B514" s="32"/>
       <c r="C514" s="32"/>
       <c r="D514" s="32"/>
@@ -7358,7 +7691,7 @@
       <c r="I514" s="33"/>
       <c r="J514" s="33"/>
     </row>
-    <row r="515" spans="2:10" ht="12.75">
+    <row r="515" spans="2:10" ht="13.2">
       <c r="B515" s="32"/>
       <c r="C515" s="32"/>
       <c r="D515" s="32"/>
@@ -7368,7 +7701,7 @@
       <c r="I515" s="33"/>
       <c r="J515" s="33"/>
     </row>
-    <row r="516" spans="2:10" ht="12.75">
+    <row r="516" spans="2:10" ht="13.2">
       <c r="B516" s="32"/>
       <c r="C516" s="32"/>
       <c r="D516" s="32"/>
@@ -7378,7 +7711,7 @@
       <c r="I516" s="33"/>
       <c r="J516" s="33"/>
     </row>
-    <row r="517" spans="2:10" ht="12.75">
+    <row r="517" spans="2:10" ht="13.2">
       <c r="B517" s="32"/>
       <c r="C517" s="32"/>
       <c r="D517" s="32"/>
@@ -7388,7 +7721,7 @@
       <c r="I517" s="33"/>
       <c r="J517" s="33"/>
     </row>
-    <row r="518" spans="2:10" ht="12.75">
+    <row r="518" spans="2:10" ht="13.2">
       <c r="B518" s="32"/>
       <c r="C518" s="32"/>
       <c r="D518" s="32"/>
@@ -7398,7 +7731,7 @@
       <c r="I518" s="33"/>
       <c r="J518" s="33"/>
     </row>
-    <row r="519" spans="2:10" ht="12.75">
+    <row r="519" spans="2:10" ht="13.2">
       <c r="B519" s="32"/>
       <c r="C519" s="32"/>
       <c r="D519" s="32"/>
@@ -7408,7 +7741,7 @@
       <c r="I519" s="33"/>
       <c r="J519" s="33"/>
     </row>
-    <row r="520" spans="2:10" ht="12.75">
+    <row r="520" spans="2:10" ht="13.2">
       <c r="B520" s="32"/>
       <c r="C520" s="32"/>
       <c r="D520" s="32"/>
@@ -7418,7 +7751,7 @@
       <c r="I520" s="33"/>
       <c r="J520" s="33"/>
     </row>
-    <row r="521" spans="2:10" ht="12.75">
+    <row r="521" spans="2:10" ht="13.2">
       <c r="B521" s="32"/>
       <c r="C521" s="32"/>
       <c r="D521" s="32"/>
@@ -7428,7 +7761,7 @@
       <c r="I521" s="33"/>
       <c r="J521" s="33"/>
     </row>
-    <row r="522" spans="2:10" ht="12.75">
+    <row r="522" spans="2:10" ht="13.2">
       <c r="B522" s="32"/>
       <c r="C522" s="32"/>
       <c r="D522" s="32"/>
@@ -7438,7 +7771,7 @@
       <c r="I522" s="33"/>
       <c r="J522" s="33"/>
     </row>
-    <row r="523" spans="2:10" ht="12.75">
+    <row r="523" spans="2:10" ht="13.2">
       <c r="B523" s="32"/>
       <c r="C523" s="32"/>
       <c r="D523" s="32"/>
@@ -7448,7 +7781,7 @@
       <c r="I523" s="33"/>
       <c r="J523" s="33"/>
     </row>
-    <row r="524" spans="2:10" ht="12.75">
+    <row r="524" spans="2:10" ht="13.2">
       <c r="B524" s="32"/>
       <c r="C524" s="32"/>
       <c r="D524" s="32"/>
@@ -7458,7 +7791,7 @@
       <c r="I524" s="33"/>
       <c r="J524" s="33"/>
     </row>
-    <row r="525" spans="2:10" ht="12.75">
+    <row r="525" spans="2:10" ht="13.2">
       <c r="B525" s="32"/>
       <c r="C525" s="32"/>
       <c r="D525" s="32"/>
@@ -7468,7 +7801,7 @@
       <c r="I525" s="33"/>
       <c r="J525" s="33"/>
     </row>
-    <row r="526" spans="2:10" ht="12.75">
+    <row r="526" spans="2:10" ht="13.2">
       <c r="B526" s="32"/>
       <c r="C526" s="32"/>
       <c r="D526" s="32"/>
@@ -7478,7 +7811,7 @@
       <c r="I526" s="33"/>
       <c r="J526" s="33"/>
     </row>
-    <row r="527" spans="2:10" ht="12.75">
+    <row r="527" spans="2:10" ht="13.2">
       <c r="B527" s="32"/>
       <c r="C527" s="32"/>
       <c r="D527" s="32"/>
@@ -7488,7 +7821,7 @@
       <c r="I527" s="33"/>
       <c r="J527" s="33"/>
     </row>
-    <row r="528" spans="2:10" ht="12.75">
+    <row r="528" spans="2:10" ht="13.2">
       <c r="B528" s="32"/>
       <c r="C528" s="32"/>
       <c r="D528" s="32"/>
@@ -7498,7 +7831,7 @@
       <c r="I528" s="33"/>
       <c r="J528" s="33"/>
     </row>
-    <row r="529" spans="2:10" ht="12.75">
+    <row r="529" spans="2:10" ht="13.2">
       <c r="B529" s="32"/>
       <c r="C529" s="32"/>
       <c r="D529" s="32"/>
@@ -7508,7 +7841,7 @@
       <c r="I529" s="33"/>
       <c r="J529" s="33"/>
     </row>
-    <row r="530" spans="2:10" ht="12.75">
+    <row r="530" spans="2:10" ht="13.2">
       <c r="B530" s="32"/>
       <c r="C530" s="32"/>
       <c r="D530" s="32"/>
@@ -7518,7 +7851,7 @@
       <c r="I530" s="33"/>
       <c r="J530" s="33"/>
     </row>
-    <row r="531" spans="2:10" ht="12.75">
+    <row r="531" spans="2:10" ht="13.2">
       <c r="B531" s="32"/>
       <c r="C531" s="32"/>
       <c r="D531" s="32"/>
@@ -7528,7 +7861,7 @@
       <c r="I531" s="33"/>
       <c r="J531" s="33"/>
     </row>
-    <row r="532" spans="2:10" ht="12.75">
+    <row r="532" spans="2:10" ht="13.2">
       <c r="B532" s="32"/>
       <c r="C532" s="32"/>
       <c r="D532" s="32"/>
@@ -7538,7 +7871,7 @@
       <c r="I532" s="33"/>
       <c r="J532" s="33"/>
     </row>
-    <row r="533" spans="2:10" ht="12.75">
+    <row r="533" spans="2:10" ht="13.2">
       <c r="B533" s="32"/>
       <c r="C533" s="32"/>
       <c r="D533" s="32"/>
@@ -7548,7 +7881,7 @@
       <c r="I533" s="33"/>
       <c r="J533" s="33"/>
     </row>
-    <row r="534" spans="2:10" ht="12.75">
+    <row r="534" spans="2:10" ht="13.2">
       <c r="B534" s="32"/>
       <c r="C534" s="32"/>
       <c r="D534" s="32"/>
@@ -7558,7 +7891,7 @@
       <c r="I534" s="33"/>
       <c r="J534" s="33"/>
     </row>
-    <row r="535" spans="2:10" ht="12.75">
+    <row r="535" spans="2:10" ht="13.2">
       <c r="B535" s="32"/>
       <c r="C535" s="32"/>
       <c r="D535" s="32"/>
@@ -7568,7 +7901,7 @@
       <c r="I535" s="33"/>
       <c r="J535" s="33"/>
     </row>
-    <row r="536" spans="2:10" ht="12.75">
+    <row r="536" spans="2:10" ht="13.2">
       <c r="B536" s="32"/>
       <c r="C536" s="32"/>
       <c r="D536" s="32"/>
@@ -7578,7 +7911,7 @@
       <c r="I536" s="33"/>
       <c r="J536" s="33"/>
     </row>
-    <row r="537" spans="2:10" ht="12.75">
+    <row r="537" spans="2:10" ht="13.2">
       <c r="B537" s="32"/>
       <c r="C537" s="32"/>
       <c r="D537" s="32"/>
@@ -7588,7 +7921,7 @@
       <c r="I537" s="33"/>
       <c r="J537" s="33"/>
     </row>
-    <row r="538" spans="2:10" ht="12.75">
+    <row r="538" spans="2:10" ht="13.2">
       <c r="B538" s="32"/>
       <c r="C538" s="32"/>
       <c r="D538" s="32"/>
@@ -7598,7 +7931,7 @@
       <c r="I538" s="33"/>
       <c r="J538" s="33"/>
     </row>
-    <row r="539" spans="2:10" ht="12.75">
+    <row r="539" spans="2:10" ht="13.2">
       <c r="B539" s="32"/>
       <c r="C539" s="32"/>
       <c r="D539" s="32"/>
@@ -7608,7 +7941,7 @@
       <c r="I539" s="33"/>
       <c r="J539" s="33"/>
     </row>
-    <row r="540" spans="2:10" ht="12.75">
+    <row r="540" spans="2:10" ht="13.2">
       <c r="B540" s="32"/>
       <c r="C540" s="32"/>
       <c r="D540" s="32"/>
@@ -7618,7 +7951,7 @@
       <c r="I540" s="33"/>
       <c r="J540" s="33"/>
     </row>
-    <row r="541" spans="2:10" ht="12.75">
+    <row r="541" spans="2:10" ht="13.2">
       <c r="B541" s="32"/>
       <c r="C541" s="32"/>
       <c r="D541" s="32"/>
@@ -7628,7 +7961,7 @@
       <c r="I541" s="33"/>
       <c r="J541" s="33"/>
     </row>
-    <row r="542" spans="2:10" ht="12.75">
+    <row r="542" spans="2:10" ht="13.2">
       <c r="B542" s="32"/>
       <c r="C542" s="32"/>
       <c r="D542" s="32"/>
@@ -7638,7 +7971,7 @@
       <c r="I542" s="33"/>
       <c r="J542" s="33"/>
     </row>
-    <row r="543" spans="2:10" ht="12.75">
+    <row r="543" spans="2:10" ht="13.2">
       <c r="B543" s="32"/>
       <c r="C543" s="32"/>
       <c r="D543" s="32"/>
@@ -7648,7 +7981,7 @@
       <c r="I543" s="33"/>
       <c r="J543" s="33"/>
     </row>
-    <row r="544" spans="2:10" ht="12.75">
+    <row r="544" spans="2:10" ht="13.2">
       <c r="B544" s="32"/>
       <c r="C544" s="32"/>
       <c r="D544" s="32"/>
@@ -7658,7 +7991,7 @@
       <c r="I544" s="33"/>
       <c r="J544" s="33"/>
     </row>
-    <row r="545" spans="2:10" ht="12.75">
+    <row r="545" spans="2:10" ht="13.2">
       <c r="B545" s="32"/>
       <c r="C545" s="32"/>
       <c r="D545" s="32"/>
@@ -7668,7 +8001,7 @@
       <c r="I545" s="33"/>
       <c r="J545" s="33"/>
     </row>
-    <row r="546" spans="2:10" ht="12.75">
+    <row r="546" spans="2:10" ht="13.2">
       <c r="B546" s="32"/>
       <c r="C546" s="32"/>
       <c r="D546" s="32"/>
@@ -7678,7 +8011,7 @@
       <c r="I546" s="33"/>
       <c r="J546" s="33"/>
     </row>
-    <row r="547" spans="2:10" ht="12.75">
+    <row r="547" spans="2:10" ht="13.2">
       <c r="B547" s="32"/>
       <c r="C547" s="32"/>
       <c r="D547" s="32"/>
@@ -7688,7 +8021,7 @@
       <c r="I547" s="33"/>
       <c r="J547" s="33"/>
     </row>
-    <row r="548" spans="2:10" ht="12.75">
+    <row r="548" spans="2:10" ht="13.2">
       <c r="B548" s="32"/>
       <c r="C548" s="32"/>
       <c r="D548" s="32"/>
@@ -7698,7 +8031,7 @@
       <c r="I548" s="33"/>
       <c r="J548" s="33"/>
     </row>
-    <row r="549" spans="2:10" ht="12.75">
+    <row r="549" spans="2:10" ht="13.2">
       <c r="B549" s="32"/>
       <c r="C549" s="32"/>
       <c r="D549" s="32"/>
@@ -7708,7 +8041,7 @@
       <c r="I549" s="33"/>
       <c r="J549" s="33"/>
     </row>
-    <row r="550" spans="2:10" ht="12.75">
+    <row r="550" spans="2:10" ht="13.2">
       <c r="B550" s="32"/>
       <c r="C550" s="32"/>
       <c r="D550" s="32"/>
@@ -7718,7 +8051,7 @@
       <c r="I550" s="33"/>
       <c r="J550" s="33"/>
     </row>
-    <row r="551" spans="2:10" ht="12.75">
+    <row r="551" spans="2:10" ht="13.2">
       <c r="B551" s="32"/>
       <c r="C551" s="32"/>
       <c r="D551" s="32"/>
@@ -7728,7 +8061,7 @@
       <c r="I551" s="33"/>
       <c r="J551" s="33"/>
     </row>
-    <row r="552" spans="2:10" ht="12.75">
+    <row r="552" spans="2:10" ht="13.2">
       <c r="B552" s="32"/>
       <c r="C552" s="32"/>
       <c r="D552" s="32"/>
@@ -7738,7 +8071,7 @@
       <c r="I552" s="33"/>
       <c r="J552" s="33"/>
     </row>
-    <row r="553" spans="2:10" ht="12.75">
+    <row r="553" spans="2:10" ht="13.2">
       <c r="B553" s="32"/>
       <c r="C553" s="32"/>
       <c r="D553" s="32"/>
@@ -7748,7 +8081,7 @@
       <c r="I553" s="33"/>
       <c r="J553" s="33"/>
     </row>
-    <row r="554" spans="2:10" ht="12.75">
+    <row r="554" spans="2:10" ht="13.2">
       <c r="B554" s="32"/>
       <c r="C554" s="32"/>
       <c r="D554" s="32"/>
@@ -7758,7 +8091,7 @@
       <c r="I554" s="33"/>
       <c r="J554" s="33"/>
     </row>
-    <row r="555" spans="2:10" ht="12.75">
+    <row r="555" spans="2:10" ht="13.2">
       <c r="B555" s="32"/>
       <c r="C555" s="32"/>
       <c r="D555" s="32"/>
@@ -7768,7 +8101,7 @@
       <c r="I555" s="33"/>
       <c r="J555" s="33"/>
     </row>
-    <row r="556" spans="2:10" ht="12.75">
+    <row r="556" spans="2:10" ht="13.2">
       <c r="B556" s="32"/>
       <c r="C556" s="32"/>
       <c r="D556" s="32"/>
@@ -7778,7 +8111,7 @@
       <c r="I556" s="33"/>
       <c r="J556" s="33"/>
     </row>
-    <row r="557" spans="2:10" ht="12.75">
+    <row r="557" spans="2:10" ht="13.2">
       <c r="B557" s="32"/>
       <c r="C557" s="32"/>
       <c r="D557" s="32"/>
@@ -7788,7 +8121,7 @@
       <c r="I557" s="33"/>
       <c r="J557" s="33"/>
     </row>
-    <row r="558" spans="2:10" ht="12.75">
+    <row r="558" spans="2:10" ht="13.2">
       <c r="B558" s="32"/>
       <c r="C558" s="32"/>
       <c r="D558" s="32"/>
@@ -7798,7 +8131,7 @@
       <c r="I558" s="33"/>
       <c r="J558" s="33"/>
     </row>
-    <row r="559" spans="2:10" ht="12.75">
+    <row r="559" spans="2:10" ht="13.2">
       <c r="B559" s="32"/>
       <c r="C559" s="32"/>
       <c r="D559" s="32"/>
@@ -7808,7 +8141,7 @@
       <c r="I559" s="33"/>
       <c r="J559" s="33"/>
     </row>
-    <row r="560" spans="2:10" ht="12.75">
+    <row r="560" spans="2:10" ht="13.2">
       <c r="B560" s="32"/>
       <c r="C560" s="32"/>
       <c r="D560" s="32"/>
@@ -7818,7 +8151,7 @@
       <c r="I560" s="33"/>
       <c r="J560" s="33"/>
     </row>
-    <row r="561" spans="2:10" ht="12.75">
+    <row r="561" spans="2:10" ht="13.2">
       <c r="B561" s="32"/>
       <c r="C561" s="32"/>
       <c r="D561" s="32"/>
@@ -7828,7 +8161,7 @@
       <c r="I561" s="33"/>
       <c r="J561" s="33"/>
     </row>
-    <row r="562" spans="2:10" ht="12.75">
+    <row r="562" spans="2:10" ht="13.2">
       <c r="B562" s="32"/>
       <c r="C562" s="32"/>
       <c r="D562" s="32"/>
@@ -7838,7 +8171,7 @@
       <c r="I562" s="33"/>
       <c r="J562" s="33"/>
     </row>
-    <row r="563" spans="2:10" ht="12.75">
+    <row r="563" spans="2:10" ht="13.2">
       <c r="B563" s="32"/>
       <c r="C563" s="32"/>
       <c r="D563" s="32"/>
@@ -7848,7 +8181,7 @@
       <c r="I563" s="33"/>
       <c r="J563" s="33"/>
     </row>
-    <row r="564" spans="2:10" ht="12.75">
+    <row r="564" spans="2:10" ht="13.2">
       <c r="B564" s="32"/>
       <c r="C564" s="32"/>
       <c r="D564" s="32"/>
@@ -7858,7 +8191,7 @@
       <c r="I564" s="33"/>
       <c r="J564" s="33"/>
     </row>
-    <row r="565" spans="2:10" ht="12.75">
+    <row r="565" spans="2:10" ht="13.2">
       <c r="B565" s="32"/>
       <c r="C565" s="32"/>
       <c r="D565" s="32"/>
@@ -7868,7 +8201,7 @@
       <c r="I565" s="33"/>
       <c r="J565" s="33"/>
     </row>
-    <row r="566" spans="2:10" ht="12.75">
+    <row r="566" spans="2:10" ht="13.2">
       <c r="B566" s="32"/>
       <c r="C566" s="32"/>
       <c r="D566" s="32"/>
@@ -7878,7 +8211,7 @@
       <c r="I566" s="33"/>
       <c r="J566" s="33"/>
     </row>
-    <row r="567" spans="2:10" ht="12.75">
+    <row r="567" spans="2:10" ht="13.2">
       <c r="B567" s="32"/>
       <c r="C567" s="32"/>
       <c r="D567" s="32"/>
@@ -7888,7 +8221,7 @@
       <c r="I567" s="33"/>
       <c r="J567" s="33"/>
     </row>
-    <row r="568" spans="2:10" ht="12.75">
+    <row r="568" spans="2:10" ht="13.2">
       <c r="B568" s="32"/>
       <c r="C568" s="32"/>
       <c r="D568" s="32"/>
@@ -7898,7 +8231,7 @@
       <c r="I568" s="33"/>
       <c r="J568" s="33"/>
     </row>
-    <row r="569" spans="2:10" ht="12.75">
+    <row r="569" spans="2:10" ht="13.2">
       <c r="B569" s="32"/>
       <c r="C569" s="32"/>
       <c r="D569" s="32"/>
@@ -7908,7 +8241,7 @@
       <c r="I569" s="33"/>
       <c r="J569" s="33"/>
     </row>
-    <row r="570" spans="2:10" ht="12.75">
+    <row r="570" spans="2:10" ht="13.2">
       <c r="B570" s="32"/>
       <c r="C570" s="32"/>
       <c r="D570" s="32"/>
@@ -7918,7 +8251,7 @@
       <c r="I570" s="33"/>
       <c r="J570" s="33"/>
     </row>
-    <row r="571" spans="2:10" ht="12.75">
+    <row r="571" spans="2:10" ht="13.2">
       <c r="B571" s="32"/>
       <c r="C571" s="32"/>
       <c r="D571" s="32"/>
@@ -7928,7 +8261,7 @@
       <c r="I571" s="33"/>
       <c r="J571" s="33"/>
     </row>
-    <row r="572" spans="2:10" ht="12.75">
+    <row r="572" spans="2:10" ht="13.2">
       <c r="B572" s="32"/>
       <c r="C572" s="32"/>
       <c r="D572" s="32"/>
@@ -7938,7 +8271,7 @@
       <c r="I572" s="33"/>
       <c r="J572" s="33"/>
     </row>
-    <row r="573" spans="2:10" ht="12.75">
+    <row r="573" spans="2:10" ht="13.2">
       <c r="B573" s="32"/>
       <c r="C573" s="32"/>
       <c r="D573" s="32"/>
@@ -7948,7 +8281,7 @@
       <c r="I573" s="33"/>
       <c r="J573" s="33"/>
     </row>
-    <row r="574" spans="2:10" ht="12.75">
+    <row r="574" spans="2:10" ht="13.2">
       <c r="B574" s="32"/>
       <c r="C574" s="32"/>
       <c r="D574" s="32"/>
@@ -7958,7 +8291,7 @@
       <c r="I574" s="33"/>
       <c r="J574" s="33"/>
     </row>
-    <row r="575" spans="2:10" ht="12.75">
+    <row r="575" spans="2:10" ht="13.2">
       <c r="B575" s="32"/>
       <c r="C575" s="32"/>
       <c r="D575" s="32"/>
@@ -7968,7 +8301,7 @@
       <c r="I575" s="33"/>
       <c r="J575" s="33"/>
     </row>
-    <row r="576" spans="2:10" ht="12.75">
+    <row r="576" spans="2:10" ht="13.2">
       <c r="B576" s="32"/>
       <c r="C576" s="32"/>
       <c r="D576" s="32"/>
@@ -7978,7 +8311,7 @@
       <c r="I576" s="33"/>
       <c r="J576" s="33"/>
     </row>
-    <row r="577" spans="2:10" ht="12.75">
+    <row r="577" spans="2:10" ht="13.2">
       <c r="B577" s="32"/>
       <c r="C577" s="32"/>
       <c r="D577" s="32"/>
@@ -7988,7 +8321,7 @@
       <c r="I577" s="33"/>
       <c r="J577" s="33"/>
     </row>
-    <row r="578" spans="2:10" ht="12.75">
+    <row r="578" spans="2:10" ht="13.2">
       <c r="B578" s="32"/>
       <c r="C578" s="32"/>
       <c r="D578" s="32"/>
@@ -7998,7 +8331,7 @@
       <c r="I578" s="33"/>
       <c r="J578" s="33"/>
     </row>
-    <row r="579" spans="2:10" ht="12.75">
+    <row r="579" spans="2:10" ht="13.2">
       <c r="B579" s="32"/>
       <c r="C579" s="32"/>
       <c r="D579" s="32"/>
@@ -8008,7 +8341,7 @@
       <c r="I579" s="33"/>
       <c r="J579" s="33"/>
     </row>
-    <row r="580" spans="2:10" ht="12.75">
+    <row r="580" spans="2:10" ht="13.2">
       <c r="B580" s="32"/>
       <c r="C580" s="32"/>
       <c r="D580" s="32"/>
@@ -8018,7 +8351,7 @@
       <c r="I580" s="33"/>
       <c r="J580" s="33"/>
     </row>
-    <row r="581" spans="2:10" ht="12.75">
+    <row r="581" spans="2:10" ht="13.2">
       <c r="B581" s="32"/>
       <c r="C581" s="32"/>
       <c r="D581" s="32"/>
@@ -8028,7 +8361,7 @@
       <c r="I581" s="33"/>
       <c r="J581" s="33"/>
     </row>
-    <row r="582" spans="2:10" ht="12.75">
+    <row r="582" spans="2:10" ht="13.2">
       <c r="B582" s="32"/>
       <c r="C582" s="32"/>
       <c r="D582" s="32"/>
@@ -8038,7 +8371,7 @@
       <c r="I582" s="33"/>
       <c r="J582" s="33"/>
     </row>
-    <row r="583" spans="2:10" ht="12.75">
+    <row r="583" spans="2:10" ht="13.2">
       <c r="B583" s="32"/>
       <c r="C583" s="32"/>
       <c r="D583" s="32"/>
@@ -8048,7 +8381,7 @@
       <c r="I583" s="33"/>
       <c r="J583" s="33"/>
     </row>
-    <row r="584" spans="2:10" ht="12.75">
+    <row r="584" spans="2:10" ht="13.2">
       <c r="B584" s="32"/>
       <c r="C584" s="32"/>
       <c r="D584" s="32"/>
@@ -8058,7 +8391,7 @@
       <c r="I584" s="33"/>
       <c r="J584" s="33"/>
     </row>
-    <row r="585" spans="2:10" ht="12.75">
+    <row r="585" spans="2:10" ht="13.2">
       <c r="B585" s="32"/>
       <c r="C585" s="32"/>
       <c r="D585" s="32"/>
@@ -8068,7 +8401,7 @@
       <c r="I585" s="33"/>
       <c r="J585" s="33"/>
     </row>
-    <row r="586" spans="2:10" ht="12.75">
+    <row r="586" spans="2:10" ht="13.2">
       <c r="B586" s="32"/>
       <c r="C586" s="32"/>
       <c r="D586" s="32"/>
@@ -8078,7 +8411,7 @@
       <c r="I586" s="33"/>
       <c r="J586" s="33"/>
     </row>
-    <row r="587" spans="2:10" ht="12.75">
+    <row r="587" spans="2:10" ht="13.2">
       <c r="B587" s="32"/>
       <c r="C587" s="32"/>
       <c r="D587" s="32"/>
@@ -8088,7 +8421,7 @@
       <c r="I587" s="33"/>
       <c r="J587" s="33"/>
     </row>
-    <row r="588" spans="2:10" ht="12.75">
+    <row r="588" spans="2:10" ht="13.2">
       <c r="B588" s="32"/>
       <c r="C588" s="32"/>
       <c r="D588" s="32"/>
@@ -8098,7 +8431,7 @@
       <c r="I588" s="33"/>
       <c r="J588" s="33"/>
     </row>
-    <row r="589" spans="2:10" ht="12.75">
+    <row r="589" spans="2:10" ht="13.2">
       <c r="B589" s="32"/>
       <c r="C589" s="32"/>
       <c r="D589" s="32"/>
@@ -8108,7 +8441,7 @@
       <c r="I589" s="33"/>
       <c r="J589" s="33"/>
     </row>
-    <row r="590" spans="2:10" ht="12.75">
+    <row r="590" spans="2:10" ht="13.2">
       <c r="B590" s="32"/>
       <c r="C590" s="32"/>
       <c r="D590" s="32"/>
@@ -8118,7 +8451,7 @@
       <c r="I590" s="33"/>
       <c r="J590" s="33"/>
     </row>
-    <row r="591" spans="2:10" ht="12.75">
+    <row r="591" spans="2:10" ht="13.2">
       <c r="B591" s="32"/>
       <c r="C591" s="32"/>
       <c r="D591" s="32"/>
@@ -8128,7 +8461,7 @@
       <c r="I591" s="33"/>
       <c r="J591" s="33"/>
     </row>
-    <row r="592" spans="2:10" ht="12.75">
+    <row r="592" spans="2:10" ht="13.2">
       <c r="B592" s="32"/>
       <c r="C592" s="32"/>
       <c r="D592" s="32"/>
@@ -8138,7 +8471,7 @@
       <c r="I592" s="33"/>
       <c r="J592" s="33"/>
     </row>
-    <row r="593" spans="2:10" ht="12.75">
+    <row r="593" spans="2:10" ht="13.2">
       <c r="B593" s="32"/>
       <c r="C593" s="32"/>
       <c r="D593" s="32"/>
@@ -8148,7 +8481,7 @@
       <c r="I593" s="33"/>
       <c r="J593" s="33"/>
     </row>
-    <row r="594" spans="2:10" ht="12.75">
+    <row r="594" spans="2:10" ht="13.2">
       <c r="B594" s="32"/>
       <c r="C594" s="32"/>
       <c r="D594" s="32"/>
@@ -8158,7 +8491,7 @@
       <c r="I594" s="33"/>
       <c r="J594" s="33"/>
     </row>
-    <row r="595" spans="2:10" ht="12.75">
+    <row r="595" spans="2:10" ht="13.2">
       <c r="B595" s="32"/>
       <c r="C595" s="32"/>
       <c r="D595" s="32"/>
@@ -8168,7 +8501,7 @@
       <c r="I595" s="33"/>
       <c r="J595" s="33"/>
     </row>
-    <row r="596" spans="2:10" ht="12.75">
+    <row r="596" spans="2:10" ht="13.2">
       <c r="B596" s="32"/>
       <c r="C596" s="32"/>
       <c r="D596" s="32"/>
@@ -8178,7 +8511,7 @@
       <c r="I596" s="33"/>
       <c r="J596" s="33"/>
     </row>
-    <row r="597" spans="2:10" ht="12.75">
+    <row r="597" spans="2:10" ht="13.2">
       <c r="B597" s="32"/>
       <c r="C597" s="32"/>
       <c r="D597" s="32"/>
@@ -8188,7 +8521,7 @@
       <c r="I597" s="33"/>
       <c r="J597" s="33"/>
     </row>
-    <row r="598" spans="2:10" ht="12.75">
+    <row r="598" spans="2:10" ht="13.2">
       <c r="B598" s="32"/>
       <c r="C598" s="32"/>
       <c r="D598" s="32"/>
@@ -8198,7 +8531,7 @@
       <c r="I598" s="33"/>
       <c r="J598" s="33"/>
     </row>
-    <row r="599" spans="2:10" ht="12.75">
+    <row r="599" spans="2:10" ht="13.2">
       <c r="B599" s="32"/>
       <c r="C599" s="32"/>
       <c r="D599" s="32"/>
@@ -8208,7 +8541,7 @@
       <c r="I599" s="33"/>
       <c r="J599" s="33"/>
     </row>
-    <row r="600" spans="2:10" ht="12.75">
+    <row r="600" spans="2:10" ht="13.2">
       <c r="B600" s="32"/>
       <c r="C600" s="32"/>
       <c r="D600" s="32"/>
@@ -8218,7 +8551,7 @@
       <c r="I600" s="33"/>
       <c r="J600" s="33"/>
     </row>
-    <row r="601" spans="2:10" ht="12.75">
+    <row r="601" spans="2:10" ht="13.2">
       <c r="B601" s="32"/>
       <c r="C601" s="32"/>
       <c r="D601" s="32"/>
@@ -8228,7 +8561,7 @@
       <c r="I601" s="33"/>
       <c r="J601" s="33"/>
     </row>
-    <row r="602" spans="2:10" ht="12.75">
+    <row r="602" spans="2:10" ht="13.2">
       <c r="B602" s="32"/>
       <c r="C602" s="32"/>
       <c r="D602" s="32"/>
@@ -8238,7 +8571,7 @@
       <c r="I602" s="33"/>
       <c r="J602" s="33"/>
     </row>
-    <row r="603" spans="2:10" ht="12.75">
+    <row r="603" spans="2:10" ht="13.2">
       <c r="B603" s="32"/>
       <c r="C603" s="32"/>
       <c r="D603" s="32"/>
@@ -8248,7 +8581,7 @@
       <c r="I603" s="33"/>
       <c r="J603" s="33"/>
     </row>
-    <row r="604" spans="2:10" ht="12.75">
+    <row r="604" spans="2:10" ht="13.2">
       <c r="B604" s="32"/>
       <c r="C604" s="32"/>
       <c r="D604" s="32"/>
@@ -8258,7 +8591,7 @@
       <c r="I604" s="33"/>
       <c r="J604" s="33"/>
     </row>
-    <row r="605" spans="2:10" ht="12.75">
+    <row r="605" spans="2:10" ht="13.2">
       <c r="B605" s="32"/>
       <c r="C605" s="32"/>
       <c r="D605" s="32"/>
@@ -8268,7 +8601,7 @@
       <c r="I605" s="33"/>
       <c r="J605" s="33"/>
     </row>
-    <row r="606" spans="2:10" ht="12.75">
+    <row r="606" spans="2:10" ht="13.2">
       <c r="B606" s="32"/>
       <c r="C606" s="32"/>
       <c r="D606" s="32"/>
@@ -8278,7 +8611,7 @@
       <c r="I606" s="33"/>
       <c r="J606" s="33"/>
     </row>
-    <row r="607" spans="2:10" ht="12.75">
+    <row r="607" spans="2:10" ht="13.2">
       <c r="B607" s="32"/>
       <c r="C607" s="32"/>
       <c r="D607" s="32"/>
@@ -8288,7 +8621,7 @@
       <c r="I607" s="33"/>
       <c r="J607" s="33"/>
     </row>
-    <row r="608" spans="2:10" ht="12.75">
+    <row r="608" spans="2:10" ht="13.2">
       <c r="B608" s="32"/>
       <c r="C608" s="32"/>
       <c r="D608" s="32"/>
@@ -8298,7 +8631,7 @@
       <c r="I608" s="33"/>
       <c r="J608" s="33"/>
     </row>
-    <row r="609" spans="2:10" ht="12.75">
+    <row r="609" spans="2:10" ht="13.2">
       <c r="B609" s="32"/>
       <c r="C609" s="32"/>
       <c r="D609" s="32"/>
@@ -8308,7 +8641,7 @@
       <c r="I609" s="33"/>
       <c r="J609" s="33"/>
     </row>
-    <row r="610" spans="2:10" ht="12.75">
+    <row r="610" spans="2:10" ht="13.2">
       <c r="B610" s="32"/>
       <c r="C610" s="32"/>
       <c r="D610" s="32"/>
@@ -8318,7 +8651,7 @@
       <c r="I610" s="33"/>
       <c r="J610" s="33"/>
     </row>
-    <row r="611" spans="2:10" ht="12.75">
+    <row r="611" spans="2:10" ht="13.2">
       <c r="B611" s="32"/>
       <c r="C611" s="32"/>
       <c r="D611" s="32"/>
@@ -8328,7 +8661,7 @@
       <c r="I611" s="33"/>
       <c r="J611" s="33"/>
     </row>
-    <row r="612" spans="2:10" ht="12.75">
+    <row r="612" spans="2:10" ht="13.2">
       <c r="B612" s="32"/>
       <c r="C612" s="32"/>
       <c r="D612" s="32"/>
@@ -8338,7 +8671,7 @@
       <c r="I612" s="33"/>
       <c r="J612" s="33"/>
     </row>
-    <row r="613" spans="2:10" ht="12.75">
+    <row r="613" spans="2:10" ht="13.2">
       <c r="B613" s="32"/>
       <c r="C613" s="32"/>
       <c r="D613" s="32"/>
@@ -8348,7 +8681,7 @@
       <c r="I613" s="33"/>
       <c r="J613" s="33"/>
     </row>
-    <row r="614" spans="2:10" ht="12.75">
+    <row r="614" spans="2:10" ht="13.2">
       <c r="B614" s="32"/>
       <c r="C614" s="32"/>
       <c r="D614" s="32"/>
@@ -8358,7 +8691,7 @@
       <c r="I614" s="33"/>
       <c r="J614" s="33"/>
     </row>
-    <row r="615" spans="2:10" ht="12.75">
+    <row r="615" spans="2:10" ht="13.2">
       <c r="B615" s="32"/>
       <c r="C615" s="32"/>
       <c r="D615" s="32"/>
@@ -8368,7 +8701,7 @@
       <c r="I615" s="33"/>
       <c r="J615" s="33"/>
     </row>
-    <row r="616" spans="2:10" ht="12.75">
+    <row r="616" spans="2:10" ht="13.2">
       <c r="B616" s="32"/>
       <c r="C616" s="32"/>
       <c r="D616" s="32"/>
@@ -8378,7 +8711,7 @@
       <c r="I616" s="33"/>
       <c r="J616" s="33"/>
     </row>
-    <row r="617" spans="2:10" ht="12.75">
+    <row r="617" spans="2:10" ht="13.2">
       <c r="B617" s="32"/>
       <c r="C617" s="32"/>
       <c r="D617" s="32"/>
@@ -8388,7 +8721,7 @@
       <c r="I617" s="33"/>
       <c r="J617" s="33"/>
     </row>
-    <row r="618" spans="2:10" ht="12.75">
+    <row r="618" spans="2:10" ht="13.2">
       <c r="B618" s="32"/>
       <c r="C618" s="32"/>
       <c r="D618" s="32"/>
@@ -8398,7 +8731,7 @@
       <c r="I618" s="33"/>
       <c r="J618" s="33"/>
     </row>
-    <row r="619" spans="2:10" ht="12.75">
+    <row r="619" spans="2:10" ht="13.2">
       <c r="B619" s="32"/>
       <c r="C619" s="32"/>
       <c r="D619" s="32"/>
@@ -8408,7 +8741,7 @@
       <c r="I619" s="33"/>
       <c r="J619" s="33"/>
     </row>
-    <row r="620" spans="2:10" ht="12.75">
+    <row r="620" spans="2:10" ht="13.2">
       <c r="B620" s="32"/>
       <c r="C620" s="32"/>
       <c r="D620" s="32"/>
@@ -8418,7 +8751,7 @@
       <c r="I620" s="33"/>
       <c r="J620" s="33"/>
     </row>
-    <row r="621" spans="2:10" ht="12.75">
+    <row r="621" spans="2:10" ht="13.2">
       <c r="B621" s="32"/>
       <c r="C621" s="32"/>
       <c r="D621" s="32"/>
@@ -8428,7 +8761,7 @@
       <c r="I621" s="33"/>
       <c r="J621" s="33"/>
     </row>
-    <row r="622" spans="2:10" ht="12.75">
+    <row r="622" spans="2:10" ht="13.2">
       <c r="B622" s="32"/>
       <c r="C622" s="32"/>
       <c r="D622" s="32"/>
@@ -8438,7 +8771,7 @@
       <c r="I622" s="33"/>
       <c r="J622" s="33"/>
     </row>
-    <row r="623" spans="2:10" ht="12.75">
+    <row r="623" spans="2:10" ht="13.2">
       <c r="B623" s="32"/>
       <c r="C623" s="32"/>
       <c r="D623" s="32"/>
@@ -8448,7 +8781,7 @@
       <c r="I623" s="33"/>
       <c r="J623" s="33"/>
     </row>
-    <row r="624" spans="2:10" ht="12.75">
+    <row r="624" spans="2:10" ht="13.2">
       <c r="B624" s="32"/>
       <c r="C624" s="32"/>
       <c r="D624" s="32"/>
@@ -8458,7 +8791,7 @@
       <c r="I624" s="33"/>
       <c r="J624" s="33"/>
     </row>
-    <row r="625" spans="2:10" ht="12.75">
+    <row r="625" spans="2:10" ht="13.2">
       <c r="B625" s="32"/>
       <c r="C625" s="32"/>
       <c r="D625" s="32"/>
@@ -8468,7 +8801,7 @@
       <c r="I625" s="33"/>
       <c r="J625" s="33"/>
     </row>
-    <row r="626" spans="2:10" ht="12.75">
+    <row r="626" spans="2:10" ht="13.2">
       <c r="B626" s="32"/>
       <c r="C626" s="32"/>
       <c r="D626" s="32"/>
@@ -8478,7 +8811,7 @@
       <c r="I626" s="33"/>
       <c r="J626" s="33"/>
     </row>
-    <row r="627" spans="2:10" ht="12.75">
+    <row r="627" spans="2:10" ht="13.2">
       <c r="B627" s="32"/>
       <c r="C627" s="32"/>
       <c r="D627" s="32"/>
@@ -8488,7 +8821,7 @@
       <c r="I627" s="33"/>
       <c r="J627" s="33"/>
     </row>
-    <row r="628" spans="2:10" ht="12.75">
+    <row r="628" spans="2:10" ht="13.2">
       <c r="B628" s="32"/>
       <c r="C628" s="32"/>
       <c r="D628" s="32"/>
@@ -8498,7 +8831,7 @@
       <c r="I628" s="33"/>
       <c r="J628" s="33"/>
     </row>
-    <row r="629" spans="2:10" ht="12.75">
+    <row r="629" spans="2:10" ht="13.2">
       <c r="B629" s="32"/>
       <c r="C629" s="32"/>
       <c r="D629" s="32"/>
@@ -8508,7 +8841,7 @@
       <c r="I629" s="33"/>
       <c r="J629" s="33"/>
     </row>
-    <row r="630" spans="2:10" ht="12.75">
+    <row r="630" spans="2:10" ht="13.2">
       <c r="B630" s="32"/>
       <c r="C630" s="32"/>
       <c r="D630" s="32"/>
@@ -8518,7 +8851,7 @@
       <c r="I630" s="33"/>
       <c r="J630" s="33"/>
     </row>
-    <row r="631" spans="2:10" ht="12.75">
+    <row r="631" spans="2:10" ht="13.2">
       <c r="B631" s="32"/>
       <c r="C631" s="32"/>
       <c r="D631" s="32"/>
@@ -8528,7 +8861,7 @@
       <c r="I631" s="33"/>
       <c r="J631" s="33"/>
     </row>
-    <row r="632" spans="2:10" ht="12.75">
+    <row r="632" spans="2:10" ht="13.2">
       <c r="B632" s="32"/>
       <c r="C632" s="32"/>
       <c r="D632" s="32"/>
@@ -8538,7 +8871,7 @@
       <c r="I632" s="33"/>
       <c r="J632" s="33"/>
     </row>
-    <row r="633" spans="2:10" ht="12.75">
+    <row r="633" spans="2:10" ht="13.2">
       <c r="B633" s="32"/>
       <c r="C633" s="32"/>
       <c r="D633" s="32"/>
@@ -8548,7 +8881,7 @@
       <c r="I633" s="33"/>
       <c r="J633" s="33"/>
     </row>
-    <row r="634" spans="2:10" ht="12.75">
+    <row r="634" spans="2:10" ht="13.2">
       <c r="B634" s="32"/>
       <c r="C634" s="32"/>
       <c r="D634" s="32"/>
@@ -8558,7 +8891,7 @@
       <c r="I634" s="33"/>
       <c r="J634" s="33"/>
     </row>
-    <row r="635" spans="2:10" ht="12.75">
+    <row r="635" spans="2:10" ht="13.2">
       <c r="B635" s="32"/>
       <c r="C635" s="32"/>
       <c r="D635" s="32"/>
@@ -8568,7 +8901,7 @@
       <c r="I635" s="33"/>
       <c r="J635" s="33"/>
     </row>
-    <row r="636" spans="2:10" ht="12.75">
+    <row r="636" spans="2:10" ht="13.2">
       <c r="B636" s="32"/>
       <c r="C636" s="32"/>
       <c r="D636" s="32"/>
@@ -8578,7 +8911,7 @@
       <c r="I636" s="33"/>
       <c r="J636" s="33"/>
     </row>
-    <row r="637" spans="2:10" ht="12.75">
+    <row r="637" spans="2:10" ht="13.2">
       <c r="B637" s="32"/>
       <c r="C637" s="32"/>
       <c r="D637" s="32"/>
@@ -8588,7 +8921,7 @@
       <c r="I637" s="33"/>
       <c r="J637" s="33"/>
     </row>
-    <row r="638" spans="2:10" ht="12.75">
+    <row r="638" spans="2:10" ht="13.2">
       <c r="B638" s="32"/>
       <c r="C638" s="32"/>
       <c r="D638" s="32"/>
@@ -8598,7 +8931,7 @@
       <c r="I638" s="33"/>
       <c r="J638" s="33"/>
     </row>
-    <row r="639" spans="2:10" ht="12.75">
+    <row r="639" spans="2:10" ht="13.2">
       <c r="B639" s="32"/>
       <c r="C639" s="32"/>
       <c r="D639" s="32"/>
@@ -8608,7 +8941,7 @@
       <c r="I639" s="33"/>
       <c r="J639" s="33"/>
     </row>
-    <row r="640" spans="2:10" ht="12.75">
+    <row r="640" spans="2:10" ht="13.2">
       <c r="B640" s="32"/>
       <c r="C640" s="32"/>
       <c r="D640" s="32"/>
@@ -8618,7 +8951,7 @@
       <c r="I640" s="33"/>
       <c r="J640" s="33"/>
     </row>
-    <row r="641" spans="2:10" ht="12.75">
+    <row r="641" spans="2:10" ht="13.2">
       <c r="B641" s="32"/>
       <c r="C641" s="32"/>
       <c r="D641" s="32"/>
@@ -8628,7 +8961,7 @@
       <c r="I641" s="33"/>
       <c r="J641" s="33"/>
     </row>
-    <row r="642" spans="2:10" ht="12.75">
+    <row r="642" spans="2:10" ht="13.2">
       <c r="B642" s="32"/>
       <c r="C642" s="32"/>
       <c r="D642" s="32"/>
@@ -8638,7 +8971,7 @@
       <c r="I642" s="33"/>
       <c r="J642" s="33"/>
     </row>
-    <row r="643" spans="2:10" ht="12.75">
+    <row r="643" spans="2:10" ht="13.2">
       <c r="B643" s="32"/>
       <c r="C643" s="32"/>
       <c r="D643" s="32"/>
@@ -8648,7 +8981,7 @@
       <c r="I643" s="33"/>
       <c r="J643" s="33"/>
     </row>
-    <row r="644" spans="2:10" ht="12.75">
+    <row r="644" spans="2:10" ht="13.2">
       <c r="B644" s="32"/>
       <c r="C644" s="32"/>
       <c r="D644" s="32"/>
@@ -8658,7 +8991,7 @@
       <c r="I644" s="33"/>
       <c r="J644" s="33"/>
     </row>
-    <row r="645" spans="2:10" ht="12.75">
+    <row r="645" spans="2:10" ht="13.2">
       <c r="B645" s="32"/>
       <c r="C645" s="32"/>
       <c r="D645" s="32"/>
@@ -8668,7 +9001,7 @@
       <c r="I645" s="33"/>
       <c r="J645" s="33"/>
     </row>
-    <row r="646" spans="2:10" ht="12.75">
+    <row r="646" spans="2:10" ht="13.2">
       <c r="B646" s="32"/>
       <c r="C646" s="32"/>
       <c r="D646" s="32"/>
@@ -8678,7 +9011,7 @@
       <c r="I646" s="33"/>
       <c r="J646" s="33"/>
     </row>
-    <row r="647" spans="2:10" ht="12.75">
+    <row r="647" spans="2:10" ht="13.2">
       <c r="B647" s="32"/>
       <c r="C647" s="32"/>
       <c r="D647" s="32"/>
@@ -8688,7 +9021,7 @@
       <c r="I647" s="33"/>
       <c r="J647" s="33"/>
     </row>
-    <row r="648" spans="2:10" ht="12.75">
+    <row r="648" spans="2:10" ht="13.2">
       <c r="B648" s="32"/>
       <c r="C648" s="32"/>
       <c r="D648" s="32"/>
@@ -8698,7 +9031,7 @@
       <c r="I648" s="33"/>
       <c r="J648" s="33"/>
     </row>
-    <row r="649" spans="2:10" ht="12.75">
+    <row r="649" spans="2:10" ht="13.2">
       <c r="B649" s="32"/>
       <c r="C649" s="32"/>
       <c r="D649" s="32"/>
@@ -8708,7 +9041,7 @@
       <c r="I649" s="33"/>
       <c r="J649" s="33"/>
     </row>
-    <row r="650" spans="2:10" ht="12.75">
+    <row r="650" spans="2:10" ht="13.2">
       <c r="B650" s="32"/>
       <c r="C650" s="32"/>
       <c r="D650" s="32"/>
@@ -8718,7 +9051,7 @@
       <c r="I650" s="33"/>
       <c r="J650" s="33"/>
     </row>
-    <row r="651" spans="2:10" ht="12.75">
+    <row r="651" spans="2:10" ht="13.2">
       <c r="B651" s="32"/>
       <c r="C651" s="32"/>
       <c r="D651" s="32"/>
@@ -8728,7 +9061,7 @@
       <c r="I651" s="33"/>
       <c r="J651" s="33"/>
     </row>
-    <row r="652" spans="2:10" ht="12.75">
+    <row r="652" spans="2:10" ht="13.2">
       <c r="B652" s="32"/>
       <c r="C652" s="32"/>
       <c r="D652" s="32"/>
@@ -8738,7 +9071,7 @@
       <c r="I652" s="33"/>
       <c r="J652" s="33"/>
     </row>
-    <row r="653" spans="2:10" ht="12.75">
+    <row r="653" spans="2:10" ht="13.2">
       <c r="B653" s="32"/>
       <c r="C653" s="32"/>
       <c r="D653" s="32"/>
@@ -8748,7 +9081,7 @@
       <c r="I653" s="33"/>
       <c r="J653" s="33"/>
     </row>
-    <row r="654" spans="2:10" ht="12.75">
+    <row r="654" spans="2:10" ht="13.2">
       <c r="B654" s="32"/>
       <c r="C654" s="32"/>
       <c r="D654" s="32"/>
@@ -8758,7 +9091,7 @@
       <c r="I654" s="33"/>
       <c r="J654" s="33"/>
     </row>
-    <row r="655" spans="2:10" ht="12.75">
+    <row r="655" spans="2:10" ht="13.2">
       <c r="B655" s="32"/>
       <c r="C655" s="32"/>
       <c r="D655" s="32"/>
@@ -8768,7 +9101,7 @@
       <c r="I655" s="33"/>
       <c r="J655" s="33"/>
     </row>
-    <row r="656" spans="2:10" ht="12.75">
+    <row r="656" spans="2:10" ht="13.2">
       <c r="B656" s="32"/>
       <c r="C656" s="32"/>
       <c r="D656" s="32"/>
@@ -8778,7 +9111,7 @@
       <c r="I656" s="33"/>
       <c r="J656" s="33"/>
     </row>
-    <row r="657" spans="2:10" ht="12.75">
+    <row r="657" spans="2:10" ht="13.2">
       <c r="B657" s="32"/>
       <c r="C657" s="32"/>
       <c r="D657" s="32"/>
@@ -8788,7 +9121,7 @@
       <c r="I657" s="33"/>
       <c r="J657" s="33"/>
     </row>
-    <row r="658" spans="2:10" ht="12.75">
+    <row r="658" spans="2:10" ht="13.2">
       <c r="B658" s="32"/>
       <c r="C658" s="32"/>
       <c r="D658" s="32"/>
@@ -8798,7 +9131,7 @@
       <c r="I658" s="33"/>
       <c r="J658" s="33"/>
     </row>
-    <row r="659" spans="2:10" ht="12.75">
+    <row r="659" spans="2:10" ht="13.2">
       <c r="B659" s="32"/>
       <c r="C659" s="32"/>
       <c r="D659" s="32"/>
@@ -8808,7 +9141,7 @@
       <c r="I659" s="33"/>
       <c r="J659" s="33"/>
     </row>
-    <row r="660" spans="2:10" ht="12.75">
+    <row r="660" spans="2:10" ht="13.2">
       <c r="B660" s="32"/>
       <c r="C660" s="32"/>
       <c r="D660" s="32"/>
@@ -8818,7 +9151,7 @@
       <c r="I660" s="33"/>
       <c r="J660" s="33"/>
     </row>
-    <row r="661" spans="2:10" ht="12.75">
+    <row r="661" spans="2:10" ht="13.2">
       <c r="B661" s="32"/>
       <c r="C661" s="32"/>
       <c r="D661" s="32"/>
@@ -8828,7 +9161,7 @@
       <c r="I661" s="33"/>
       <c r="J661" s="33"/>
     </row>
-    <row r="662" spans="2:10" ht="12.75">
+    <row r="662" spans="2:10" ht="13.2">
       <c r="B662" s="32"/>
       <c r="C662" s="32"/>
       <c r="D662" s="32"/>
@@ -8838,7 +9171,7 @@
       <c r="I662" s="33"/>
       <c r="J662" s="33"/>
     </row>
-    <row r="663" spans="2:10" ht="12.75">
+    <row r="663" spans="2:10" ht="13.2">
       <c r="B663" s="32"/>
       <c r="C663" s="32"/>
       <c r="D663" s="32"/>
@@ -8848,7 +9181,7 @@
       <c r="I663" s="33"/>
       <c r="J663" s="33"/>
     </row>
-    <row r="664" spans="2:10" ht="12.75">
+    <row r="664" spans="2:10" ht="13.2">
       <c r="B664" s="32"/>
       <c r="C664" s="32"/>
       <c r="D664" s="32"/>
@@ -8858,7 +9191,7 @@
       <c r="I664" s="33"/>
       <c r="J664" s="33"/>
     </row>
-    <row r="665" spans="2:10" ht="12.75">
+    <row r="665" spans="2:10" ht="13.2">
       <c r="B665" s="32"/>
       <c r="C665" s="32"/>
       <c r="D665" s="32"/>
@@ -8868,7 +9201,7 @@
       <c r="I665" s="33"/>
       <c r="J665" s="33"/>
     </row>
-    <row r="666" spans="2:10" ht="12.75">
+    <row r="666" spans="2:10" ht="13.2">
       <c r="B666" s="32"/>
       <c r="C666" s="32"/>
       <c r="D666" s="32"/>
@@ -8878,7 +9211,7 @@
       <c r="I666" s="33"/>
       <c r="J666" s="33"/>
     </row>
-    <row r="667" spans="2:10" ht="12.75">
+    <row r="667" spans="2:10" ht="13.2">
       <c r="B667" s="32"/>
       <c r="C667" s="32"/>
       <c r="D667" s="32"/>
@@ -8888,7 +9221,7 @@
       <c r="I667" s="33"/>
       <c r="J667" s="33"/>
     </row>
-    <row r="668" spans="2:10" ht="12.75">
+    <row r="668" spans="2:10" ht="13.2">
       <c r="B668" s="32"/>
       <c r="C668" s="32"/>
       <c r="D668" s="32"/>
@@ -8898,7 +9231,7 @@
       <c r="I668" s="33"/>
       <c r="J668" s="33"/>
     </row>
-    <row r="669" spans="2:10" ht="12.75">
+    <row r="669" spans="2:10" ht="13.2">
       <c r="B669" s="32"/>
       <c r="C669" s="32"/>
       <c r="D669" s="32"/>
@@ -8908,7 +9241,7 @@
       <c r="I669" s="33"/>
       <c r="J669" s="33"/>
     </row>
-    <row r="670" spans="2:10" ht="12.75">
+    <row r="670" spans="2:10" ht="13.2">
       <c r="B670" s="32"/>
       <c r="C670" s="32"/>
       <c r="D670" s="32"/>
@@ -8918,7 +9251,7 @@
       <c r="I670" s="33"/>
       <c r="J670" s="33"/>
     </row>
-    <row r="671" spans="2:10" ht="12.75">
+    <row r="671" spans="2:10" ht="13.2">
       <c r="B671" s="32"/>
       <c r="C671" s="32"/>
       <c r="D671" s="32"/>
@@ -8928,7 +9261,7 @@
       <c r="I671" s="33"/>
       <c r="J671" s="33"/>
     </row>
-    <row r="672" spans="2:10" ht="12.75">
+    <row r="672" spans="2:10" ht="13.2">
       <c r="B672" s="32"/>
       <c r="C672" s="32"/>
       <c r="D672" s="32"/>
@@ -8938,7 +9271,7 @@
       <c r="I672" s="33"/>
       <c r="J672" s="33"/>
     </row>
-    <row r="673" spans="2:10" ht="12.75">
+    <row r="673" spans="2:10" ht="13.2">
       <c r="B673" s="32"/>
       <c r="C673" s="32"/>
       <c r="D673" s="32"/>
@@ -8948,7 +9281,7 @@
       <c r="I673" s="33"/>
       <c r="J673" s="33"/>
     </row>
-    <row r="674" spans="2:10" ht="12.75">
+    <row r="674" spans="2:10" ht="13.2">
       <c r="B674" s="32"/>
       <c r="C674" s="32"/>
       <c r="D674" s="32"/>
@@ -8958,7 +9291,7 @@
       <c r="I674" s="33"/>
       <c r="J674" s="33"/>
     </row>
-    <row r="675" spans="2:10" ht="12.75">
+    <row r="675" spans="2:10" ht="13.2">
       <c r="B675" s="32"/>
       <c r="C675" s="32"/>
       <c r="D675" s="32"/>
@@ -8968,7 +9301,7 @@
       <c r="I675" s="33"/>
       <c r="J675" s="33"/>
     </row>
-    <row r="676" spans="2:10" ht="12.75">
+    <row r="676" spans="2:10" ht="13.2">
       <c r="B676" s="32"/>
       <c r="C676" s="32"/>
       <c r="D676" s="32"/>
@@ -8978,7 +9311,7 @@
       <c r="I676" s="33"/>
       <c r="J676" s="33"/>
     </row>
-    <row r="677" spans="2:10" ht="12.75">
+    <row r="677" spans="2:10" ht="13.2">
       <c r="B677" s="32"/>
       <c r="C677" s="32"/>
       <c r="D677" s="32"/>
@@ -8988,7 +9321,7 @@
       <c r="I677" s="33"/>
       <c r="J677" s="33"/>
     </row>
-    <row r="678" spans="2:10" ht="12.75">
+    <row r="678" spans="2:10" ht="13.2">
       <c r="B678" s="32"/>
       <c r="C678" s="32"/>
       <c r="D678" s="32"/>
@@ -8998,7 +9331,7 @@
       <c r="I678" s="33"/>
       <c r="J678" s="33"/>
     </row>
-    <row r="679" spans="2:10" ht="12.75">
+    <row r="679" spans="2:10" ht="13.2">
       <c r="B679" s="32"/>
       <c r="C679" s="32"/>
       <c r="D679" s="32"/>
@@ -9008,7 +9341,7 @@
       <c r="I679" s="33"/>
       <c r="J679" s="33"/>
     </row>
-    <row r="680" spans="2:10" ht="12.75">
+    <row r="680" spans="2:10" ht="13.2">
       <c r="B680" s="32"/>
       <c r="C680" s="32"/>
       <c r="D680" s="32"/>
@@ -9018,7 +9351,7 @@
       <c r="I680" s="33"/>
       <c r="J680" s="33"/>
     </row>
-    <row r="681" spans="2:10" ht="12.75">
+    <row r="681" spans="2:10" ht="13.2">
       <c r="B681" s="32"/>
       <c r="C681" s="32"/>
       <c r="D681" s="32"/>
@@ -9028,7 +9361,7 @@
       <c r="I681" s="33"/>
       <c r="J681" s="33"/>
     </row>
-    <row r="682" spans="2:10" ht="12.75">
+    <row r="682" spans="2:10" ht="13.2">
       <c r="B682" s="32"/>
       <c r="C682" s="32"/>
       <c r="D682" s="32"/>
@@ -9038,7 +9371,7 @@
       <c r="I682" s="33"/>
       <c r="J682" s="33"/>
     </row>
-    <row r="683" spans="2:10" ht="12.75">
+    <row r="683" spans="2:10" ht="13.2">
       <c r="B683" s="32"/>
       <c r="C683" s="32"/>
       <c r="D683" s="32"/>
@@ -9048,7 +9381,7 @@
       <c r="I683" s="33"/>
       <c r="J683" s="33"/>
     </row>
-    <row r="684" spans="2:10" ht="12.75">
+    <row r="684" spans="2:10" ht="13.2">
       <c r="B684" s="32"/>
       <c r="C684" s="32"/>
       <c r="D684" s="32"/>
@@ -9058,7 +9391,7 @@
       <c r="I684" s="33"/>
       <c r="J684" s="33"/>
     </row>
-    <row r="685" spans="2:10" ht="12.75">
+    <row r="685" spans="2:10" ht="13.2">
       <c r="B685" s="32"/>
       <c r="C685" s="32"/>
       <c r="D685" s="32"/>
@@ -9068,7 +9401,7 @@
       <c r="I685" s="33"/>
       <c r="J685" s="33"/>
     </row>
-    <row r="686" spans="2:10" ht="12.75">
+    <row r="686" spans="2:10" ht="13.2">
       <c r="B686" s="32"/>
       <c r="C686" s="32"/>
       <c r="D686" s="32"/>
@@ -9078,7 +9411,7 @@
       <c r="I686" s="33"/>
       <c r="J686" s="33"/>
     </row>
-    <row r="687" spans="2:10" ht="12.75">
+    <row r="687" spans="2:10" ht="13.2">
       <c r="B687" s="32"/>
       <c r="C687" s="32"/>
       <c r="D687" s="32"/>
@@ -9088,7 +9421,7 @@
       <c r="I687" s="33"/>
       <c r="J687" s="33"/>
     </row>
-    <row r="688" spans="2:10" ht="12.75">
+    <row r="688" spans="2:10" ht="13.2">
       <c r="B688" s="32"/>
       <c r="C688" s="32"/>
       <c r="D688" s="32"/>
@@ -9098,7 +9431,7 @@
       <c r="I688" s="33"/>
       <c r="J688" s="33"/>
     </row>
-    <row r="689" spans="2:10" ht="12.75">
+    <row r="689" spans="2:10" ht="13.2">
       <c r="B689" s="32"/>
       <c r="C689" s="32"/>
       <c r="D689" s="32"/>
@@ -9108,7 +9441,7 @@
       <c r="I689" s="33"/>
       <c r="J689" s="33"/>
     </row>
-    <row r="690" spans="2:10" ht="12.75">
+    <row r="690" spans="2:10" ht="13.2">
       <c r="B690" s="32"/>
       <c r="C690" s="32"/>
       <c r="D690" s="32"/>
@@ -9118,7 +9451,7 @@
       <c r="I690" s="33"/>
       <c r="J690" s="33"/>
     </row>
-    <row r="691" spans="2:10" ht="12.75">
+    <row r="691" spans="2:10" ht="13.2">
       <c r="B691" s="32"/>
       <c r="C691" s="32"/>
       <c r="D691" s="32"/>
@@ -9128,7 +9461,7 @@
       <c r="I691" s="33"/>
       <c r="J691" s="33"/>
     </row>
-    <row r="692" spans="2:10" ht="12.75">
+    <row r="692" spans="2:10" ht="13.2">
       <c r="B692" s="32"/>
       <c r="C692" s="32"/>
       <c r="D692" s="32"/>
@@ -9138,7 +9471,7 @@
       <c r="I692" s="33"/>
       <c r="J692" s="33"/>
     </row>
-    <row r="693" spans="2:10" ht="12.75">
+    <row r="693" spans="2:10" ht="13.2">
       <c r="B693" s="32"/>
       <c r="C693" s="32"/>
       <c r="D693" s="32"/>
@@ -9148,7 +9481,7 @@
       <c r="I693" s="33"/>
       <c r="J693" s="33"/>
     </row>
-    <row r="694" spans="2:10" ht="12.75">
+    <row r="694" spans="2:10" ht="13.2">
       <c r="B694" s="32"/>
       <c r="C694" s="32"/>
       <c r="D694" s="32"/>
@@ -9158,7 +9491,7 @@
       <c r="I694" s="33"/>
       <c r="J694" s="33"/>
     </row>
-    <row r="695" spans="2:10" ht="12.75">
+    <row r="695" spans="2:10" ht="13.2">
       <c r="B695" s="32"/>
       <c r="C695" s="32"/>
       <c r="D695" s="32"/>
@@ -9168,7 +9501,7 @@
       <c r="I695" s="33"/>
       <c r="J695" s="33"/>
     </row>
-    <row r="696" spans="2:10" ht="12.75">
+    <row r="696" spans="2:10" ht="13.2">
       <c r="B696" s="32"/>
       <c r="C696" s="32"/>
       <c r="D696" s="32"/>
@@ -9178,7 +9511,7 @@
       <c r="I696" s="33"/>
       <c r="J696" s="33"/>
     </row>
-    <row r="697" spans="2:10" ht="12.75">
+    <row r="697" spans="2:10" ht="13.2">
       <c r="B697" s="32"/>
       <c r="C697" s="32"/>
       <c r="D697" s="32"/>
@@ -9188,7 +9521,7 @@
       <c r="I697" s="33"/>
       <c r="J697" s="33"/>
     </row>
-    <row r="698" spans="2:10" ht="12.75">
+    <row r="698" spans="2:10" ht="13.2">
       <c r="B698" s="32"/>
       <c r="C698" s="32"/>
       <c r="D698" s="32"/>
@@ -9198,7 +9531,7 @@
       <c r="I698" s="33"/>
       <c r="J698" s="33"/>
     </row>
-    <row r="699" spans="2:10" ht="12.75">
+    <row r="699" spans="2:10" ht="13.2">
       <c r="B699" s="32"/>
       <c r="C699" s="32"/>
       <c r="D699" s="32"/>
@@ -9208,7 +9541,7 @@
       <c r="I699" s="33"/>
       <c r="J699" s="33"/>
     </row>
-    <row r="700" spans="2:10" ht="12.75">
+    <row r="700" spans="2:10" ht="13.2">
       <c r="B700" s="32"/>
       <c r="C700" s="32"/>
       <c r="D700" s="32"/>
@@ -9218,7 +9551,7 @@
       <c r="I700" s="33"/>
       <c r="J700" s="33"/>
     </row>
-    <row r="701" spans="2:10" ht="12.75">
+    <row r="701" spans="2:10" ht="13.2">
       <c r="B701" s="32"/>
       <c r="C701" s="32"/>
       <c r="D701" s="32"/>
@@ -9228,7 +9561,7 @@
       <c r="I701" s="33"/>
       <c r="J701" s="33"/>
     </row>
-    <row r="702" spans="2:10" ht="12.75">
+    <row r="702" spans="2:10" ht="13.2">
       <c r="B702" s="32"/>
       <c r="C702" s="32"/>
       <c r="D702" s="32"/>
@@ -9238,7 +9571,7 @@
       <c r="I702" s="33"/>
       <c r="J702" s="33"/>
     </row>
-    <row r="703" spans="2:10" ht="12.75">
+    <row r="703" spans="2:10" ht="13.2">
       <c r="B703" s="32"/>
       <c r="C703" s="32"/>
       <c r="D703" s="32"/>
@@ -9248,7 +9581,7 @@
       <c r="I703" s="33"/>
       <c r="J703" s="33"/>
     </row>
-    <row r="704" spans="2:10" ht="12.75">
+    <row r="704" spans="2:10" ht="13.2">
       <c r="B704" s="32"/>
       <c r="C704" s="32"/>
       <c r="D704" s="32"/>
@@ -9258,7 +9591,7 @@
       <c r="I704" s="33"/>
       <c r="J704" s="33"/>
     </row>
-    <row r="705" spans="2:10" ht="12.75">
+    <row r="705" spans="2:10" ht="13.2">
       <c r="B705" s="32"/>
       <c r="C705" s="32"/>
       <c r="D705" s="32"/>
@@ -9268,7 +9601,7 @@
       <c r="I705" s="33"/>
       <c r="J705" s="33"/>
     </row>
-    <row r="706" spans="2:10" ht="12.75">
+    <row r="706" spans="2:10" ht="13.2">
       <c r="B706" s="32"/>
       <c r="C706" s="32"/>
       <c r="D706" s="32"/>
@@ -9278,7 +9611,7 @@
       <c r="I706" s="33"/>
       <c r="J706" s="33"/>
     </row>
-    <row r="707" spans="2:10" ht="12.75">
+    <row r="707" spans="2:10" ht="13.2">
       <c r="B707" s="32"/>
       <c r="C707" s="32"/>
       <c r="D707" s="32"/>
@@ -9288,7 +9621,7 @@
       <c r="I707" s="33"/>
       <c r="J707" s="33"/>
     </row>
-    <row r="708" spans="2:10" ht="12.75">
+    <row r="708" spans="2:10" ht="13.2">
       <c r="B708" s="32"/>
       <c r="C708" s="32"/>
       <c r="D708" s="32"/>
@@ -9298,7 +9631,7 @@
       <c r="I708" s="33"/>
       <c r="J708" s="33"/>
     </row>
-    <row r="709" spans="2:10" ht="12.75">
+    <row r="709" spans="2:10" ht="13.2">
       <c r="B709" s="32"/>
       <c r="C709" s="32"/>
       <c r="D709" s="32"/>
@@ -9308,7 +9641,7 @@
       <c r="I709" s="33"/>
       <c r="J709" s="33"/>
     </row>
-    <row r="710" spans="2:10" ht="12.75">
+    <row r="710" spans="2:10" ht="13.2">
       <c r="B710" s="32"/>
       <c r="C710" s="32"/>
       <c r="D710" s="32"/>
@@ -9318,7 +9651,7 @@
       <c r="I710" s="33"/>
       <c r="J710" s="33"/>
     </row>
-    <row r="711" spans="2:10" ht="12.75">
+    <row r="711" spans="2:10" ht="13.2">
       <c r="B711" s="32"/>
       <c r="C711" s="32"/>
       <c r="D711" s="32"/>
@@ -9328,7 +9661,7 @@
       <c r="I711" s="33"/>
       <c r="J711" s="33"/>
     </row>
-    <row r="712" spans="2:10" ht="12.75">
+    <row r="712" spans="2:10" ht="13.2">
       <c r="B712" s="32"/>
       <c r="C712" s="32"/>
       <c r="D712" s="32"/>
@@ -9338,7 +9671,7 @@
       <c r="I712" s="33"/>
       <c r="J712" s="33"/>
     </row>
-    <row r="713" spans="2:10" ht="12.75">
+    <row r="713" spans="2:10" ht="13.2">
       <c r="B713" s="32"/>
       <c r="C713" s="32"/>
       <c r="D713" s="32"/>
@@ -9348,7 +9681,7 @@
       <c r="I713" s="33"/>
       <c r="J713" s="33"/>
     </row>
-    <row r="714" spans="2:10" ht="12.75">
+    <row r="714" spans="2:10" ht="13.2">
       <c r="B714" s="32"/>
       <c r="C714" s="32"/>
       <c r="D714" s="32"/>
@@ -9358,7 +9691,7 @@
       <c r="I714" s="33"/>
       <c r="J714" s="33"/>
     </row>
-    <row r="715" spans="2:10" ht="12.75">
+    <row r="715" spans="2:10" ht="13.2">
       <c r="B715" s="32"/>
       <c r="C715" s="32"/>
       <c r="D715" s="32"/>
@@ -9368,7 +9701,7 @@
       <c r="I715" s="33"/>
       <c r="J715" s="33"/>
     </row>
-    <row r="716" spans="2:10" ht="12.75">
+    <row r="716" spans="2:10" ht="13.2">
       <c r="B716" s="32"/>
       <c r="C716" s="32"/>
       <c r="D716" s="32"/>
@@ -9378,7 +9711,7 @@
       <c r="I716" s="33"/>
       <c r="J716" s="33"/>
     </row>
-    <row r="717" spans="2:10" ht="12.75">
+    <row r="717" spans="2:10" ht="13.2">
       <c r="B717" s="32"/>
       <c r="C717" s="32"/>
       <c r="D717" s="32"/>
@@ -9388,7 +9721,7 @@
       <c r="I717" s="33"/>
       <c r="J717" s="33"/>
     </row>
-    <row r="718" spans="2:10" ht="12.75">
+    <row r="718" spans="2:10" ht="13.2">
       <c r="B718" s="32"/>
       <c r="C718" s="32"/>
       <c r="D718" s="32"/>
@@ -9398,7 +9731,7 @@
       <c r="I718" s="33"/>
       <c r="J718" s="33"/>
     </row>
-    <row r="719" spans="2:10" ht="12.75">
+    <row r="719" spans="2:10" ht="13.2">
       <c r="B719" s="32"/>
       <c r="C719" s="32"/>
       <c r="D719" s="32"/>
@@ -9408,7 +9741,7 @@
       <c r="I719" s="33"/>
       <c r="J719" s="33"/>
     </row>
-    <row r="720" spans="2:10" ht="12.75">
+    <row r="720" spans="2:10" ht="13.2">
       <c r="B720" s="32"/>
       <c r="C720" s="32"/>
       <c r="D720" s="32"/>
@@ -9418,7 +9751,7 @@
       <c r="I720" s="33"/>
       <c r="J720" s="33"/>
     </row>
-    <row r="721" spans="2:10" ht="12.75">
+    <row r="721" spans="2:10" ht="13.2">
       <c r="B721" s="32"/>
       <c r="C721" s="32"/>
       <c r="D721" s="32"/>
@@ -9428,7 +9761,7 @@
       <c r="I721" s="33"/>
       <c r="J721" s="33"/>
     </row>
-    <row r="722" spans="2:10" ht="12.75">
+    <row r="722" spans="2:10" ht="13.2">
       <c r="B722" s="32"/>
       <c r="C722" s="32"/>
       <c r="D722" s="32"/>
@@ -9438,7 +9771,7 @@
       <c r="I722" s="33"/>
       <c r="J722" s="33"/>
     </row>
-    <row r="723" spans="2:10" ht="12.75">
+    <row r="723" spans="2:10" ht="13.2">
       <c r="B723" s="32"/>
       <c r="C723" s="32"/>
       <c r="D723" s="32"/>
@@ -9448,7 +9781,7 @@
       <c r="I723" s="33"/>
       <c r="J723" s="33"/>
     </row>
-    <row r="724" spans="2:10" ht="12.75">
+    <row r="724" spans="2:10" ht="13.2">
       <c r="B724" s="32"/>
       <c r="C724" s="32"/>
       <c r="D724" s="32"/>
@@ -9458,7 +9791,7 @@
       <c r="I724" s="33"/>
       <c r="J724" s="33"/>
     </row>
-    <row r="725" spans="2:10" ht="12.75">
+    <row r="725" spans="2:10" ht="13.2">
       <c r="B725" s="32"/>
       <c r="C725" s="32"/>
       <c r="D725" s="32"/>
@@ -9468,7 +9801,7 @@
       <c r="I725" s="33"/>
       <c r="J725" s="33"/>
     </row>
-    <row r="726" spans="2:10" ht="12.75">
+    <row r="726" spans="2:10" ht="13.2">
       <c r="B726" s="32"/>
       <c r="C726" s="32"/>
       <c r="D726" s="32"/>
@@ -9478,7 +9811,7 @@
       <c r="I726" s="33"/>
       <c r="J726" s="33"/>
     </row>
-    <row r="727" spans="2:10" ht="12.75">
+    <row r="727" spans="2:10" ht="13.2">
       <c r="B727" s="32"/>
       <c r="C727" s="32"/>
       <c r="D727" s="32"/>
@@ -9488,7 +9821,7 @@
       <c r="I727" s="33"/>
       <c r="J727" s="33"/>
     </row>
-    <row r="728" spans="2:10" ht="12.75">
+    <row r="728" spans="2:10" ht="13.2">
       <c r="B728" s="32"/>
       <c r="C728" s="32"/>
       <c r="D728" s="32"/>
@@ -9498,7 +9831,7 @@
       <c r="I728" s="33"/>
       <c r="J728" s="33"/>
     </row>
-    <row r="729" spans="2:10" ht="12.75">
+    <row r="729" spans="2:10" ht="13.2">
       <c r="B729" s="32"/>
       <c r="C729" s="32"/>
       <c r="D729" s="32"/>
@@ -9508,7 +9841,7 @@
       <c r="I729" s="33"/>
       <c r="J729" s="33"/>
     </row>
-    <row r="730" spans="2:10" ht="12.75">
+    <row r="730" spans="2:10" ht="13.2">
       <c r="B730" s="32"/>
       <c r="C730" s="32"/>
       <c r="D730" s="32"/>
@@ -9518,7 +9851,7 @@
       <c r="I730" s="33"/>
       <c r="J730" s="33"/>
     </row>
-    <row r="731" spans="2:10" ht="12.75">
+    <row r="731" spans="2:10" ht="13.2">
       <c r="B731" s="32"/>
       <c r="C731" s="32"/>
       <c r="D731" s="32"/>
@@ -9528,7 +9861,7 @@
       <c r="I731" s="33"/>
       <c r="J731" s="33"/>
     </row>
-    <row r="732" spans="2:10" ht="12.75">
+    <row r="732" spans="2:10" ht="13.2">
       <c r="B732" s="32"/>
       <c r="C732" s="32"/>
       <c r="D732" s="32"/>
@@ -9538,7 +9871,7 @@
       <c r="I732" s="33"/>
       <c r="J732" s="33"/>
     </row>
-    <row r="733" spans="2:10" ht="12.75">
+    <row r="733" spans="2:10" ht="13.2">
       <c r="B733" s="32"/>
       <c r="C733" s="32"/>
       <c r="D733" s="32"/>
@@ -9548,7 +9881,7 @@
       <c r="I733" s="33"/>
       <c r="J733" s="33"/>
     </row>
-    <row r="734" spans="2:10" ht="12.75">
+    <row r="734" spans="2:10" ht="13.2">
       <c r="B734" s="32"/>
       <c r="C734" s="32"/>
       <c r="D734" s="32"/>
@@ -9558,7 +9891,7 @@
       <c r="I734" s="33"/>
       <c r="J734" s="33"/>
     </row>
-    <row r="735" spans="2:10" ht="12.75">
+    <row r="735" spans="2:10" ht="13.2">
       <c r="B735" s="32"/>
       <c r="C735" s="32"/>
       <c r="D735" s="32"/>
@@ -9568,7 +9901,7 @@
       <c r="I735" s="33"/>
       <c r="J735" s="33"/>
     </row>
-    <row r="736" spans="2:10" ht="12.75">
+    <row r="736" spans="2:10" ht="13.2">
       <c r="B736" s="32"/>
       <c r="C736" s="32"/>
       <c r="D736" s="32"/>
@@ -9578,7 +9911,7 @@
       <c r="I736" s="33"/>
       <c r="J736" s="33"/>
     </row>
-    <row r="737" spans="2:10" ht="12.75">
+    <row r="737" spans="2:10" ht="13.2">
       <c r="B737" s="32"/>
       <c r="C737" s="32"/>
       <c r="D737" s="32"/>
@@ -9588,7 +9921,7 @@
       <c r="I737" s="33"/>
       <c r="J737" s="33"/>
     </row>
-    <row r="738" spans="2:10" ht="12.75">
+    <row r="738" spans="2:10" ht="13.2">
       <c r="B738" s="32"/>
       <c r="C738" s="32"/>
       <c r="D738" s="32"/>
@@ -9598,7 +9931,7 @@
       <c r="I738" s="33"/>
       <c r="J738" s="33"/>
     </row>
-    <row r="739" spans="2:10" ht="12.75">
+    <row r="739" spans="2:10" ht="13.2">
       <c r="B739" s="32"/>
       <c r="C739" s="32"/>
       <c r="D739" s="32"/>
@@ -9608,7 +9941,7 @@
       <c r="I739" s="33"/>
       <c r="J739" s="33"/>
     </row>
-    <row r="740" spans="2:10" ht="12.75">
+    <row r="740" spans="2:10" ht="13.2">
       <c r="B740" s="32"/>
       <c r="C740" s="32"/>
       <c r="D740" s="32"/>
@@ -9618,7 +9951,7 @@
       <c r="I740" s="33"/>
       <c r="J740" s="33"/>
     </row>
-    <row r="741" spans="2:10" ht="12.75">
+    <row r="741" spans="2:10" ht="13.2">
       <c r="B741" s="32"/>
       <c r="C741" s="32"/>
       <c r="D741" s="32"/>
@@ -9628,7 +9961,7 @@
       <c r="I741" s="33"/>
       <c r="J741" s="33"/>
     </row>
-    <row r="742" spans="2:10" ht="12.75">
+    <row r="742" spans="2:10" ht="13.2">
       <c r="B742" s="32"/>
       <c r="C742" s="32"/>
       <c r="D742" s="32"/>
@@ -9638,7 +9971,7 @@
       <c r="I742" s="33"/>
       <c r="J742" s="33"/>
     </row>
-    <row r="743" spans="2:10" ht="12.75">
+    <row r="743" spans="2:10" ht="13.2">
       <c r="B743" s="32"/>
       <c r="C743" s="32"/>
       <c r="D743" s="32"/>
@@ -9648,7 +9981,7 @@
       <c r="I743" s="33"/>
       <c r="J743" s="33"/>
     </row>
-    <row r="744" spans="2:10" ht="12.75">
+    <row r="744" spans="2:10" ht="13.2">
       <c r="B744" s="32"/>
       <c r="C744" s="32"/>
       <c r="D744" s="32"/>
@@ -9658,7 +9991,7 @@
       <c r="I744" s="33"/>
       <c r="J744" s="33"/>
     </row>
-    <row r="745" spans="2:10" ht="12.75">
+    <row r="745" spans="2:10" ht="13.2">
       <c r="B745" s="32"/>
       <c r="C745" s="32"/>
       <c r="D745" s="32"/>
@@ -9668,7 +10001,7 @@
       <c r="I745" s="33"/>
       <c r="J745" s="33"/>
     </row>
-    <row r="746" spans="2:10" ht="12.75">
+    <row r="746" spans="2:10" ht="13.2">
       <c r="B746" s="32"/>
       <c r="C746" s="32"/>
       <c r="D746" s="32"/>
@@ -9678,7 +10011,7 @@
       <c r="I746" s="33"/>
       <c r="J746" s="33"/>
     </row>
-    <row r="747" spans="2:10" ht="12.75">
+    <row r="747" spans="2:10" ht="13.2">
       <c r="B747" s="32"/>
       <c r="C747" s="32"/>
       <c r="D747" s="32"/>
@@ -9688,7 +10021,7 @@
       <c r="I747" s="33"/>
       <c r="J747" s="33"/>
     </row>
-    <row r="748" spans="2:10" ht="12.75">
+    <row r="748" spans="2:10" ht="13.2">
       <c r="B748" s="32"/>
       <c r="C748" s="32"/>
       <c r="D748" s="32"/>
@@ -9698,7 +10031,7 @@
       <c r="I748" s="33"/>
       <c r="J748" s="33"/>
     </row>
-    <row r="749" spans="2:10" ht="12.75">
+    <row r="749" spans="2:10" ht="13.2">
       <c r="B749" s="32"/>
       <c r="C749" s="32"/>
       <c r="D749" s="32"/>
@@ -9708,7 +10041,7 @@
       <c r="I749" s="33"/>
       <c r="J749" s="33"/>
     </row>
-    <row r="750" spans="2:10" ht="12.75">
+    <row r="750" spans="2:10" ht="13.2">
       <c r="B750" s="32"/>
       <c r="C750" s="32"/>
       <c r="D750" s="32"/>
@@ -9718,7 +10051,7 @@
       <c r="I750" s="33"/>
       <c r="J750" s="33"/>
     </row>
-    <row r="751" spans="2:10" ht="12.75">
+    <row r="751" spans="2:10" ht="13.2">
       <c r="B751" s="32"/>
       <c r="C751" s="32"/>
       <c r="D751" s="32"/>
@@ -9728,7 +10061,7 @@
       <c r="I751" s="33"/>
       <c r="J751" s="33"/>
     </row>
-    <row r="752" spans="2:10" ht="12.75">
+    <row r="752" spans="2:10" ht="13.2">
       <c r="B752" s="32"/>
       <c r="C752" s="32"/>
       <c r="D752" s="32"/>
@@ -9738,7 +10071,7 @@
       <c r="I752" s="33"/>
       <c r="J752" s="33"/>
     </row>
-    <row r="753" spans="2:10" ht="12.75">
+    <row r="753" spans="2:10" ht="13.2">
       <c r="B753" s="32"/>
       <c r="C753" s="32"/>
       <c r="D753" s="32"/>
@@ -9748,7 +10081,7 @@
       <c r="I753" s="33"/>
       <c r="J753" s="33"/>
     </row>
-    <row r="754" spans="2:10" ht="12.75">
+    <row r="754" spans="2:10" ht="13.2">
       <c r="B754" s="32"/>
       <c r="C754" s="32"/>
       <c r="D754" s="32"/>
@@ -9758,7 +10091,7 @@
       <c r="I754" s="33"/>
       <c r="J754" s="33"/>
     </row>
-    <row r="755" spans="2:10" ht="12.75">
+    <row r="755" spans="2:10" ht="13.2">
       <c r="B755" s="32"/>
       <c r="C755" s="32"/>
       <c r="D755" s="32"/>
@@ -9768,7 +10101,7 @@
       <c r="I755" s="33"/>
       <c r="J755" s="33"/>
     </row>
-    <row r="756" spans="2:10" ht="12.75">
+    <row r="756" spans="2:10" ht="13.2">
       <c r="B756" s="32"/>
       <c r="C756" s="32"/>
       <c r="D756" s="32"/>
@@ -9778,7 +10111,7 @@
       <c r="I756" s="33"/>
       <c r="J756" s="33"/>
     </row>
-    <row r="757" spans="2:10" ht="12.75">
+    <row r="757" spans="2:10" ht="13.2">
       <c r="B757" s="32"/>
       <c r="C757" s="32"/>
       <c r="D757" s="32"/>
@@ -9788,7 +10121,7 @@
       <c r="I757" s="33"/>
       <c r="J757" s="33"/>
     </row>
-    <row r="758" spans="2:10" ht="12.75">
+    <row r="758" spans="2:10" ht="13.2">
       <c r="B758" s="32"/>
       <c r="C758" s="32"/>
       <c r="D758" s="32"/>
@@ -9798,7 +10131,7 @@
       <c r="I758" s="33"/>
       <c r="J758" s="33"/>
     </row>
-    <row r="759" spans="2:10" ht="12.75">
+    <row r="759" spans="2:10" ht="13.2">
       <c r="B759" s="32"/>
       <c r="C759" s="32"/>
       <c r="D759" s="32"/>
@@ -9808,7 +10141,7 @@
       <c r="I759" s="33"/>
       <c r="J759" s="33"/>
     </row>
-    <row r="760" spans="2:10" ht="12.75">
+    <row r="760" spans="2:10" ht="13.2">
       <c r="B760" s="32"/>
       <c r="C760" s="32"/>
       <c r="D760" s="32"/>
@@ -9818,7 +10151,7 @@
       <c r="I760" s="33"/>
       <c r="J760" s="33"/>
     </row>
-    <row r="761" spans="2:10" ht="12.75">
+    <row r="761" spans="2:10" ht="13.2">
       <c r="B761" s="32"/>
       <c r="C761" s="32"/>
       <c r="D761" s="32"/>
@@ -9828,7 +10161,7 @@
       <c r="I761" s="33"/>
       <c r="J761" s="33"/>
     </row>
-    <row r="762" spans="2:10" ht="12.75">
+    <row r="762" spans="2:10" ht="13.2">
       <c r="B762" s="32"/>
       <c r="C762" s="32"/>
       <c r="D762" s="32"/>
@@ -9838,7 +10171,7 @@
       <c r="I762" s="33"/>
       <c r="J762" s="33"/>
     </row>
-    <row r="763" spans="2:10" ht="12.75">
+    <row r="763" spans="2:10" ht="13.2">
       <c r="B763" s="32"/>
       <c r="C763" s="32"/>
       <c r="D763" s="32"/>
@@ -9848,7 +10181,7 @@
       <c r="I763" s="33"/>
       <c r="J763" s="33"/>
     </row>
-    <row r="764" spans="2:10" ht="12.75">
+    <row r="764" spans="2:10" ht="13.2">
       <c r="B764" s="32"/>
       <c r="C764" s="32"/>
       <c r="D764" s="32"/>
@@ -9858,7 +10191,7 @@
       <c r="I764" s="33"/>
       <c r="J764" s="33"/>
     </row>
-    <row r="765" spans="2:10" ht="12.75">
+    <row r="765" spans="2:10" ht="13.2">
       <c r="B765" s="32"/>
       <c r="C765" s="32"/>
       <c r="D765" s="32"/>
@@ -9868,7 +10201,7 @@
       <c r="I765" s="33"/>
       <c r="J765" s="33"/>
     </row>
-    <row r="766" spans="2:10" ht="12.75">
+    <row r="766" spans="2:10" ht="13.2">
       <c r="B766" s="32"/>
       <c r="C766" s="32"/>
       <c r="D766" s="32"/>
@@ -9878,7 +10211,7 @@
       <c r="I766" s="33"/>
       <c r="J766" s="33"/>
     </row>
-    <row r="767" spans="2:10" ht="12.75">
+    <row r="767" spans="2:10" ht="13.2">
       <c r="B767" s="32"/>
       <c r="C767" s="32"/>
       <c r="D767" s="32"/>
@@ -9888,7 +10221,7 @@
       <c r="I767" s="33"/>
       <c r="J767" s="33"/>
     </row>
-    <row r="768" spans="2:10" ht="12.75">
+    <row r="768" spans="2:10" ht="13.2">
       <c r="B768" s="32"/>
       <c r="C768" s="32"/>
       <c r="D768" s="32"/>
@@ -9898,7 +10231,7 @@
       <c r="I768" s="33"/>
       <c r="J768" s="33"/>
     </row>
-    <row r="769" spans="2:10" ht="12.75">
+    <row r="769" spans="2:10" ht="13.2">
       <c r="B769" s="32"/>
       <c r="C769" s="32"/>
       <c r="D769" s="32"/>
@@ -9908,7 +10241,7 @@
       <c r="I769" s="33"/>
       <c r="J769" s="33"/>
     </row>
-    <row r="770" spans="2:10" ht="12.75">
+    <row r="770" spans="2:10" ht="13.2">
       <c r="B770" s="32"/>
       <c r="C770" s="32"/>
       <c r="D770" s="32"/>
@@ -9918,7 +10251,7 @@
       <c r="I770" s="33"/>
       <c r="J770" s="33"/>
     </row>
-    <row r="771" spans="2:10" ht="12.75">
+    <row r="771" spans="2:10" ht="13.2">
       <c r="B771" s="32"/>
       <c r="C771" s="32"/>
       <c r="D771" s="32"/>
@@ -9928,7 +10261,7 @@
       <c r="I771" s="33"/>
       <c r="J771" s="33"/>
     </row>
-    <row r="772" spans="2:10" ht="12.75">
+    <row r="772" spans="2:10" ht="13.2">
       <c r="B772" s="32"/>
       <c r="C772" s="32"/>
       <c r="D772" s="32"/>
@@ -9938,7 +10271,7 @@
       <c r="I772" s="33"/>
       <c r="J772" s="33"/>
     </row>
-    <row r="773" spans="2:10" ht="12.75">
+    <row r="773" spans="2:10" ht="13.2">
       <c r="B773" s="32"/>
       <c r="C773" s="32"/>
       <c r="D773" s="32"/>
@@ -9948,7 +10281,7 @@
       <c r="I773" s="33"/>
       <c r="J773" s="33"/>
     </row>
-    <row r="774" spans="2:10" ht="12.75">
+    <row r="774" spans="2:10" ht="13.2">
       <c r="B774" s="32"/>
       <c r="C774" s="32"/>
       <c r="D774" s="32"/>
@@ -9958,7 +10291,7 @@
       <c r="I774" s="33"/>
       <c r="J774" s="33"/>
     </row>
-    <row r="775" spans="2:10" ht="12.75">
+    <row r="775" spans="2:10" ht="13.2">
       <c r="B775" s="32"/>
       <c r="C775" s="32"/>
       <c r="D775" s="32"/>
@@ -9968,7 +10301,7 @@
       <c r="I775" s="33"/>
       <c r="J775" s="33"/>
     </row>
-    <row r="776" spans="2:10" ht="12.75">
+    <row r="776" spans="2:10" ht="13.2">
       <c r="B776" s="32"/>
       <c r="C776" s="32"/>
       <c r="D776" s="32"/>
@@ -9978,7 +10311,7 @@
       <c r="I776" s="33"/>
       <c r="J776" s="33"/>
     </row>
-    <row r="777" spans="2:10" ht="12.75">
+    <row r="777" spans="2:10" ht="13.2">
       <c r="B777" s="32"/>
       <c r="C777" s="32"/>
       <c r="D777" s="32"/>
@@ -9988,7 +10321,7 @@
       <c r="I777" s="33"/>
       <c r="J777" s="33"/>
     </row>
-    <row r="778" spans="2:10" ht="12.75">
+    <row r="778" spans="2:10" ht="13.2">
       <c r="B778" s="32"/>
       <c r="C778" s="32"/>
       <c r="D778" s="32"/>
@@ -9998,7 +10331,7 @@
       <c r="I778" s="33"/>
       <c r="J778" s="33"/>
     </row>
-    <row r="779" spans="2:10" ht="12.75">
+    <row r="779" spans="2:10" ht="13.2">
       <c r="B779" s="32"/>
       <c r="C779" s="32"/>
       <c r="D779" s="32"/>
@@ -10008,7 +10341,7 @@
       <c r="I779" s="33"/>
       <c r="J779" s="33"/>
     </row>
-    <row r="780" spans="2:10" ht="12.75">
+    <row r="780" spans="2:10" ht="13.2">
       <c r="B780" s="32"/>
       <c r="C780" s="32"/>
       <c r="D780" s="32"/>
@@ -10018,7 +10351,7 @@
       <c r="I780" s="33"/>
       <c r="J780" s="33"/>
     </row>
-    <row r="781" spans="2:10" ht="12.75">
+    <row r="781" spans="2:10" ht="13.2">
       <c r="B781" s="32"/>
       <c r="C781" s="32"/>
       <c r="D781" s="32"/>
@@ -10028,7 +10361,7 @@
       <c r="I781" s="33"/>
       <c r="J781" s="33"/>
     </row>
-    <row r="782" spans="2:10" ht="12.75">
+    <row r="782" spans="2:10" ht="13.2">
       <c r="B782" s="32"/>
       <c r="C782" s="32"/>
       <c r="D782" s="32"/>
@@ -10038,7 +10371,7 @@
       <c r="I782" s="33"/>
       <c r="J782" s="33"/>
     </row>
-    <row r="783" spans="2:10" ht="12.75">
+    <row r="783" spans="2:10" ht="13.2">
       <c r="B783" s="32"/>
       <c r="C783" s="32"/>
       <c r="D783" s="32"/>
@@ -10048,7 +10381,7 @@
       <c r="I783" s="33"/>
       <c r="J783" s="33"/>
     </row>
-    <row r="784" spans="2:10" ht="12.75">
+    <row r="784" spans="2:10" ht="13.2">
       <c r="B784" s="32"/>
       <c r="C784" s="32"/>
       <c r="D784" s="32"/>
@@ -10058,7 +10391,7 @@
       <c r="I784" s="33"/>
       <c r="J784" s="33"/>
     </row>
-    <row r="785" spans="2:10" ht="12.75">
+    <row r="785" spans="2:10" ht="13.2">
       <c r="B785" s="32"/>
       <c r="C785" s="32"/>
       <c r="D785" s="32"/>
@@ -10068,7 +10401,7 @@
       <c r="I785" s="33"/>
       <c r="J785" s="33"/>
     </row>
-    <row r="786" spans="2:10" ht="12.75">
+    <row r="786" spans="2:10" ht="13.2">
       <c r="B786" s="32"/>
       <c r="C786" s="32"/>
       <c r="D786" s="32"/>
@@ -10078,7 +10411,7 @@
       <c r="I786" s="33"/>
       <c r="J786" s="33"/>
     </row>
-    <row r="787" spans="2:10" ht="12.75">
+    <row r="787" spans="2:10" ht="13.2">
       <c r="B787" s="32"/>
       <c r="C787" s="32"/>
       <c r="D787" s="32"/>
@@ -10088,7 +10421,7 @@
       <c r="I787" s="33"/>
       <c r="J787" s="33"/>
     </row>
-    <row r="788" spans="2:10" ht="12.75">
+    <row r="788" spans="2:10" ht="13.2">
       <c r="B788" s="32"/>
       <c r="C788" s="32"/>
       <c r="D788" s="32"/>
@@ -10098,7 +10431,7 @@
       <c r="I788" s="33"/>
       <c r="J788" s="33"/>
     </row>
-    <row r="789" spans="2:10" ht="12.75">
+    <row r="789" spans="2:10" ht="13.2">
       <c r="B789" s="32"/>
       <c r="C789" s="32"/>
       <c r="D789" s="32"/>
@@ -10108,7 +10441,7 @@
       <c r="I789" s="33"/>
       <c r="J789" s="33"/>
     </row>
-    <row r="790" spans="2:10" ht="12.75">
+    <row r="790" spans="2:10" ht="13.2">
       <c r="B790" s="32"/>
       <c r="C790" s="32"/>
       <c r="D790" s="32"/>
@@ -10118,7 +10451,7 @@
       <c r="I790" s="33"/>
       <c r="J790" s="33"/>
     </row>
-    <row r="791" spans="2:10" ht="12.75">
+    <row r="791" spans="2:10" ht="13.2">
       <c r="B791" s="32"/>
       <c r="C791" s="32"/>
       <c r="D791" s="32"/>
@@ -10128,7 +10461,7 @@
       <c r="I791" s="33"/>
       <c r="J791" s="33"/>
     </row>
-    <row r="792" spans="2:10" ht="12.75">
+    <row r="792" spans="2:10" ht="13.2">
       <c r="B792" s="32"/>
       <c r="C792" s="32"/>
       <c r="D792" s="32"/>
@@ -10138,7 +10471,7 @@
       <c r="I792" s="33"/>
       <c r="J792" s="33"/>
     </row>
-    <row r="793" spans="2:10" ht="12.75">
+    <row r="793" spans="2:10" ht="13.2">
       <c r="B793" s="32"/>
       <c r="C793" s="32"/>
       <c r="D793" s="32"/>
@@ -10148,7 +10481,7 @@
       <c r="I793" s="33"/>
       <c r="J793" s="33"/>
     </row>
-    <row r="794" spans="2:10" ht="12.75">
+    <row r="794" spans="2:10" ht="13.2">
       <c r="B794" s="32"/>
       <c r="C794" s="32"/>
       <c r="D794" s="32"/>
@@ -10158,7 +10491,7 @@
       <c r="I794" s="33"/>
       <c r="J794" s="33"/>
     </row>
-    <row r="795" spans="2:10" ht="12.75">
+    <row r="795" spans="2:10" ht="13.2">
       <c r="B795" s="32"/>
       <c r="C795" s="32"/>
       <c r="D795" s="32"/>
@@ -10168,7 +10501,7 @@
       <c r="I795" s="33"/>
       <c r="J795" s="33"/>
     </row>
-    <row r="796" spans="2:10" ht="12.75">
+    <row r="796" spans="2:10" ht="13.2">
       <c r="B796" s="32"/>
       <c r="C796" s="32"/>
       <c r="D796" s="32"/>
@@ -10178,7 +10511,7 @@
       <c r="I796" s="33"/>
       <c r="J796" s="33"/>
     </row>
-    <row r="797" spans="2:10" ht="12.75">
+    <row r="797" spans="2:10" ht="13.2">
       <c r="B797" s="32"/>
       <c r="C797" s="32"/>
       <c r="D797" s="32"/>
@@ -10188,7 +10521,7 @@
       <c r="I797" s="33"/>
       <c r="J797" s="33"/>
     </row>
-    <row r="798" spans="2:10" ht="12.75">
+    <row r="798" spans="2:10" ht="13.2">
       <c r="B798" s="32"/>
       <c r="C798" s="32"/>
       <c r="D798" s="32"/>
@@ -10198,7 +10531,7 @@
       <c r="I798" s="33"/>
       <c r="J798" s="33"/>
     </row>
-    <row r="799" spans="2:10" ht="12.75">
+    <row r="799" spans="2:10" ht="13.2">
       <c r="B799" s="32"/>
       <c r="C799" s="32"/>
       <c r="D799" s="32"/>
@@ -10208,7 +10541,7 @@
       <c r="I799" s="33"/>
       <c r="J799" s="33"/>
     </row>
-    <row r="800" spans="2:10" ht="12.75">
+    <row r="800" spans="2:10" ht="13.2">
       <c r="B800" s="32"/>
       <c r="C800" s="32"/>
       <c r="D800" s="32"/>
@@ -10218,7 +10551,7 @@
       <c r="I800" s="33"/>
       <c r="J800" s="33"/>
     </row>
-    <row r="801" spans="2:10" ht="12.75">
+    <row r="801" spans="2:10" ht="13.2">
       <c r="B801" s="32"/>
       <c r="C801" s="32"/>
       <c r="D801" s="32"/>
@@ -10228,7 +10561,7 @@
       <c r="I801" s="33"/>
       <c r="J801" s="33"/>
     </row>
-    <row r="802" spans="2:10" ht="12.75">
+    <row r="802" spans="2:10" ht="13.2">
       <c r="B802" s="32"/>
       <c r="C802" s="32"/>
       <c r="D802" s="32"/>
@@ -10238,7 +10571,7 @@
       <c r="I802" s="33"/>
       <c r="J802" s="33"/>
     </row>
-    <row r="803" spans="2:10" ht="12.75">
+    <row r="803" spans="2:10" ht="13.2">
       <c r="B803" s="32"/>
       <c r="C803" s="32"/>
       <c r="D803" s="32"/>
@@ -10248,7 +10581,7 @@
       <c r="I803" s="33"/>
       <c r="J803" s="33"/>
     </row>
-    <row r="804" spans="2:10" ht="12.75">
+    <row r="804" spans="2:10" ht="13.2">
       <c r="B804" s="32"/>
       <c r="C804" s="32"/>
       <c r="D804" s="32"/>
@@ -10258,7 +10591,7 @@
       <c r="I804" s="33"/>
       <c r="J804" s="33"/>
     </row>
-    <row r="805" spans="2:10" ht="12.75">
+    <row r="805" spans="2:10" ht="13.2">
       <c r="B805" s="32"/>
       <c r="C805" s="32"/>
       <c r="D805" s="32"/>
@@ -10268,7 +10601,7 @@
       <c r="I805" s="33"/>
       <c r="J805" s="33"/>
     </row>
-    <row r="806" spans="2:10" ht="12.75">
+    <row r="806" spans="2:10" ht="13.2">
       <c r="B806" s="32"/>
       <c r="C806" s="32"/>
       <c r="D806" s="32"/>
@@ -10278,7 +10611,7 @@
       <c r="I806" s="33"/>
       <c r="J806" s="33"/>
     </row>
-    <row r="807" spans="2:10" ht="12.75">
+    <row r="807" spans="2:10" ht="13.2">
       <c r="B807" s="32"/>
       <c r="C807" s="32"/>
       <c r="D807" s="32"/>
@@ -10288,7 +10621,7 @@
       <c r="I807" s="33"/>
       <c r="J807" s="33"/>
     </row>
-    <row r="808" spans="2:10" ht="12.75">
+    <row r="808" spans="2:10" ht="13.2">
       <c r="B808" s="32"/>
       <c r="C808" s="32"/>
       <c r="D808" s="32"/>
@@ -10298,7 +10631,7 @@
       <c r="I808" s="33"/>
       <c r="J808" s="33"/>
     </row>
-    <row r="809" spans="2:10" ht="12.75">
+    <row r="809" spans="2:10" ht="13.2">
       <c r="B809" s="32"/>
       <c r="C809" s="32"/>
       <c r="D809" s="32"/>
@@ -10308,7 +10641,7 @@
       <c r="I809" s="33"/>
       <c r="J809" s="33"/>
     </row>
-    <row r="810" spans="2:10" ht="12.75">
+    <row r="810" spans="2:10" ht="13.2">
       <c r="B810" s="32"/>
       <c r="C810" s="32"/>
       <c r="D810" s="32"/>
@@ -10318,7 +10651,7 @@
       <c r="I810" s="33"/>
       <c r="J810" s="33"/>
     </row>
-    <row r="811" spans="2:10" ht="12.75">
+    <row r="811" spans="2:10" ht="13.2">
       <c r="B811" s="32"/>
       <c r="C811" s="32"/>
       <c r="D811" s="32"/>
@@ -10328,7 +10661,7 @@
       <c r="I811" s="33"/>
       <c r="J811" s="33"/>
     </row>
-    <row r="812" spans="2:10" ht="12.75">
+    <row r="812" spans="2:10" ht="13.2">
       <c r="B812" s="32"/>
       <c r="C812" s="32"/>
       <c r="D812" s="32"/>
@@ -10338,7 +10671,7 @@
       <c r="I812" s="33"/>
       <c r="J812" s="33"/>
     </row>
-    <row r="813" spans="2:10" ht="12.75">
+    <row r="813" spans="2:10" ht="13.2">
       <c r="B813" s="32"/>
       <c r="C813" s="32"/>
       <c r="D813" s="32"/>
@@ -10348,7 +10681,7 @@
       <c r="I813" s="33"/>
       <c r="J813" s="33"/>
     </row>
-    <row r="814" spans="2:10" ht="12.75">
+    <row r="814" spans="2:10" ht="13.2">
       <c r="B814" s="32"/>
       <c r="C814" s="32"/>
       <c r="D814" s="32"/>
@@ -10358,7 +10691,7 @@
       <c r="I814" s="33"/>
       <c r="J814" s="33"/>
     </row>
-    <row r="815" spans="2:10" ht="12.75">
+    <row r="815" spans="2:10" ht="13.2">
       <c r="B815" s="32"/>
       <c r="C815" s="32"/>
       <c r="D815" s="32"/>
@@ -10368,7 +10701,7 @@
       <c r="I815" s="33"/>
       <c r="J815" s="33"/>
     </row>
-    <row r="816" spans="2:10" ht="12.75">
+    <row r="816" spans="2:10" ht="13.2">
       <c r="B816" s="32"/>
       <c r="C816" s="32"/>
       <c r="D816" s="32"/>
@@ -10378,7 +10711,7 @@
       <c r="I816" s="33"/>
       <c r="J816" s="33"/>
     </row>
-    <row r="817" spans="2:10" ht="12.75">
+    <row r="817" spans="2:10" ht="13.2">
       <c r="B817" s="32"/>
       <c r="C817" s="32"/>
       <c r="D817" s="32"/>
@@ -10388,7 +10721,7 @@
       <c r="I817" s="33"/>
       <c r="J817" s="33"/>
     </row>
-    <row r="818" spans="2:10" ht="12.75">
+    <row r="818" spans="2:10" ht="13.2">
       <c r="B818" s="32"/>
       <c r="C818" s="32"/>
       <c r="D818" s="32"/>
@@ -10398,7 +10731,7 @@
       <c r="I818" s="33"/>
       <c r="J818" s="33"/>
     </row>
-    <row r="819" spans="2:10" ht="12.75">
+    <row r="819" spans="2:10" ht="13.2">
       <c r="B819" s="32"/>
       <c r="C819" s="32"/>
       <c r="D819" s="32"/>
@@ -10408,7 +10741,7 @@
       <c r="I819" s="33"/>
       <c r="J819" s="33"/>
     </row>
-    <row r="820" spans="2:10" ht="12.75">
+    <row r="820" spans="2:10" ht="13.2">
       <c r="B820" s="32"/>
       <c r="C820" s="32"/>
       <c r="D820" s="32"/>
@@ -10418,7 +10751,7 @@
       <c r="I820" s="33"/>
       <c r="J820" s="33"/>
     </row>
-    <row r="821" spans="2:10" ht="12.75">
+    <row r="821" spans="2:10" ht="13.2">
       <c r="B821" s="32"/>
       <c r="C821" s="32"/>
       <c r="D821" s="32"/>
@@ -10428,7 +10761,7 @@
       <c r="I821" s="33"/>
       <c r="J821" s="33"/>
     </row>
-    <row r="822" spans="2:10" ht="12.75">
+    <row r="822" spans="2:10" ht="13.2">
       <c r="B822" s="32"/>
       <c r="C822" s="32"/>
       <c r="D822" s="32"/>
@@ -10438,7 +10771,7 @@
       <c r="I822" s="33"/>
       <c r="J822" s="33"/>
     </row>
-    <row r="823" spans="2:10" ht="12.75">
+    <row r="823" spans="2:10" ht="13.2">
       <c r="B823" s="32"/>
       <c r="C823" s="32"/>
       <c r="D823" s="32"/>
@@ -10448,7 +10781,7 @@
       <c r="I823" s="33"/>
       <c r="J823" s="33"/>
     </row>
-    <row r="824" spans="2:10" ht="12.75">
+    <row r="824" spans="2:10" ht="13.2">
       <c r="B824" s="32"/>
       <c r="C824" s="32"/>
       <c r="D824" s="32"/>
@@ -10458,7 +10791,7 @@
       <c r="I824" s="33"/>
       <c r="J824" s="33"/>
     </row>
-    <row r="825" spans="2:10" ht="12.75">
+    <row r="825" spans="2:10" ht="13.2">
       <c r="B825" s="32"/>
       <c r="C825" s="32"/>
       <c r="D825" s="32"/>
@@ -10468,7 +10801,7 @@
       <c r="I825" s="33"/>
       <c r="J825" s="33"/>
     </row>
-    <row r="826" spans="2:10" ht="12.75">
+    <row r="826" spans="2:10" ht="13.2">
       <c r="B826" s="32"/>
       <c r="C826" s="32"/>
       <c r="D826" s="32"/>
@@ -10478,7 +10811,7 @@
       <c r="I826" s="33"/>
       <c r="J826" s="33"/>
     </row>
-    <row r="827" spans="2:10" ht="12.75">
+    <row r="827" spans="2:10" ht="13.2">
       <c r="B827" s="32"/>
       <c r="C827" s="32"/>
       <c r="D827" s="32"/>
@@ -10488,7 +10821,7 @@
       <c r="I827" s="33"/>
       <c r="J827" s="33"/>
     </row>
-    <row r="828" spans="2:10" ht="12.75">
+    <row r="828" spans="2:10" ht="13.2">
       <c r="B828" s="32"/>
       <c r="C828" s="32"/>
       <c r="D828" s="32"/>
@@ -10498,7 +10831,7 @@
       <c r="I828" s="33"/>
       <c r="J828" s="33"/>
     </row>
-    <row r="829" spans="2:10" ht="12.75">
+    <row r="829" spans="2:10" ht="13.2">
       <c r="B829" s="32"/>
       <c r="C829" s="32"/>
       <c r="D829" s="32"/>
@@ -10508,7 +10841,7 @@
       <c r="I829" s="33"/>
       <c r="J829" s="33"/>
     </row>
-    <row r="830" spans="2:10" ht="12.75">
+    <row r="830" spans="2:10" ht="13.2">
       <c r="B830" s="32"/>
       <c r="C830" s="32"/>
       <c r="D830" s="32"/>
@@ -10518,7 +10851,7 @@
       <c r="I830" s="33"/>
       <c r="J830" s="33"/>
     </row>
-    <row r="831" spans="2:10" ht="12.75">
+    <row r="831" spans="2:10" ht="13.2">
       <c r="B831" s="32"/>
       <c r="C831" s="32"/>
       <c r="D831" s="32"/>
@@ -10528,7 +10861,7 @@
       <c r="I831" s="33"/>
       <c r="J831" s="33"/>
     </row>
-    <row r="832" spans="2:10" ht="12.75">
+    <row r="832" spans="2:10" ht="13.2">
       <c r="B832" s="32"/>
       <c r="C832" s="32"/>
       <c r="D832" s="32"/>
@@ -10538,7 +10871,7 @@
       <c r="I832" s="33"/>
       <c r="J832" s="33"/>
     </row>
-    <row r="833" spans="2:10" ht="12.75">
+    <row r="833" spans="2:10" ht="13.2">
       <c r="B833" s="32"/>
       <c r="C833" s="32"/>
       <c r="D833" s="32"/>
@@ -10548,7 +10881,7 @@
       <c r="I833" s="33"/>
       <c r="J833" s="33"/>
     </row>
-    <row r="834" spans="2:10" ht="12.75">
+    <row r="834" spans="2:10" ht="13.2">
       <c r="B834" s="32"/>
       <c r="C834" s="32"/>
       <c r="D834" s="32"/>
@@ -10558,7 +10891,7 @@
       <c r="I834" s="33"/>
       <c r="J834" s="33"/>
     </row>
-    <row r="835" spans="2:10" ht="12.75">
+    <row r="835" spans="2:10" ht="13.2">
       <c r="B835" s="32"/>
       <c r="C835" s="32"/>
       <c r="D835" s="32"/>
@@ -10568,7 +10901,7 @@
       <c r="I835" s="33"/>
       <c r="J835" s="33"/>
     </row>
-    <row r="836" spans="2:10" ht="12.75">
+    <row r="836" spans="2:10" ht="13.2">
       <c r="B836" s="32"/>
       <c r="C836" s="32"/>
       <c r="D836" s="32"/>
@@ -10578,7 +10911,7 @@
       <c r="I836" s="33"/>
       <c r="J836" s="33"/>
     </row>
-    <row r="837" spans="2:10" ht="12.75">
+    <row r="837" spans="2:10" ht="13.2">
       <c r="B837" s="32"/>
       <c r="C837" s="32"/>
       <c r="D837" s="32"/>
@@ -10588,7 +10921,7 @@
       <c r="I837" s="33"/>
       <c r="J837" s="33"/>
     </row>
-    <row r="838" spans="2:10" ht="12.75">
+    <row r="838" spans="2:10" ht="13.2">
       <c r="B838" s="32"/>
       <c r="C838" s="32"/>
       <c r="D838" s="32"/>
@@ -10598,7 +10931,7 @@
       <c r="I838" s="33"/>
       <c r="J838" s="33"/>
     </row>
-    <row r="839" spans="2:10" ht="12.75">
+    <row r="839" spans="2:10" ht="13.2">
       <c r="B839" s="32"/>
       <c r="C839" s="32"/>
       <c r="D839" s="32"/>
@@ -10608,7 +10941,7 @@
       <c r="I839" s="33"/>
       <c r="J839" s="33"/>
     </row>
-    <row r="840" spans="2:10" ht="12.75">
+    <row r="840" spans="2:10" ht="13.2">
       <c r="B840" s="32"/>
       <c r="C840" s="32"/>
       <c r="D840" s="32"/>
@@ -10618,7 +10951,7 @@
       <c r="I840" s="33"/>
       <c r="J840" s="33"/>
     </row>
-    <row r="841" spans="2:10" ht="12.75">
+    <row r="841" spans="2:10" ht="13.2">
       <c r="B841" s="32"/>
       <c r="C841" s="32"/>
       <c r="D841" s="32"/>
@@ -10628,7 +10961,7 @@
       <c r="I841" s="33"/>
       <c r="J841" s="33"/>
     </row>
-    <row r="842" spans="2:10" ht="12.75">
+    <row r="842" spans="2:10" ht="13.2">
       <c r="B842" s="32"/>
       <c r="C842" s="32"/>
       <c r="D842" s="32"/>
@@ -10638,7 +10971,7 @@
       <c r="I842" s="33"/>
       <c r="J842" s="33"/>
     </row>
-    <row r="843" spans="2:10" ht="12.75">
+    <row r="843" spans="2:10" ht="13.2">
       <c r="B843" s="32"/>
       <c r="C843" s="32"/>
       <c r="D843" s="32"/>
@@ -10648,7 +10981,7 @@
       <c r="I843" s="33"/>
       <c r="J843" s="33"/>
     </row>
-    <row r="844" spans="2:10" ht="12.75">
+    <row r="844" spans="2:10" ht="13.2">
       <c r="B844" s="32"/>
       <c r="C844" s="32"/>
       <c r="D844" s="32"/>
@@ -10658,7 +10991,7 @@
       <c r="I844" s="33"/>
       <c r="J844" s="33"/>
     </row>
-    <row r="845" spans="2:10" ht="12.75">
+    <row r="845" spans="2:10" ht="13.2">
       <c r="B845" s="32"/>
       <c r="C845" s="32"/>
       <c r="D845" s="32"/>
@@ -10668,7 +11001,7 @@
       <c r="I845" s="33"/>
       <c r="J845" s="33"/>
     </row>
-    <row r="846" spans="2:10" ht="12.75">
+    <row r="846" spans="2:10" ht="13.2">
       <c r="B846" s="32"/>
       <c r="C846" s="32"/>
       <c r="D846" s="32"/>
@@ -10678,7 +11011,7 @@
       <c r="I846" s="33"/>
       <c r="J846" s="33"/>
     </row>
-    <row r="847" spans="2:10" ht="12.75">
+    <row r="847" spans="2:10" ht="13.2">
       <c r="B847" s="32"/>
       <c r="C847" s="32"/>
       <c r="D847" s="32"/>
@@ -10688,7 +11021,7 @@
       <c r="I847" s="33"/>
       <c r="J847" s="33"/>
     </row>
-    <row r="848" spans="2:10" ht="12.75">
+    <row r="848" spans="2:10" ht="13.2">
       <c r="B848" s="32"/>
       <c r="C848" s="32"/>
       <c r="D848" s="32"/>
@@ -10698,7 +11031,7 @@
       <c r="I848" s="33"/>
       <c r="J848" s="33"/>
     </row>
-    <row r="849" spans="2:10" ht="12.75">
+    <row r="849" spans="2:10" ht="13.2">
       <c r="B849" s="32"/>
       <c r="C849" s="32"/>
       <c r="D849" s="32"/>
@@ -10708,7 +11041,7 @@
       <c r="I849" s="33"/>
       <c r="J849" s="33"/>
     </row>
-    <row r="850" spans="2:10" ht="12.75">
+    <row r="850" spans="2:10" ht="13.2">
       <c r="B850" s="32"/>
       <c r="C850" s="32"/>
       <c r="D850" s="32"/>
@@ -10718,7 +11051,7 @@
       <c r="I850" s="33"/>
       <c r="J850" s="33"/>
     </row>
-    <row r="851" spans="2:10" ht="12.75">
+    <row r="851" spans="2:10" ht="13.2">
       <c r="B851" s="32"/>
       <c r="C851" s="32"/>
       <c r="D851" s="32"/>
@@ -10728,7 +11061,7 @@
       <c r="I851" s="33"/>
       <c r="J851" s="33"/>
     </row>
-    <row r="852" spans="2:10" ht="12.75">
+    <row r="852" spans="2:10" ht="13.2">
       <c r="B852" s="32"/>
       <c r="C852" s="32"/>
       <c r="D852" s="32"/>
@@ -10738,7 +11071,7 @@
       <c r="I852" s="33"/>
       <c r="J852" s="33"/>
     </row>
-    <row r="853" spans="2:10" ht="12.75">
+    <row r="853" spans="2:10" ht="13.2">
       <c r="B853" s="32"/>
       <c r="C853" s="32"/>
       <c r="D853" s="32"/>
@@ -10748,7 +11081,7 @@
       <c r="I853" s="33"/>
       <c r="J853" s="33"/>
     </row>
-    <row r="854" spans="2:10" ht="12.75">
+    <row r="854" spans="2:10" ht="13.2">
       <c r="B854" s="32"/>
       <c r="C854" s="32"/>
       <c r="D854" s="32"/>
@@ -10758,7 +11091,7 @@
       <c r="I854" s="33"/>
       <c r="J854" s="33"/>
     </row>
-    <row r="855" spans="2:10" ht="12.75">
+    <row r="855" spans="2:10" ht="13.2">
       <c r="B855" s="32"/>
       <c r="C855" s="32"/>
       <c r="D855" s="32"/>
@@ -10768,7 +11101,7 @@
       <c r="I855" s="33"/>
       <c r="J855" s="33"/>
     </row>
-    <row r="856" spans="2:10" ht="12.75">
+    <row r="856" spans="2:10" ht="13.2">
       <c r="B856" s="32"/>
       <c r="C856" s="32"/>
       <c r="D856" s="32"/>
@@ -10778,7 +11111,7 @@
       <c r="I856" s="33"/>
       <c r="J856" s="33"/>
     </row>
-    <row r="857" spans="2:10" ht="12.75">
+    <row r="857" spans="2:10" ht="13.2">
       <c r="B857" s="32"/>
       <c r="C857" s="32"/>
       <c r="D857" s="32"/>
@@ -10788,7 +11121,7 @@
       <c r="I857" s="33"/>
       <c r="J857" s="33"/>
     </row>
-    <row r="858" spans="2:10" ht="12.75">
+    <row r="858" spans="2:10" ht="13.2">
       <c r="B858" s="32"/>
       <c r="C858" s="32"/>
       <c r="D858" s="32"/>
@@ -10798,7 +11131,7 @@
       <c r="I858" s="33"/>
       <c r="J858" s="33"/>
     </row>
-    <row r="859" spans="2:10" ht="12.75">
+    <row r="859" spans="2:10" ht="13.2">
       <c r="B859" s="32"/>
       <c r="C859" s="32"/>
       <c r="D859" s="32"/>
@@ -10808,7 +11141,7 @@
       <c r="I859" s="33"/>
       <c r="J859" s="33"/>
     </row>
-    <row r="860" spans="2:10" ht="12.75">
+    <row r="860" spans="2:10" ht="13.2">
       <c r="B860" s="32"/>
       <c r="C860" s="32"/>
       <c r="D860" s="32"/>
@@ -10818,7 +11151,7 @@
       <c r="I860" s="33"/>
       <c r="J860" s="33"/>
     </row>
-    <row r="861" spans="2:10" ht="12.75">
+    <row r="861" spans="2:10" ht="13.2">
       <c r="B861" s="32"/>
       <c r="C861" s="32"/>
       <c r="D861" s="32"/>
@@ -10828,7 +11161,7 @@
       <c r="I861" s="33"/>
       <c r="J861" s="33"/>
     </row>
-    <row r="862" spans="2:10" ht="12.75">
+    <row r="862" spans="2:10" ht="13.2">
       <c r="B862" s="32"/>
       <c r="C862" s="32"/>
       <c r="D862" s="32"/>
@@ -10838,7 +11171,7 @@
       <c r="I862" s="33"/>
       <c r="J862" s="33"/>
     </row>
-    <row r="863" spans="2:10" ht="12.75">
+    <row r="863" spans="2:10" ht="13.2">
       <c r="B863" s="32"/>
       <c r="C863" s="32"/>
       <c r="D863" s="32"/>
@@ -10848,7 +11181,7 @@
       <c r="I863" s="33"/>
       <c r="J863" s="33"/>
     </row>
-    <row r="864" spans="2:10" ht="12.75">
+    <row r="864" spans="2:10" ht="13.2">
       <c r="B864" s="32"/>
       <c r="C864" s="32"/>
       <c r="D864" s="32"/>
@@ -10858,7 +11191,7 @@
       <c r="I864" s="33"/>
       <c r="J864" s="33"/>
     </row>
-    <row r="865" spans="2:10" ht="12.75">
+    <row r="865" spans="2:10" ht="13.2">
       <c r="B865" s="32"/>
       <c r="C865" s="32"/>
       <c r="D865" s="32"/>
@@ -10868,7 +11201,7 @@
       <c r="I865" s="33"/>
       <c r="J865" s="33"/>
     </row>
-    <row r="866" spans="2:10" ht="12.75">
+    <row r="866" spans="2:10" ht="13.2">
       <c r="B866" s="32"/>
       <c r="C866" s="32"/>
       <c r="D866" s="32"/>
@@ -10878,7 +11211,7 @@
       <c r="I866" s="33"/>
       <c r="J866" s="33"/>
     </row>
-    <row r="867" spans="2:10" ht="12.75">
+    <row r="867" spans="2:10" ht="13.2">
       <c r="B867" s="32"/>
       <c r="C867" s="32"/>
       <c r="D867" s="32"/>
@@ -10888,7 +11221,7 @@
       <c r="I867" s="33"/>
       <c r="J867" s="33"/>
     </row>
-    <row r="868" spans="2:10" ht="12.75">
+    <row r="868" spans="2:10" ht="13.2">
       <c r="B868" s="32"/>
       <c r="C868" s="32"/>
       <c r="D868" s="32"/>
@@ -10898,7 +11231,7 @@
       <c r="I868" s="33"/>
       <c r="J868" s="33"/>
     </row>
-    <row r="869" spans="2:10" ht="12.75">
+    <row r="869" spans="2:10" ht="13.2">
       <c r="B869" s="32"/>
       <c r="C869" s="32"/>
       <c r="D869" s="32"/>
@@ -10908,7 +11241,7 @@
       <c r="I869" s="33"/>
       <c r="J869" s="33"/>
     </row>
-    <row r="870" spans="2:10" ht="12.75">
+    <row r="870" spans="2:10" ht="13.2">
       <c r="B870" s="32"/>
       <c r="C870" s="32"/>
       <c r="D870" s="32"/>
@@ -10918,7 +11251,7 @@
       <c r="I870" s="33"/>
       <c r="J870" s="33"/>
     </row>
-    <row r="871" spans="2:10" ht="12.75">
+    <row r="871" spans="2:10" ht="13.2">
       <c r="B871" s="32"/>
       <c r="C871" s="32"/>
       <c r="D871" s="32"/>
@@ -10928,7 +11261,7 @@
       <c r="I871" s="33"/>
       <c r="J871" s="33"/>
     </row>
-    <row r="872" spans="2:10" ht="12.75">
+    <row r="872" spans="2:10" ht="13.2">
       <c r="B872" s="32"/>
       <c r="C872" s="32"/>
       <c r="D872" s="32"/>
@@ -10938,7 +11271,7 @@
       <c r="I872" s="33"/>
       <c r="J872" s="33"/>
     </row>
-    <row r="873" spans="2:10" ht="12.75">
+    <row r="873" spans="2:10" ht="13.2">
       <c r="B873" s="32"/>
       <c r="C873" s="32"/>
       <c r="D873" s="32"/>
@@ -10948,7 +11281,7 @@
       <c r="I873" s="33"/>
       <c r="J873" s="33"/>
     </row>
-    <row r="874" spans="2:10" ht="12.75">
+    <row r="874" spans="2:10" ht="13.2">
       <c r="B874" s="32"/>
       <c r="C874" s="32"/>
       <c r="D874" s="32"/>
@@ -10958,7 +11291,7 @@
       <c r="I874" s="33"/>
       <c r="J874" s="33"/>
     </row>
-    <row r="875" spans="2:10" ht="12.75">
+    <row r="875" spans="2:10" ht="13.2">
       <c r="B875" s="32"/>
       <c r="C875" s="32"/>
       <c r="D875" s="32"/>
@@ -10968,7 +11301,7 @@
       <c r="I875" s="33"/>
       <c r="J875" s="33"/>
     </row>
-    <row r="876" spans="2:10" ht="12.75">
+    <row r="876" spans="2:10" ht="13.2">
       <c r="B876" s="32"/>
       <c r="C876" s="32"/>
       <c r="D876" s="32"/>
@@ -10978,7 +11311,7 @@
       <c r="I876" s="33"/>
       <c r="J876" s="33"/>
     </row>
-    <row r="877" spans="2:10" ht="12.75">
+    <row r="877" spans="2:10" ht="13.2">
       <c r="B877" s="32"/>
       <c r="C877" s="32"/>
       <c r="D877" s="32"/>
@@ -10988,7 +11321,7 @@
       <c r="I877" s="33"/>
       <c r="J877" s="33"/>
     </row>
-    <row r="878" spans="2:10" ht="12.75">
+    <row r="878" spans="2:10" ht="13.2">
       <c r="B878" s="32"/>
       <c r="C878" s="32"/>
       <c r="D878" s="32"/>
@@ -10998,7 +11331,7 @@
       <c r="I878" s="33"/>
       <c r="J878" s="33"/>
     </row>
-    <row r="879" spans="2:10" ht="12.75">
+    <row r="879" spans="2:10" ht="13.2">
       <c r="B879" s="32"/>
       <c r="C879" s="32"/>
       <c r="D879" s="32"/>
@@ -11008,7 +11341,7 @@
       <c r="I879" s="33"/>
       <c r="J879" s="33"/>
     </row>
-    <row r="880" spans="2:10" ht="12.75">
+    <row r="880" spans="2:10" ht="13.2">
       <c r="B880" s="32"/>
       <c r="C880" s="32"/>
       <c r="D880" s="32"/>
@@ -11018,7 +11351,7 @@
       <c r="I880" s="33"/>
       <c r="J880" s="33"/>
     </row>
-    <row r="881" spans="2:10" ht="12.75">
+    <row r="881" spans="2:10" ht="13.2">
       <c r="B881" s="32"/>
       <c r="C881" s="32"/>
       <c r="D881" s="32"/>
@@ -11028,7 +11361,7 @@
       <c r="I881" s="33"/>
       <c r="J881" s="33"/>
     </row>
-    <row r="882" spans="2:10" ht="12.75">
+    <row r="882" spans="2:10" ht="13.2">
       <c r="B882" s="32"/>
       <c r="C882" s="32"/>
       <c r="D882" s="32"/>
@@ -11038,7 +11371,7 @@
       <c r="I882" s="33"/>
       <c r="J882" s="33"/>
     </row>
-    <row r="883" spans="2:10" ht="12.75">
+    <row r="883" spans="2:10" ht="13.2">
       <c r="B883" s="32"/>
       <c r="C883" s="32"/>
       <c r="D883" s="32"/>
@@ -11048,7 +11381,7 @@
       <c r="I883" s="33"/>
       <c r="J883" s="33"/>
     </row>
-    <row r="884" spans="2:10" ht="12.75">
+    <row r="884" spans="2:10" ht="13.2">
       <c r="B884" s="32"/>
       <c r="C884" s="32"/>
       <c r="D884" s="32"/>
@@ -11058,7 +11391,7 @@
       <c r="I884" s="33"/>
       <c r="J884" s="33"/>
     </row>
-    <row r="885" spans="2:10" ht="12.75">
+    <row r="885" spans="2:10" ht="13.2">
       <c r="B885" s="32"/>
       <c r="C885" s="32"/>
       <c r="D885" s="32"/>
@@ -11068,7 +11401,7 @@
       <c r="I885" s="33"/>
       <c r="J885" s="33"/>
     </row>
-    <row r="886" spans="2:10" ht="12.75">
+    <row r="886" spans="2:10" ht="13.2">
       <c r="B886" s="32"/>
       <c r="C886" s="32"/>
       <c r="D886" s="32"/>
@@ -11078,7 +11411,7 @@
       <c r="I886" s="33"/>
       <c r="J886" s="33"/>
     </row>
-    <row r="887" spans="2:10" ht="12.75">
+    <row r="887" spans="2:10" ht="13.2">
       <c r="B887" s="32"/>
       <c r="C887" s="32"/>
       <c r="D887" s="32"/>
@@ -11088,7 +11421,7 @@
       <c r="I887" s="33"/>
       <c r="J887" s="33"/>
     </row>
-    <row r="888" spans="2:10" ht="12.75">
+    <row r="888" spans="2:10" ht="13.2">
       <c r="B888" s="32"/>
       <c r="C888" s="32"/>
       <c r="D888" s="32"/>
@@ -11098,7 +11431,7 @@
       <c r="I888" s="33"/>
       <c r="J888" s="33"/>
     </row>
-    <row r="889" spans="2:10" ht="12.75">
+    <row r="889" spans="2:10" ht="13.2">
       <c r="B889" s="32"/>
       <c r="C889" s="32"/>
       <c r="D889" s="32"/>
@@ -11108,7 +11441,7 @@
       <c r="I889" s="33"/>
       <c r="J889" s="33"/>
     </row>
-    <row r="890" spans="2:10" ht="12.75">
+    <row r="890" spans="2:10" ht="13.2">
       <c r="B890" s="32"/>
       <c r="C890" s="32"/>
       <c r="D890" s="32"/>
@@ -11118,7 +11451,7 @@
       <c r="I890" s="33"/>
       <c r="J890" s="33"/>
     </row>
-    <row r="891" spans="2:10" ht="12.75">
+    <row r="891" spans="2:10" ht="13.2">
       <c r="B891" s="32"/>
       <c r="C891" s="32"/>
       <c r="D891" s="32"/>
@@ -11128,7 +11461,7 @@
       <c r="I891" s="33"/>
       <c r="J891" s="33"/>
     </row>
-    <row r="892" spans="2:10" ht="12.75">
+    <row r="892" spans="2:10" ht="13.2">
       <c r="B892" s="32"/>
       <c r="C892" s="32"/>
       <c r="D892" s="32"/>
@@ -11138,7 +11471,7 @@
       <c r="I892" s="33"/>
       <c r="J892" s="33"/>
     </row>
-    <row r="893" spans="2:10" ht="12.75">
+    <row r="893" spans="2:10" ht="13.2">
       <c r="B893" s="32"/>
       <c r="C893" s="32"/>
       <c r="D893" s="32"/>
@@ -11148,7 +11481,7 @@
       <c r="I893" s="33"/>
       <c r="J893" s="33"/>
     </row>
-    <row r="894" spans="2:10" ht="12.75">
+    <row r="894" spans="2:10" ht="13.2">
       <c r="B894" s="32"/>
       <c r="C894" s="32"/>
       <c r="D894" s="32"/>
@@ -11158,7 +11491,7 @@
       <c r="I894" s="33"/>
       <c r="J894" s="33"/>
     </row>
-    <row r="895" spans="2:10" ht="12.75">
+    <row r="895" spans="2:10" ht="13.2">
       <c r="B895" s="32"/>
       <c r="C895" s="32"/>
       <c r="D895" s="32"/>
@@ -11168,7 +11501,7 @@
       <c r="I895" s="33"/>
       <c r="J895" s="33"/>
     </row>
-    <row r="896" spans="2:10" ht="12.75">
+    <row r="896" spans="2:10" ht="13.2">
       <c r="B896" s="32"/>
       <c r="C896" s="32"/>
       <c r="D896" s="32"/>
@@ -11178,7 +11511,7 @@
       <c r="I896" s="33"/>
       <c r="J896" s="33"/>
     </row>
-    <row r="897" spans="2:10" ht="12.75">
+    <row r="897" spans="2:10" ht="13.2">
       <c r="B897" s="32"/>
       <c r="C897" s="32"/>
       <c r="D897" s="32"/>
@@ -11188,7 +11521,7 @@
       <c r="I897" s="33"/>
       <c r="J897" s="33"/>
     </row>
-    <row r="898" spans="2:10" ht="12.75">
+    <row r="898" spans="2:10" ht="13.2">
       <c r="B898" s="32"/>
       <c r="C898" s="32"/>
       <c r="D898" s="32"/>
@@ -11198,7 +11531,7 @@
       <c r="I898" s="33"/>
       <c r="J898" s="33"/>
     </row>
-    <row r="899" spans="2:10" ht="12.75">
+    <row r="899" spans="2:10" ht="13.2">
       <c r="B899" s="32"/>
       <c r="C899" s="32"/>
       <c r="D899" s="32"/>
@@ -11208,7 +11541,7 @@
       <c r="I899" s="33"/>
       <c r="J899" s="33"/>
     </row>
-    <row r="900" spans="2:10" ht="12.75">
+    <row r="900" spans="2:10" ht="13.2">
       <c r="B900" s="32"/>
       <c r="C900" s="32"/>
       <c r="D900" s="32"/>
@@ -11218,7 +11551,7 @@
       <c r="I900" s="33"/>
       <c r="J900" s="33"/>
     </row>
-    <row r="901" spans="2:10" ht="12.75">
+    <row r="901" spans="2:10" ht="13.2">
       <c r="B901" s="32"/>
       <c r="C901" s="32"/>
       <c r="D901" s="32"/>
@@ -11228,7 +11561,7 @@
       <c r="I901" s="33"/>
       <c r="J901" s="33"/>
     </row>
-    <row r="902" spans="2:10" ht="12.75">
+    <row r="902" spans="2:10" ht="13.2">
       <c r="B902" s="32"/>
       <c r="C902" s="32"/>
       <c r="D902" s="32"/>
@@ -11238,7 +11571,7 @@
       <c r="I902" s="33"/>
       <c r="J902" s="33"/>
     </row>
-    <row r="903" spans="2:10" ht="12.75">
+    <row r="903" spans="2:10" ht="13.2">
       <c r="B903" s="32"/>
       <c r="C903" s="32"/>
       <c r="D903" s="32"/>
@@ -11248,7 +11581,7 @@
       <c r="I903" s="33"/>
       <c r="J903" s="33"/>
     </row>
-    <row r="904" spans="2:10" ht="12.75">
+    <row r="904" spans="2:10" ht="13.2">
       <c r="B904" s="32"/>
       <c r="C904" s="32"/>
       <c r="D904" s="32"/>
@@ -11258,7 +11591,7 @@
       <c r="I904" s="33"/>
       <c r="J904" s="33"/>
     </row>
-    <row r="905" spans="2:10" ht="12.75">
+    <row r="905" spans="2:10" ht="13.2">
       <c r="B905" s="32"/>
       <c r="C905" s="32"/>
       <c r="D905" s="32"/>
@@ -11268,7 +11601,7 @@
       <c r="I905" s="33"/>
       <c r="J905" s="33"/>
     </row>
-    <row r="906" spans="2:10" ht="12.75">
+    <row r="906" spans="2:10" ht="13.2">
       <c r="B906" s="32"/>
       <c r="C906" s="32"/>
       <c r="D906" s="32"/>
@@ -11278,7 +11611,7 @@
       <c r="I906" s="33"/>
       <c r="J906" s="33"/>
     </row>
-    <row r="907" spans="2:10" ht="12.75">
+    <row r="907" spans="2:10" ht="13.2">
       <c r="B907" s="32"/>
       <c r="C907" s="32"/>
       <c r="D907" s="32"/>
@@ -11288,7 +11621,7 @@
       <c r="I907" s="33"/>
       <c r="J907" s="33"/>
     </row>
-    <row r="908" spans="2:10" ht="12.75">
+    <row r="908" spans="2:10" ht="13.2">
       <c r="B908" s="32"/>
       <c r="C908" s="32"/>
       <c r="D908" s="32"/>
@@ -11298,7 +11631,7 @@
       <c r="I908" s="33"/>
       <c r="J908" s="33"/>
     </row>
-    <row r="909" spans="2:10" ht="12.75">
+    <row r="909" spans="2:10" ht="13.2">
       <c r="B909" s="32"/>
       <c r="C909" s="32"/>
       <c r="D909" s="32"/>
@@ -11308,7 +11641,7 @@
       <c r="I909" s="33"/>
       <c r="J909" s="33"/>
     </row>
-    <row r="910" spans="2:10" ht="12.75">
+    <row r="910" spans="2:10" ht="13.2">
       <c r="B910" s="32"/>
       <c r="C910" s="32"/>
       <c r="D910" s="32"/>
@@ -11318,7 +11651,7 @@
       <c r="I910" s="33"/>
       <c r="J910" s="33"/>
     </row>
-    <row r="911" spans="2:10" ht="12.75">
+    <row r="911" spans="2:10" ht="13.2">
       <c r="B911" s="32"/>
       <c r="C911" s="32"/>
       <c r="D911" s="32"/>
@@ -11328,7 +11661,7 @@
       <c r="I911" s="33"/>
       <c r="J911" s="33"/>
     </row>
-    <row r="912" spans="2:10" ht="12.75">
+    <row r="912" spans="2:10" ht="13.2">
       <c r="B912" s="32"/>
       <c r="C912" s="32"/>
       <c r="D912" s="32"/>
@@ -11338,7 +11671,7 @@
       <c r="I912" s="33"/>
       <c r="J912" s="33"/>
     </row>
-    <row r="913" spans="2:10" ht="12.75">
+    <row r="913" spans="2:10" ht="13.2">
       <c r="B913" s="32"/>
       <c r="C913" s="32"/>
       <c r="D913" s="32"/>
@@ -11348,7 +11681,7 @@
       <c r="I913" s="33"/>
       <c r="J913" s="33"/>
     </row>
-    <row r="914" spans="2:10" ht="12.75">
+    <row r="914" spans="2:10" ht="13.2">
       <c r="B914" s="32"/>
       <c r="C914" s="32"/>
       <c r="D914" s="32"/>
@@ -11358,7 +11691,7 @@
       <c r="I914" s="33"/>
       <c r="J914" s="33"/>
     </row>
-    <row r="915" spans="2:10" ht="12.75">
+    <row r="915" spans="2:10" ht="13.2">
       <c r="B915" s="32"/>
       <c r="C915" s="32"/>
       <c r="D915" s="32"/>
@@ -11368,7 +11701,7 @@
       <c r="I915" s="33"/>
       <c r="J915" s="33"/>
     </row>
-    <row r="916" spans="2:10" ht="12.75">
+    <row r="916" spans="2:10" ht="13.2">
       <c r="B916" s="32"/>
       <c r="C916" s="32"/>
       <c r="D916" s="32"/>
@@ -11378,7 +11711,7 @@
       <c r="I916" s="33"/>
       <c r="J916" s="33"/>
     </row>
-    <row r="917" spans="2:10" ht="12.75">
+    <row r="917" spans="2:10" ht="13.2">
       <c r="B917" s="32"/>
       <c r="C917" s="32"/>
       <c r="D917" s="32"/>
@@ -11388,7 +11721,7 @@
       <c r="I917" s="33"/>
       <c r="J917" s="33"/>
     </row>
-    <row r="918" spans="2:10" ht="12.75">
+    <row r="918" spans="2:10" ht="13.2">
       <c r="B918" s="32"/>
       <c r="C918" s="32"/>
       <c r="D918" s="32"/>
@@ -11398,7 +11731,7 @@
       <c r="I918" s="33"/>
       <c r="J918" s="33"/>
     </row>
-    <row r="919" spans="2:10" ht="12.75">
+    <row r="919" spans="2:10" ht="13.2">
       <c r="B919" s="32"/>
       <c r="C919" s="32"/>
       <c r="D919" s="32"/>
@@ -11408,7 +11741,7 @@
       <c r="I919" s="33"/>
       <c r="J919" s="33"/>
     </row>
-    <row r="920" spans="2:10" ht="12.75">
+    <row r="920" spans="2:10" ht="13.2">
       <c r="B920" s="32"/>
       <c r="C920" s="32"/>
       <c r="D920" s="32"/>
@@ -11418,7 +11751,7 @@
       <c r="I920" s="33"/>
       <c r="J920" s="33"/>
     </row>
-    <row r="921" spans="2:10" ht="12.75">
+    <row r="921" spans="2:10" ht="13.2">
       <c r="B921" s="32"/>
       <c r="C921" s="32"/>
       <c r="D921" s="32"/>
@@ -11428,7 +11761,7 @@
       <c r="I921" s="33"/>
       <c r="J921" s="33"/>
     </row>
-    <row r="922" spans="2:10" ht="12.75">
+    <row r="922" spans="2:10" ht="13.2">
       <c r="B922" s="32"/>
       <c r="C922" s="32"/>
       <c r="D922" s="32"/>
@@ -11438,7 +11771,7 @@
       <c r="I922" s="33"/>
       <c r="J922" s="33"/>
     </row>
-    <row r="923" spans="2:10" ht="12.75">
+    <row r="923" spans="2:10" ht="13.2">
       <c r="B923" s="32"/>
       <c r="C923" s="32"/>
       <c r="D923" s="32"/>
@@ -11448,7 +11781,7 @@
       <c r="I923" s="33"/>
       <c r="J923" s="33"/>
     </row>
-    <row r="924" spans="2:10" ht="12.75">
+    <row r="924" spans="2:10" ht="13.2">
       <c r="B924" s="32"/>
       <c r="C924" s="32"/>
       <c r="D924" s="32"/>
@@ -11458,7 +11791,7 @@
       <c r="I924" s="33"/>
       <c r="J924" s="33"/>
     </row>
-    <row r="925" spans="2:10" ht="12.75">
+    <row r="925" spans="2:10" ht="13.2">
       <c r="B925" s="32"/>
       <c r="C925" s="32"/>
       <c r="D925" s="32"/>
@@ -11468,7 +11801,7 @@
       <c r="I925" s="33"/>
       <c r="J925" s="33"/>
     </row>
-    <row r="926" spans="2:10" ht="12.75">
+    <row r="926" spans="2:10" ht="13.2">
       <c r="B926" s="32"/>
       <c r="C926" s="32"/>
       <c r="D926" s="32"/>
@@ -11478,7 +11811,7 @@
       <c r="I926" s="33"/>
       <c r="J926" s="33"/>
     </row>
-    <row r="927" spans="2:10" ht="12.75">
+    <row r="927" spans="2:10" ht="13.2">
       <c r="B927" s="32"/>
       <c r="C927" s="32"/>
       <c r="D927" s="32"/>
@@ -11488,7 +11821,7 @@
       <c r="I927" s="33"/>
       <c r="J927" s="33"/>
     </row>
-    <row r="928" spans="2:10" ht="12.75">
+    <row r="928" spans="2:10" ht="13.2">
       <c r="B928" s="32"/>
       <c r="C928" s="32"/>
       <c r="D928" s="32"/>
@@ -11498,7 +11831,7 @@
       <c r="I928" s="33"/>
       <c r="J928" s="33"/>
     </row>
-    <row r="929" spans="2:10" ht="12.75">
+    <row r="929" spans="2:10" ht="13.2">
       <c r="B929" s="32"/>
       <c r="C929" s="32"/>
       <c r="D929" s="32"/>
@@ -11508,7 +11841,7 @@
       <c r="I929" s="33"/>
       <c r="J929" s="33"/>
     </row>
-    <row r="930" spans="2:10" ht="12.75">
+    <row r="930" spans="2:10" ht="13.2">
       <c r="B930" s="32"/>
       <c r="C930" s="32"/>
       <c r="D930" s="32"/>
@@ -11518,7 +11851,7 @@
       <c r="I930" s="33"/>
       <c r="J930" s="33"/>
     </row>
-    <row r="931" spans="2:10" ht="12.75">
+    <row r="931" spans="2:10" ht="13.2">
       <c r="B931" s="32"/>
       <c r="C931" s="32"/>
       <c r="D931" s="32"/>
@@ -11528,7 +11861,7 @@
       <c r="I931" s="33"/>
       <c r="J931" s="33"/>
     </row>
-    <row r="932" spans="2:10" ht="12.75">
+    <row r="932" spans="2:10" ht="13.2">
       <c r="B932" s="32"/>
       <c r="C932" s="32"/>
       <c r="D932" s="32"/>
@@ -11538,7 +11871,7 @@
       <c r="I932" s="33"/>
       <c r="J932" s="33"/>
     </row>
-    <row r="933" spans="2:10" ht="12.75">
+    <row r="933" spans="2:10" ht="13.2">
       <c r="B933" s="32"/>
       <c r="C933" s="32"/>
       <c r="D933" s="32"/>
@@ -11548,7 +11881,7 @@
       <c r="I933" s="33"/>
       <c r="J933" s="33"/>
     </row>
-    <row r="934" spans="2:10" ht="12.75">
+    <row r="934" spans="2:10" ht="13.2">
       <c r="B934" s="32"/>
       <c r="C934" s="32"/>
       <c r="D934" s="32"/>
@@ -11558,7 +11891,7 @@
       <c r="I934" s="33"/>
       <c r="J934" s="33"/>
     </row>
-    <row r="935" spans="2:10" ht="12.75">
+    <row r="935" spans="2:10" ht="13.2">
       <c r="B935" s="32"/>
       <c r="C935" s="32"/>
       <c r="D935" s="32"/>
@@ -11568,7 +11901,7 @@
       <c r="I935" s="33"/>
       <c r="J935" s="33"/>
     </row>
-    <row r="936" spans="2:10" ht="12.75">
+    <row r="936" spans="2:10" ht="13.2">
       <c r="B936" s="32"/>
       <c r="C936" s="32"/>
       <c r="D936" s="32"/>
@@ -11578,7 +11911,7 @@
       <c r="I936" s="33"/>
       <c r="J936" s="33"/>
     </row>
-    <row r="937" spans="2:10" ht="12.75">
+    <row r="937" spans="2:10" ht="13.2">
       <c r="B937" s="32"/>
       <c r="C937" s="32"/>
       <c r="D937" s="32"/>
@@ -11588,7 +11921,7 @@
       <c r="I937" s="33"/>
       <c r="J937" s="33"/>
     </row>
-    <row r="938" spans="2:10" ht="12.75">
+    <row r="938" spans="2:10" ht="13.2">
       <c r="B938" s="32"/>
       <c r="C938" s="32"/>
       <c r="D938" s="32"/>
@@ -11598,7 +11931,7 @@
       <c r="I938" s="33"/>
       <c r="J938" s="33"/>
     </row>
-    <row r="939" spans="2:10" ht="12.75">
+    <row r="939" spans="2:10" ht="13.2">
       <c r="B939" s="32"/>
       <c r="C939" s="32"/>
       <c r="D939" s="32"/>
@@ -11608,7 +11941,7 @@
       <c r="I939" s="33"/>
       <c r="J939" s="33"/>
     </row>
-    <row r="940" spans="2:10" ht="12.75">
+    <row r="940" spans="2:10" ht="13.2">
       <c r="B940" s="32"/>
       <c r="C940" s="32"/>
       <c r="D940" s="32"/>
@@ -11618,7 +11951,7 @@
       <c r="I940" s="33"/>
       <c r="J940" s="33"/>
     </row>
-    <row r="941" spans="2:10" ht="12.75">
+    <row r="941" spans="2:10" ht="13.2">
       <c r="B941" s="32"/>
       <c r="C941" s="32"/>
       <c r="D941" s="32"/>
@@ -11628,7 +11961,7 @@
       <c r="I941" s="33"/>
       <c r="J941" s="33"/>
     </row>
-    <row r="942" spans="2:10" ht="12.75">
+    <row r="942" spans="2:10" ht="13.2">
       <c r="B942" s="32"/>
       <c r="C942" s="32"/>
       <c r="D942" s="32"/>
@@ -11638,7 +11971,7 @@
       <c r="I942" s="33"/>
       <c r="J942" s="33"/>
     </row>
-    <row r="943" spans="2:10" ht="12.75">
+    <row r="943" spans="2:10" ht="13.2">
       <c r="B943" s="32"/>
       <c r="C943" s="32"/>
       <c r="D943" s="32"/>
@@ -11648,7 +11981,7 @@
       <c r="I943" s="33"/>
       <c r="J943" s="33"/>
     </row>
-    <row r="944" spans="2:10" ht="12.75">
+    <row r="944" spans="2:10" ht="13.2">
       <c r="B944" s="32"/>
       <c r="C944" s="32"/>
       <c r="D944" s="32"/>
@@ -11658,7 +11991,7 @@
       <c r="I944" s="33"/>
       <c r="J944" s="33"/>
     </row>
-    <row r="945" spans="2:10" ht="12.75">
+    <row r="945" spans="2:10" ht="13.2">
       <c r="B945" s="32"/>
       <c r="C945" s="32"/>
       <c r="D945" s="32"/>
@@ -11668,7 +12001,7 @@
       <c r="I945" s="33"/>
       <c r="J945" s="33"/>
     </row>
-    <row r="946" spans="2:10" ht="12.75">
+    <row r="946" spans="2:10" ht="13.2">
       <c r="B946" s="32"/>
       <c r="C946" s="32"/>
       <c r="D946" s="32"/>
@@ -11678,7 +12011,7 @@
       <c r="I946" s="33"/>
       <c r="J946" s="33"/>
     </row>
-    <row r="947" spans="2:10" ht="12.75">
+    <row r="947" spans="2:10" ht="13.2">
       <c r="B947" s="32"/>
       <c r="C947" s="32"/>
       <c r="D947" s="32"/>
@@ -11688,7 +12021,7 @@
       <c r="I947" s="33"/>
       <c r="J947" s="33"/>
     </row>
-    <row r="948" spans="2:10" ht="12.75">
+    <row r="948" spans="2:10" ht="13.2">
       <c r="B948" s="32"/>
       <c r="C948" s="32"/>
       <c r="D948" s="32"/>
@@ -11698,7 +12031,7 @@
       <c r="I948" s="33"/>
       <c r="J948" s="33"/>
     </row>
-    <row r="949" spans="2:10" ht="12.75">
+    <row r="949" spans="2:10" ht="13.2">
       <c r="B949" s="32"/>
       <c r="C949" s="32"/>
       <c r="D949" s="32"/>
@@ -11708,7 +12041,7 @@
       <c r="I949" s="33"/>
       <c r="J949" s="33"/>
     </row>
-    <row r="950" spans="2:10" ht="12.75">
+    <row r="950" spans="2:10" ht="13.2">
       <c r="B950" s="32"/>
       <c r="C950" s="32"/>
       <c r="D950" s="32"/>
@@ -11718,7 +12051,7 @@
       <c r="I950" s="33"/>
       <c r="J950" s="33"/>
     </row>
-    <row r="951" spans="2:10" ht="12.75">
+    <row r="951" spans="2:10" ht="13.2">
       <c r="B951" s="32"/>
       <c r="C951" s="32"/>
       <c r="D951" s="32"/>
@@ -11728,7 +12061,7 @@
       <c r="I951" s="33"/>
       <c r="J951" s="33"/>
     </row>
-    <row r="952" spans="2:10" ht="12.75">
+    <row r="952" spans="2:10" ht="13.2">
       <c r="B952" s="32"/>
       <c r="C952" s="32"/>
       <c r="D952" s="32"/>
@@ -11738,7 +12071,7 @@
       <c r="I952" s="33"/>
       <c r="J952" s="33"/>
     </row>
-    <row r="953" spans="2:10" ht="12.75">
+    <row r="953" spans="2:10" ht="13.2">
       <c r="B953" s="32"/>
       <c r="C953" s="32"/>
       <c r="D953" s="32"/>
@@ -11748,7 +12081,7 @@
       <c r="I953" s="33"/>
       <c r="J953" s="33"/>
     </row>
-    <row r="954" spans="2:10" ht="12.75">
+    <row r="954" spans="2:10" ht="13.2">
       <c r="B954" s="32"/>
       <c r="C954" s="32"/>
       <c r="D954" s="32"/>
@@ -11758,7 +12091,7 @@
       <c r="I954" s="33"/>
       <c r="J954" s="33"/>
     </row>
-    <row r="955" spans="2:10" ht="12.75">
+    <row r="955" spans="2:10" ht="13.2">
       <c r="B955" s="32"/>
       <c r="C955" s="32"/>
       <c r="D955" s="32"/>
@@ -11768,7 +12101,7 @@
       <c r="I955" s="33"/>
       <c r="J955" s="33"/>
     </row>
-    <row r="956" spans="2:10" ht="12.75">
+    <row r="956" spans="2:10" ht="13.2">
       <c r="B956" s="32"/>
       <c r="C956" s="32"/>
       <c r="D956" s="32"/>
@@ -11778,7 +12111,7 @@
       <c r="I956" s="33"/>
       <c r="J956" s="33"/>
     </row>
-    <row r="957" spans="2:10" ht="12.75">
+    <row r="957" spans="2:10" ht="13.2">
       <c r="B957" s="32"/>
       <c r="C957" s="32"/>
       <c r="D957" s="32"/>
@@ -11788,7 +12121,7 @@
       <c r="I957" s="33"/>
       <c r="J957" s="33"/>
     </row>
-    <row r="958" spans="2:10" ht="12.75">
+    <row r="958" spans="2:10" ht="13.2">
       <c r="B958" s="32"/>
       <c r="C958" s="32"/>
       <c r="D958" s="32"/>
@@ -11798,7 +12131,7 @@
       <c r="I958" s="33"/>
       <c r="J958" s="33"/>
     </row>
-    <row r="959" spans="2:10" ht="12.75">
+    <row r="959" spans="2:10" ht="13.2">
       <c r="B959" s="32"/>
       <c r="C959" s="32"/>
       <c r="D959" s="32"/>
@@ -11808,7 +12141,7 @@
       <c r="I959" s="33"/>
       <c r="J959" s="33"/>
     </row>
-    <row r="960" spans="2:10" ht="12.75">
+    <row r="960" spans="2:10" ht="13.2">
       <c r="B960" s="32"/>
       <c r="C960" s="32"/>
       <c r="D960" s="32"/>
@@ -11818,7 +12151,7 @@
       <c r="I960" s="33"/>
       <c r="J960" s="33"/>
     </row>
-    <row r="961" spans="2:10" ht="12.75">
+    <row r="961" spans="2:10" ht="13.2">
       <c r="B961" s="32"/>
       <c r="C961" s="32"/>
       <c r="D961" s="32"/>
@@ -11828,7 +12161,7 @@
       <c r="I961" s="33"/>
       <c r="J961" s="33"/>
     </row>
-    <row r="962" spans="2:10" ht="12.75">
+    <row r="962" spans="2:10" ht="13.2">
       <c r="B962" s="32"/>
       <c r="C962" s="32"/>
       <c r="D962" s="32"/>
@@ -11838,7 +12171,7 @@
       <c r="I962" s="33"/>
       <c r="J962" s="33"/>
     </row>
-    <row r="963" spans="2:10" ht="12.75">
+    <row r="963" spans="2:10" ht="13.2">
       <c r="B963" s="32"/>
       <c r="C963" s="32"/>
       <c r="D963" s="32"/>
@@ -11848,7 +12181,7 @@
       <c r="I963" s="33"/>
       <c r="J963" s="33"/>
     </row>
-    <row r="964" spans="2:10" ht="12.75">
+    <row r="964" spans="2:10" ht="13.2">
       <c r="B964" s="32"/>
       <c r="C964" s="32"/>
       <c r="D964" s="32"/>
@@ -11858,7 +12191,7 @@
       <c r="I964" s="33"/>
       <c r="J964" s="33"/>
     </row>
-    <row r="965" spans="2:10" ht="12.75">
+    <row r="965" spans="2:10" ht="13.2">
       <c r="B965" s="32"/>
       <c r="C965" s="32"/>
       <c r="D965" s="32"/>
@@ -11868,7 +12201,7 @@
       <c r="I965" s="33"/>
       <c r="J965" s="33"/>
     </row>
-    <row r="966" spans="2:10" ht="12.75">
+    <row r="966" spans="2:10" ht="13.2">
       <c r="B966" s="32"/>
       <c r="C966" s="32"/>
       <c r="D966" s="32"/>
@@ -11878,7 +12211,7 @@
       <c r="I966" s="33"/>
       <c r="J966" s="33"/>
     </row>
-    <row r="967" spans="2:10" ht="12.75">
+    <row r="967" spans="2:10" ht="13.2">
       <c r="B967" s="32"/>
       <c r="C967" s="32"/>
       <c r="D967" s="32"/>
@@ -11888,7 +12221,7 @@
       <c r="I967" s="33"/>
       <c r="J967" s="33"/>
     </row>
-    <row r="968" spans="2:10" ht="12.75">
+    <row r="968" spans="2:10" ht="13.2">
       <c r="B968" s="32"/>
       <c r="C968" s="32"/>
       <c r="D968" s="32"/>
@@ -11898,7 +12231,7 @@
       <c r="I968" s="33"/>
       <c r="J968" s="33"/>
     </row>
-    <row r="969" spans="2:10" ht="12.75">
+    <row r="969" spans="2:10" ht="13.2">
       <c r="B969" s="32"/>
       <c r="C969" s="32"/>
       <c r="D969" s="32"/>
@@ -11908,7 +12241,7 @@
       <c r="I969" s="33"/>
       <c r="J969" s="33"/>
     </row>
-    <row r="970" spans="2:10" ht="12.75">
+    <row r="970" spans="2:10" ht="13.2">
       <c r="B970" s="32"/>
       <c r="C970" s="32"/>
       <c r="D970" s="32"/>
@@ -11918,7 +12251,7 @@
       <c r="I970" s="33"/>
       <c r="J970" s="33"/>
     </row>
-    <row r="971" spans="2:10" ht="12.75">
+    <row r="971" spans="2:10" ht="13.2">
       <c r="B971" s="32"/>
       <c r="C971" s="32"/>
       <c r="D971" s="32"/>
@@ -11928,7 +12261,7 @@
       <c r="I971" s="33"/>
       <c r="J971" s="33"/>
     </row>
-    <row r="972" spans="2:10" ht="12.75">
+    <row r="972" spans="2:10" ht="13.2">
       <c r="B972" s="32"/>
       <c r="C972" s="32"/>
       <c r="D972" s="32"/>
@@ -11938,7 +12271,7 @@
       <c r="I972" s="33"/>
       <c r="J972" s="33"/>
     </row>
-    <row r="973" spans="2:10" ht="12.75">
+    <row r="973" spans="2:10" ht="13.2">
       <c r="B973" s="32"/>
       <c r="C973" s="32"/>
       <c r="D973" s="32"/>
@@ -11948,7 +12281,7 @@
       <c r="I973" s="33"/>
       <c r="J973" s="33"/>
     </row>
-    <row r="974" spans="2:10" ht="12.75">
+    <row r="974" spans="2:10" ht="13.2">
       <c r="B974" s="32"/>
       <c r="C974" s="32"/>
       <c r="D974" s="32"/>
@@ -11958,7 +12291,7 @@
       <c r="I974" s="33"/>
       <c r="J974" s="33"/>
     </row>
-    <row r="975" spans="2:10" ht="12.75">
+    <row r="975" spans="2:10" ht="13.2">
       <c r="B975" s="32"/>
       <c r="C975" s="32"/>
       <c r="D975" s="32"/>
@@ -11968,7 +12301,7 @@
       <c r="I975" s="33"/>
       <c r="J975" s="33"/>
     </row>
-    <row r="976" spans="2:10" ht="12.75">
+    <row r="976" spans="2:10" ht="13.2">
       <c r="B976" s="32"/>
       <c r="C976" s="32"/>
       <c r="D976" s="32"/>
@@ -11978,7 +12311,7 @@
       <c r="I976" s="33"/>
       <c r="J976" s="33"/>
     </row>
-    <row r="977" spans="2:10" ht="12.75">
+    <row r="977" spans="2:10" ht="13.2">
       <c r="B977" s="32"/>
       <c r="C977" s="32"/>
       <c r="D977" s="32"/>
@@ -11988,7 +12321,7 @@
       <c r="I977" s="33"/>
       <c r="J977" s="33"/>
     </row>
-    <row r="978" spans="2:10" ht="12.75">
+    <row r="978" spans="2:10" ht="13.2">
       <c r="B978" s="32"/>
       <c r="C978" s="32"/>
       <c r="D978" s="32"/>
@@ -11998,7 +12331,7 @@
       <c r="I978" s="33"/>
       <c r="J978" s="33"/>
     </row>
-    <row r="979" spans="2:10" ht="12.75">
+    <row r="979" spans="2:10" ht="13.2">
       <c r="B979" s="32"/>
       <c r="C979" s="32"/>
       <c r="D979" s="32"/>
@@ -12008,7 +12341,7 @@
       <c r="I979" s="33"/>
       <c r="J979" s="33"/>
     </row>
-    <row r="980" spans="2:10" ht="12.75">
+    <row r="980" spans="2:10" ht="13.2">
       <c r="B980" s="32"/>
       <c r="C980" s="32"/>
       <c r="D980" s="32"/>
@@ -12018,7 +12351,7 @@
       <c r="I980" s="33"/>
       <c r="J980" s="33"/>
     </row>
-    <row r="981" spans="2:10" ht="12.75">
+    <row r="981" spans="2:10" ht="13.2">
       <c r="B981" s="32"/>
       <c r="C981" s="32"/>
       <c r="D981" s="32"/>
@@ -12028,7 +12361,7 @@
       <c r="I981" s="33"/>
       <c r="J981" s="33"/>
     </row>
-    <row r="982" spans="2:10" ht="12.75">
+    <row r="982" spans="2:10" ht="13.2">
       <c r="B982" s="32"/>
       <c r="C982" s="32"/>
       <c r="D982" s="32"/>
@@ -12038,7 +12371,7 @@
       <c r="I982" s="33"/>
       <c r="J982" s="33"/>
     </row>
-    <row r="983" spans="2:10" ht="12.75">
+    <row r="983" spans="2:10" ht="13.2">
       <c r="B983" s="32"/>
       <c r="C983" s="32"/>
       <c r="D983" s="32"/>
@@ -12048,7 +12381,7 @@
       <c r="I983" s="33"/>
       <c r="J983" s="33"/>
     </row>
-    <row r="984" spans="2:10" ht="12.75">
+    <row r="984" spans="2:10" ht="13.2">
       <c r="B984" s="32"/>
       <c r="C984" s="32"/>
       <c r="D984" s="32"/>
@@ -12058,7 +12391,7 @@
       <c r="I984" s="33"/>
       <c r="J984" s="33"/>
     </row>
-    <row r="985" spans="2:10" ht="12.75">
+    <row r="985" spans="2:10" ht="13.2">
       <c r="B985" s="32"/>
       <c r="C985" s="32"/>
       <c r="D985" s="32"/>
@@ -12068,7 +12401,7 @@
       <c r="I985" s="33"/>
       <c r="J985" s="33"/>
     </row>
-    <row r="986" spans="2:10" ht="12.75">
+    <row r="986" spans="2:10" ht="13.2">
       <c r="B986" s="32"/>
       <c r="C986" s="32"/>
       <c r="D986" s="32"/>
@@ -12078,7 +12411,7 @@
       <c r="I986" s="33"/>
       <c r="J986" s="33"/>
     </row>
-    <row r="987" spans="2:10" ht="12.75">
+    <row r="987" spans="2:10" ht="13.2">
       <c r="B987" s="32"/>
       <c r="C987" s="32"/>
       <c r="D987" s="32"/>
@@ -12088,7 +12421,7 @@
       <c r="I987" s="33"/>
       <c r="J987" s="33"/>
     </row>
-    <row r="988" spans="2:10" ht="12.75">
+    <row r="988" spans="2:10" ht="13.2">
       <c r="B988" s="32"/>
       <c r="C988" s="32"/>
       <c r="D988" s="32"/>
@@ -12098,7 +12431,7 @@
       <c r="I988" s="33"/>
       <c r="J988" s="33"/>
     </row>
-    <row r="989" spans="2:10" ht="12.75">
+    <row r="989" spans="2:10" ht="13.2">
       <c r="B989" s="32"/>
       <c r="C989" s="32"/>
       <c r="D989" s="32"/>
@@ -12108,7 +12441,7 @@
       <c r="I989" s="33"/>
       <c r="J989" s="33"/>
     </row>
-    <row r="990" spans="2:10" ht="12.75">
+    <row r="990" spans="2:10" ht="13.2">
       <c r="B990" s="32"/>
       <c r="C990" s="32"/>
       <c r="D990" s="32"/>
@@ -12118,7 +12451,7 @@
       <c r="I990" s="33"/>
       <c r="J990" s="33"/>
     </row>
-    <row r="991" spans="2:10" ht="12.75">
+    <row r="991" spans="2:10" ht="13.2">
       <c r="B991" s="32"/>
       <c r="C991" s="32"/>
       <c r="D991" s="32"/>
@@ -12128,7 +12461,7 @@
       <c r="I991" s="33"/>
       <c r="J991" s="33"/>
     </row>
-    <row r="992" spans="2:10" ht="12.75">
+    <row r="992" spans="2:10" ht="13.2">
       <c r="B992" s="32"/>
       <c r="C992" s="32"/>
       <c r="D992" s="32"/>
@@ -12138,7 +12471,7 @@
       <c r="I992" s="33"/>
       <c r="J992" s="33"/>
     </row>
-    <row r="993" spans="2:10" ht="12.75">
+    <row r="993" spans="2:10" ht="13.2">
       <c r="B993" s="32"/>
       <c r="C993" s="32"/>
       <c r="D993" s="32"/>
@@ -12148,7 +12481,7 @@
       <c r="I993" s="33"/>
       <c r="J993" s="33"/>
     </row>
-    <row r="994" spans="2:10" ht="12.75">
+    <row r="994" spans="2:10" ht="13.2">
       <c r="B994" s="32"/>
       <c r="C994" s="32"/>
       <c r="D994" s="32"/>
@@ -12158,7 +12491,7 @@
       <c r="I994" s="33"/>
       <c r="J994" s="33"/>
     </row>
-    <row r="995" spans="2:10" ht="12.75">
+    <row r="995" spans="2:10" ht="13.2">
       <c r="B995" s="32"/>
       <c r="C995" s="32"/>
       <c r="D995" s="32"/>
@@ -12168,7 +12501,7 @@
       <c r="I995" s="33"/>
       <c r="J995" s="33"/>
     </row>
-    <row r="996" spans="2:10" ht="12.75">
+    <row r="996" spans="2:10" ht="13.2">
       <c r="B996" s="32"/>
       <c r="C996" s="32"/>
       <c r="D996" s="32"/>
@@ -12178,7 +12511,7 @@
       <c r="I996" s="33"/>
       <c r="J996" s="33"/>
     </row>
-    <row r="997" spans="2:10" ht="12.75">
+    <row r="997" spans="2:10" ht="13.2">
       <c r="B997" s="32"/>
       <c r="C997" s="32"/>
       <c r="D997" s="32"/>
@@ -12188,7 +12521,7 @@
       <c r="I997" s="33"/>
       <c r="J997" s="33"/>
     </row>
-    <row r="998" spans="2:10" ht="12.75">
+    <row r="998" spans="2:10" ht="13.2">
       <c r="B998" s="32"/>
       <c r="C998" s="32"/>
       <c r="D998" s="32"/>
@@ -12198,7 +12531,7 @@
       <c r="I998" s="33"/>
       <c r="J998" s="33"/>
     </row>
-    <row r="999" spans="2:10" ht="12.75">
+    <row r="999" spans="2:10" ht="13.2">
       <c r="B999" s="32"/>
       <c r="C999" s="32"/>
       <c r="D999" s="32"/>
@@ -12208,7 +12541,7 @@
       <c r="I999" s="33"/>
       <c r="J999" s="33"/>
     </row>
-    <row r="1000" spans="2:10" ht="12.75">
+    <row r="1000" spans="2:10" ht="13.2">
       <c r="B1000" s="32"/>
       <c r="C1000" s="32"/>
       <c r="D1000" s="32"/>
@@ -12274,7 +12607,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
